--- a/files/applications/products_template.xlsx
+++ b/files/applications/products_template.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RahimovN\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="page1" sheetId="1" r:id="rId4"/>
+    <sheet name="page1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Номер продукции</t>
   </si>
@@ -33,58 +41,31 @@
   <si>
     <t>Производитель</t>
   </si>
-  <si>
-    <t>p11</t>
-  </si>
-  <si>
-    <t>Frir</t>
-  </si>
-  <si>
-    <t>KZT</t>
-  </si>
-  <si>
-    <t>Test test</t>
-  </si>
-  <si>
-    <t>Test conditions</t>
-  </si>
-  <si>
-    <t>test producer</t>
-  </si>
-  <si>
-    <t>p12</t>
-  </si>
-  <si>
-    <t>p13</t>
-  </si>
-  <si>
-    <t>p14</t>
-  </si>
-  <si>
-    <t>p15</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -94,7 +75,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -104,41 +85,50 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -328,28 +318,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.43"/>
-    <col customWidth="1" min="2" max="2" width="20.71"/>
-    <col customWidth="1" min="3" max="3" width="8.43"/>
-    <col customWidth="1" min="4" max="4" width="8.14"/>
-    <col customWidth="1" min="5" max="5" width="22.14"/>
-    <col customWidth="1" min="6" max="6" width="17.0"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -391,28 +386,14 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -433,28 +414,14 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -475,28 +442,14 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>12</v>
-      </c>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -517,28 +470,14 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>12</v>
-      </c>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -559,28 +498,14 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>12</v>
-      </c>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -601,7 +526,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -629,7 +554,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -657,7 +582,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -685,7 +610,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -713,7 +638,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -741,7 +666,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -769,7 +694,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -797,7 +722,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -825,7 +750,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -853,7 +778,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -881,7 +806,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -909,7 +834,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -937,7 +862,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -965,7 +890,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -993,7 +918,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1021,7 +946,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1049,7 +974,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1077,7 +1002,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1105,7 +1030,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1133,7 +1058,7 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1161,7 +1086,7 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1189,7 +1114,7 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1217,7 +1142,7 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1245,7 +1170,7 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1273,7 +1198,7 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1301,7 +1226,7 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1329,7 +1254,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1357,7 +1282,7 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1385,7 +1310,7 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1413,7 +1338,7 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1441,7 +1366,7 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1469,7 +1394,7 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1497,7 +1422,7 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1525,7 +1450,7 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1553,7 +1478,7 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1581,7 +1506,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1609,7 +1534,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1637,7 +1562,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1665,7 +1590,7 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1693,7 +1618,7 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1721,7 +1646,7 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1749,7 +1674,7 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1777,7 +1702,7 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1805,7 +1730,7 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1833,7 +1758,7 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1861,7 +1786,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1889,7 +1814,7 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1917,7 +1842,7 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1945,7 +1870,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1973,7 +1898,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2001,7 +1926,7 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2029,7 +1954,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2057,7 +1982,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2085,7 +2010,7 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2113,7 +2038,7 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2141,7 +2066,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2169,7 +2094,7 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2197,7 +2122,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2225,7 +2150,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2253,7 +2178,7 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2281,7 +2206,7 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2309,7 +2234,7 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2337,7 +2262,7 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2365,7 +2290,7 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2393,7 +2318,7 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2421,7 +2346,7 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2449,7 +2374,7 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2477,7 +2402,7 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2505,7 +2430,7 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2533,7 +2458,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2561,7 +2486,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2589,7 +2514,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2617,7 +2542,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2645,7 +2570,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2673,7 +2598,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2701,7 +2626,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2729,7 +2654,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2757,7 +2682,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2785,7 +2710,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2813,7 +2738,7 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2841,7 +2766,7 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2869,7 +2794,7 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2897,7 +2822,7 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2925,7 +2850,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2953,7 +2878,7 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2981,7 +2906,7 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3009,7 +2934,7 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3037,7 +2962,7 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3065,7 +2990,7 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3093,7 +3018,7 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3121,7 +3046,7 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3149,7 +3074,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3177,7 +3102,7 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3205,7 +3130,7 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3233,7 +3158,7 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3261,7 +3186,7 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3289,7 +3214,7 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3317,7 +3242,7 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3345,7 +3270,7 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3373,7 +3298,7 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3401,7 +3326,7 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3429,7 +3354,7 @@
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3457,7 +3382,7 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3485,7 +3410,7 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3513,7 +3438,7 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3541,7 +3466,7 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3569,7 +3494,7 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3597,7 +3522,7 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3625,7 +3550,7 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3653,7 +3578,7 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3681,7 +3606,7 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3709,7 +3634,7 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3737,7 +3662,7 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3765,7 +3690,7 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3793,7 +3718,7 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3821,7 +3746,7 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3849,7 +3774,7 @@
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -3877,7 +3802,7 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -3905,7 +3830,7 @@
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -3933,7 +3858,7 @@
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -3961,7 +3886,7 @@
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -3989,7 +3914,7 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4017,7 +3942,7 @@
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4045,7 +3970,7 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4073,7 +3998,7 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4101,7 +4026,7 @@
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4129,7 +4054,7 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4157,7 +4082,7 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4185,7 +4110,7 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4213,7 +4138,7 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4241,7 +4166,7 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4269,7 +4194,7 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -4297,7 +4222,7 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -4325,7 +4250,7 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -4353,7 +4278,7 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -4381,7 +4306,7 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -4409,7 +4334,7 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -4437,7 +4362,7 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -4465,7 +4390,7 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -4493,7 +4418,7 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -4521,7 +4446,7 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -4549,7 +4474,7 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -4577,7 +4502,7 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -4605,7 +4530,7 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -4633,7 +4558,7 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4661,7 +4586,7 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -4689,7 +4614,7 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -4717,7 +4642,7 @@
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -4745,7 +4670,7 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -4773,7 +4698,7 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -4801,7 +4726,7 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -4829,7 +4754,7 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -4857,7 +4782,7 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -4885,7 +4810,7 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -4913,7 +4838,7 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -4941,7 +4866,7 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -4969,7 +4894,7 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -4997,7 +4922,7 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -5025,7 +4950,7 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -5053,7 +4978,7 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -5081,7 +5006,7 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -5109,7 +5034,7 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -5137,7 +5062,7 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -5165,7 +5090,7 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -5193,7 +5118,7 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -5221,7 +5146,7 @@
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -5249,7 +5174,7 @@
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -5277,7 +5202,7 @@
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -5305,7 +5230,7 @@
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -5333,7 +5258,7 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -5361,7 +5286,7 @@
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -5389,7 +5314,7 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -5417,7 +5342,7 @@
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -5445,7 +5370,7 @@
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -5473,7 +5398,7 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -5501,7 +5426,7 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -5529,7 +5454,7 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -5557,7 +5482,7 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -5585,7 +5510,7 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -5613,7 +5538,7 @@
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -5641,7 +5566,7 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -5669,7 +5594,7 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -5697,7 +5622,7 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -5725,7 +5650,7 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -5753,7 +5678,7 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -5781,7 +5706,7 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -5809,7 +5734,7 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -5837,7 +5762,7 @@
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -5865,7 +5790,7 @@
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -5893,7 +5818,7 @@
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -5921,7 +5846,7 @@
       <c r="Y196" s="3"/>
       <c r="Z196" s="3"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -5949,7 +5874,7 @@
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -5977,7 +5902,7 @@
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -6005,7 +5930,7 @@
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -6033,7 +5958,7 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -6061,7 +5986,7 @@
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -6089,7 +6014,7 @@
       <c r="Y202" s="3"/>
       <c r="Z202" s="3"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -6117,7 +6042,7 @@
       <c r="Y203" s="3"/>
       <c r="Z203" s="3"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -6145,7 +6070,7 @@
       <c r="Y204" s="3"/>
       <c r="Z204" s="3"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -6173,7 +6098,7 @@
       <c r="Y205" s="3"/>
       <c r="Z205" s="3"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -6201,7 +6126,7 @@
       <c r="Y206" s="3"/>
       <c r="Z206" s="3"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -6229,7 +6154,7 @@
       <c r="Y207" s="3"/>
       <c r="Z207" s="3"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -6257,7 +6182,7 @@
       <c r="Y208" s="3"/>
       <c r="Z208" s="3"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -6285,7 +6210,7 @@
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -6313,7 +6238,7 @@
       <c r="Y210" s="3"/>
       <c r="Z210" s="3"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -6341,7 +6266,7 @@
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -6369,7 +6294,7 @@
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -6397,7 +6322,7 @@
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -6425,7 +6350,7 @@
       <c r="Y214" s="3"/>
       <c r="Z214" s="3"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -6453,7 +6378,7 @@
       <c r="Y215" s="3"/>
       <c r="Z215" s="3"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -6481,7 +6406,7 @@
       <c r="Y216" s="3"/>
       <c r="Z216" s="3"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -6509,7 +6434,7 @@
       <c r="Y217" s="3"/>
       <c r="Z217" s="3"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -6537,7 +6462,7 @@
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -6565,7 +6490,7 @@
       <c r="Y219" s="3"/>
       <c r="Z219" s="3"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -6593,7 +6518,7 @@
       <c r="Y220" s="3"/>
       <c r="Z220" s="3"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -6621,7 +6546,7 @@
       <c r="Y221" s="3"/>
       <c r="Z221" s="3"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -6649,7 +6574,7 @@
       <c r="Y222" s="3"/>
       <c r="Z222" s="3"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -6677,7 +6602,7 @@
       <c r="Y223" s="3"/>
       <c r="Z223" s="3"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -6705,7 +6630,7 @@
       <c r="Y224" s="3"/>
       <c r="Z224" s="3"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -6733,7 +6658,7 @@
       <c r="Y225" s="3"/>
       <c r="Z225" s="3"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -6761,7 +6686,7 @@
       <c r="Y226" s="3"/>
       <c r="Z226" s="3"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -6789,7 +6714,7 @@
       <c r="Y227" s="3"/>
       <c r="Z227" s="3"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -6817,7 +6742,7 @@
       <c r="Y228" s="3"/>
       <c r="Z228" s="3"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -6845,7 +6770,7 @@
       <c r="Y229" s="3"/>
       <c r="Z229" s="3"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -6873,7 +6798,7 @@
       <c r="Y230" s="3"/>
       <c r="Z230" s="3"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -6901,7 +6826,7 @@
       <c r="Y231" s="3"/>
       <c r="Z231" s="3"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -6929,7 +6854,7 @@
       <c r="Y232" s="3"/>
       <c r="Z232" s="3"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -6957,7 +6882,7 @@
       <c r="Y233" s="3"/>
       <c r="Z233" s="3"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -6985,7 +6910,7 @@
       <c r="Y234" s="3"/>
       <c r="Z234" s="3"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -7013,7 +6938,7 @@
       <c r="Y235" s="3"/>
       <c r="Z235" s="3"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -7041,7 +6966,7 @@
       <c r="Y236" s="3"/>
       <c r="Z236" s="3"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -7069,7 +6994,7 @@
       <c r="Y237" s="3"/>
       <c r="Z237" s="3"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -7097,7 +7022,7 @@
       <c r="Y238" s="3"/>
       <c r="Z238" s="3"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -7125,7 +7050,7 @@
       <c r="Y239" s="3"/>
       <c r="Z239" s="3"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -7153,7 +7078,7 @@
       <c r="Y240" s="3"/>
       <c r="Z240" s="3"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -7181,7 +7106,7 @@
       <c r="Y241" s="3"/>
       <c r="Z241" s="3"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -7209,7 +7134,7 @@
       <c r="Y242" s="3"/>
       <c r="Z242" s="3"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -7237,7 +7162,7 @@
       <c r="Y243" s="3"/>
       <c r="Z243" s="3"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -7265,7 +7190,7 @@
       <c r="Y244" s="3"/>
       <c r="Z244" s="3"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -7293,7 +7218,7 @@
       <c r="Y245" s="3"/>
       <c r="Z245" s="3"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -7321,7 +7246,7 @@
       <c r="Y246" s="3"/>
       <c r="Z246" s="3"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -7349,7 +7274,7 @@
       <c r="Y247" s="3"/>
       <c r="Z247" s="3"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -7377,7 +7302,7 @@
       <c r="Y248" s="3"/>
       <c r="Z248" s="3"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -7405,7 +7330,7 @@
       <c r="Y249" s="3"/>
       <c r="Z249" s="3"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -7433,7 +7358,7 @@
       <c r="Y250" s="3"/>
       <c r="Z250" s="3"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -7461,7 +7386,7 @@
       <c r="Y251" s="3"/>
       <c r="Z251" s="3"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -7489,7 +7414,7 @@
       <c r="Y252" s="3"/>
       <c r="Z252" s="3"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -7517,7 +7442,7 @@
       <c r="Y253" s="3"/>
       <c r="Z253" s="3"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -7545,7 +7470,7 @@
       <c r="Y254" s="3"/>
       <c r="Z254" s="3"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -7573,7 +7498,7 @@
       <c r="Y255" s="3"/>
       <c r="Z255" s="3"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -7601,7 +7526,7 @@
       <c r="Y256" s="3"/>
       <c r="Z256" s="3"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -7629,7 +7554,7 @@
       <c r="Y257" s="3"/>
       <c r="Z257" s="3"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -7657,7 +7582,7 @@
       <c r="Y258" s="3"/>
       <c r="Z258" s="3"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -7685,7 +7610,7 @@
       <c r="Y259" s="3"/>
       <c r="Z259" s="3"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -7713,7 +7638,7 @@
       <c r="Y260" s="3"/>
       <c r="Z260" s="3"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -7741,7 +7666,7 @@
       <c r="Y261" s="3"/>
       <c r="Z261" s="3"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -7769,7 +7694,7 @@
       <c r="Y262" s="3"/>
       <c r="Z262" s="3"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -7797,7 +7722,7 @@
       <c r="Y263" s="3"/>
       <c r="Z263" s="3"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -7825,7 +7750,7 @@
       <c r="Y264" s="3"/>
       <c r="Z264" s="3"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -7853,7 +7778,7 @@
       <c r="Y265" s="3"/>
       <c r="Z265" s="3"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -7881,7 +7806,7 @@
       <c r="Y266" s="3"/>
       <c r="Z266" s="3"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -7909,7 +7834,7 @@
       <c r="Y267" s="3"/>
       <c r="Z267" s="3"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -7937,7 +7862,7 @@
       <c r="Y268" s="3"/>
       <c r="Z268" s="3"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -7965,7 +7890,7 @@
       <c r="Y269" s="3"/>
       <c r="Z269" s="3"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -7993,7 +7918,7 @@
       <c r="Y270" s="3"/>
       <c r="Z270" s="3"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -8021,7 +7946,7 @@
       <c r="Y271" s="3"/>
       <c r="Z271" s="3"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -8049,7 +7974,7 @@
       <c r="Y272" s="3"/>
       <c r="Z272" s="3"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -8077,7 +8002,7 @@
       <c r="Y273" s="3"/>
       <c r="Z273" s="3"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -8105,7 +8030,7 @@
       <c r="Y274" s="3"/>
       <c r="Z274" s="3"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -8133,7 +8058,7 @@
       <c r="Y275" s="3"/>
       <c r="Z275" s="3"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -8161,7 +8086,7 @@
       <c r="Y276" s="3"/>
       <c r="Z276" s="3"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -8189,7 +8114,7 @@
       <c r="Y277" s="3"/>
       <c r="Z277" s="3"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -8217,7 +8142,7 @@
       <c r="Y278" s="3"/>
       <c r="Z278" s="3"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -8245,7 +8170,7 @@
       <c r="Y279" s="3"/>
       <c r="Z279" s="3"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -8273,7 +8198,7 @@
       <c r="Y280" s="3"/>
       <c r="Z280" s="3"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -8301,7 +8226,7 @@
       <c r="Y281" s="3"/>
       <c r="Z281" s="3"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -8329,7 +8254,7 @@
       <c r="Y282" s="3"/>
       <c r="Z282" s="3"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -8357,7 +8282,7 @@
       <c r="Y283" s="3"/>
       <c r="Z283" s="3"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -8385,7 +8310,7 @@
       <c r="Y284" s="3"/>
       <c r="Z284" s="3"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -8413,7 +8338,7 @@
       <c r="Y285" s="3"/>
       <c r="Z285" s="3"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -8441,7 +8366,7 @@
       <c r="Y286" s="3"/>
       <c r="Z286" s="3"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -8469,7 +8394,7 @@
       <c r="Y287" s="3"/>
       <c r="Z287" s="3"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -8497,7 +8422,7 @@
       <c r="Y288" s="3"/>
       <c r="Z288" s="3"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -8525,7 +8450,7 @@
       <c r="Y289" s="3"/>
       <c r="Z289" s="3"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -8553,7 +8478,7 @@
       <c r="Y290" s="3"/>
       <c r="Z290" s="3"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -8581,7 +8506,7 @@
       <c r="Y291" s="3"/>
       <c r="Z291" s="3"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -8609,7 +8534,7 @@
       <c r="Y292" s="3"/>
       <c r="Z292" s="3"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -8637,7 +8562,7 @@
       <c r="Y293" s="3"/>
       <c r="Z293" s="3"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -8665,7 +8590,7 @@
       <c r="Y294" s="3"/>
       <c r="Z294" s="3"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -8693,7 +8618,7 @@
       <c r="Y295" s="3"/>
       <c r="Z295" s="3"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -8721,7 +8646,7 @@
       <c r="Y296" s="3"/>
       <c r="Z296" s="3"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -8749,7 +8674,7 @@
       <c r="Y297" s="3"/>
       <c r="Z297" s="3"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -8777,7 +8702,7 @@
       <c r="Y298" s="3"/>
       <c r="Z298" s="3"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -8805,7 +8730,7 @@
       <c r="Y299" s="3"/>
       <c r="Z299" s="3"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -8833,7 +8758,7 @@
       <c r="Y300" s="3"/>
       <c r="Z300" s="3"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -8861,7 +8786,7 @@
       <c r="Y301" s="3"/>
       <c r="Z301" s="3"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -8889,7 +8814,7 @@
       <c r="Y302" s="3"/>
       <c r="Z302" s="3"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -8917,7 +8842,7 @@
       <c r="Y303" s="3"/>
       <c r="Z303" s="3"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -8945,7 +8870,7 @@
       <c r="Y304" s="3"/>
       <c r="Z304" s="3"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -8973,7 +8898,7 @@
       <c r="Y305" s="3"/>
       <c r="Z305" s="3"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -9001,7 +8926,7 @@
       <c r="Y306" s="3"/>
       <c r="Z306" s="3"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -9029,7 +8954,7 @@
       <c r="Y307" s="3"/>
       <c r="Z307" s="3"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -9057,7 +8982,7 @@
       <c r="Y308" s="3"/>
       <c r="Z308" s="3"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -9085,7 +9010,7 @@
       <c r="Y309" s="3"/>
       <c r="Z309" s="3"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -9113,7 +9038,7 @@
       <c r="Y310" s="3"/>
       <c r="Z310" s="3"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -9141,7 +9066,7 @@
       <c r="Y311" s="3"/>
       <c r="Z311" s="3"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -9169,7 +9094,7 @@
       <c r="Y312" s="3"/>
       <c r="Z312" s="3"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -9197,7 +9122,7 @@
       <c r="Y313" s="3"/>
       <c r="Z313" s="3"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -9225,7 +9150,7 @@
       <c r="Y314" s="3"/>
       <c r="Z314" s="3"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -9253,7 +9178,7 @@
       <c r="Y315" s="3"/>
       <c r="Z315" s="3"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -9281,7 +9206,7 @@
       <c r="Y316" s="3"/>
       <c r="Z316" s="3"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -9309,7 +9234,7 @@
       <c r="Y317" s="3"/>
       <c r="Z317" s="3"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -9337,7 +9262,7 @@
       <c r="Y318" s="3"/>
       <c r="Z318" s="3"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -9365,7 +9290,7 @@
       <c r="Y319" s="3"/>
       <c r="Z319" s="3"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -9393,7 +9318,7 @@
       <c r="Y320" s="3"/>
       <c r="Z320" s="3"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -9421,7 +9346,7 @@
       <c r="Y321" s="3"/>
       <c r="Z321" s="3"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -9449,7 +9374,7 @@
       <c r="Y322" s="3"/>
       <c r="Z322" s="3"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -9477,7 +9402,7 @@
       <c r="Y323" s="3"/>
       <c r="Z323" s="3"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -9505,7 +9430,7 @@
       <c r="Y324" s="3"/>
       <c r="Z324" s="3"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -9533,7 +9458,7 @@
       <c r="Y325" s="3"/>
       <c r="Z325" s="3"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -9561,7 +9486,7 @@
       <c r="Y326" s="3"/>
       <c r="Z326" s="3"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -9589,7 +9514,7 @@
       <c r="Y327" s="3"/>
       <c r="Z327" s="3"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -9617,7 +9542,7 @@
       <c r="Y328" s="3"/>
       <c r="Z328" s="3"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -9645,7 +9570,7 @@
       <c r="Y329" s="3"/>
       <c r="Z329" s="3"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -9673,7 +9598,7 @@
       <c r="Y330" s="3"/>
       <c r="Z330" s="3"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -9701,7 +9626,7 @@
       <c r="Y331" s="3"/>
       <c r="Z331" s="3"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -9729,7 +9654,7 @@
       <c r="Y332" s="3"/>
       <c r="Z332" s="3"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -9757,7 +9682,7 @@
       <c r="Y333" s="3"/>
       <c r="Z333" s="3"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -9785,7 +9710,7 @@
       <c r="Y334" s="3"/>
       <c r="Z334" s="3"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -9813,7 +9738,7 @@
       <c r="Y335" s="3"/>
       <c r="Z335" s="3"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -9841,7 +9766,7 @@
       <c r="Y336" s="3"/>
       <c r="Z336" s="3"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -9869,7 +9794,7 @@
       <c r="Y337" s="3"/>
       <c r="Z337" s="3"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -9897,7 +9822,7 @@
       <c r="Y338" s="3"/>
       <c r="Z338" s="3"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -9925,7 +9850,7 @@
       <c r="Y339" s="3"/>
       <c r="Z339" s="3"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -9953,7 +9878,7 @@
       <c r="Y340" s="3"/>
       <c r="Z340" s="3"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -9981,7 +9906,7 @@
       <c r="Y341" s="3"/>
       <c r="Z341" s="3"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -10009,7 +9934,7 @@
       <c r="Y342" s="3"/>
       <c r="Z342" s="3"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -10037,7 +9962,7 @@
       <c r="Y343" s="3"/>
       <c r="Z343" s="3"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -10065,7 +9990,7 @@
       <c r="Y344" s="3"/>
       <c r="Z344" s="3"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -10093,7 +10018,7 @@
       <c r="Y345" s="3"/>
       <c r="Z345" s="3"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -10121,7 +10046,7 @@
       <c r="Y346" s="3"/>
       <c r="Z346" s="3"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -10149,7 +10074,7 @@
       <c r="Y347" s="3"/>
       <c r="Z347" s="3"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -10177,7 +10102,7 @@
       <c r="Y348" s="3"/>
       <c r="Z348" s="3"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -10205,7 +10130,7 @@
       <c r="Y349" s="3"/>
       <c r="Z349" s="3"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -10233,7 +10158,7 @@
       <c r="Y350" s="3"/>
       <c r="Z350" s="3"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -10261,7 +10186,7 @@
       <c r="Y351" s="3"/>
       <c r="Z351" s="3"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -10289,7 +10214,7 @@
       <c r="Y352" s="3"/>
       <c r="Z352" s="3"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -10317,7 +10242,7 @@
       <c r="Y353" s="3"/>
       <c r="Z353" s="3"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -10345,7 +10270,7 @@
       <c r="Y354" s="3"/>
       <c r="Z354" s="3"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -10373,7 +10298,7 @@
       <c r="Y355" s="3"/>
       <c r="Z355" s="3"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -10401,7 +10326,7 @@
       <c r="Y356" s="3"/>
       <c r="Z356" s="3"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -10429,7 +10354,7 @@
       <c r="Y357" s="3"/>
       <c r="Z357" s="3"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -10457,7 +10382,7 @@
       <c r="Y358" s="3"/>
       <c r="Z358" s="3"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -10485,7 +10410,7 @@
       <c r="Y359" s="3"/>
       <c r="Z359" s="3"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -10513,7 +10438,7 @@
       <c r="Y360" s="3"/>
       <c r="Z360" s="3"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -10541,7 +10466,7 @@
       <c r="Y361" s="3"/>
       <c r="Z361" s="3"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -10569,7 +10494,7 @@
       <c r="Y362" s="3"/>
       <c r="Z362" s="3"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -10597,7 +10522,7 @@
       <c r="Y363" s="3"/>
       <c r="Z363" s="3"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -10625,7 +10550,7 @@
       <c r="Y364" s="3"/>
       <c r="Z364" s="3"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -10653,7 +10578,7 @@
       <c r="Y365" s="3"/>
       <c r="Z365" s="3"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -10681,7 +10606,7 @@
       <c r="Y366" s="3"/>
       <c r="Z366" s="3"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -10709,7 +10634,7 @@
       <c r="Y367" s="3"/>
       <c r="Z367" s="3"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -10737,7 +10662,7 @@
       <c r="Y368" s="3"/>
       <c r="Z368" s="3"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -10765,7 +10690,7 @@
       <c r="Y369" s="3"/>
       <c r="Z369" s="3"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -10793,7 +10718,7 @@
       <c r="Y370" s="3"/>
       <c r="Z370" s="3"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -10821,7 +10746,7 @@
       <c r="Y371" s="3"/>
       <c r="Z371" s="3"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -10849,7 +10774,7 @@
       <c r="Y372" s="3"/>
       <c r="Z372" s="3"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -10877,7 +10802,7 @@
       <c r="Y373" s="3"/>
       <c r="Z373" s="3"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -10905,7 +10830,7 @@
       <c r="Y374" s="3"/>
       <c r="Z374" s="3"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -10933,7 +10858,7 @@
       <c r="Y375" s="3"/>
       <c r="Z375" s="3"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -10961,7 +10886,7 @@
       <c r="Y376" s="3"/>
       <c r="Z376" s="3"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -10989,7 +10914,7 @@
       <c r="Y377" s="3"/>
       <c r="Z377" s="3"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -11017,7 +10942,7 @@
       <c r="Y378" s="3"/>
       <c r="Z378" s="3"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -11045,7 +10970,7 @@
       <c r="Y379" s="3"/>
       <c r="Z379" s="3"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -11073,7 +10998,7 @@
       <c r="Y380" s="3"/>
       <c r="Z380" s="3"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -11101,7 +11026,7 @@
       <c r="Y381" s="3"/>
       <c r="Z381" s="3"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -11129,7 +11054,7 @@
       <c r="Y382" s="3"/>
       <c r="Z382" s="3"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -11157,7 +11082,7 @@
       <c r="Y383" s="3"/>
       <c r="Z383" s="3"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -11185,7 +11110,7 @@
       <c r="Y384" s="3"/>
       <c r="Z384" s="3"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -11213,7 +11138,7 @@
       <c r="Y385" s="3"/>
       <c r="Z385" s="3"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -11241,7 +11166,7 @@
       <c r="Y386" s="3"/>
       <c r="Z386" s="3"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -11269,7 +11194,7 @@
       <c r="Y387" s="3"/>
       <c r="Z387" s="3"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -11297,7 +11222,7 @@
       <c r="Y388" s="3"/>
       <c r="Z388" s="3"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -11325,7 +11250,7 @@
       <c r="Y389" s="3"/>
       <c r="Z389" s="3"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -11353,7 +11278,7 @@
       <c r="Y390" s="3"/>
       <c r="Z390" s="3"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -11381,7 +11306,7 @@
       <c r="Y391" s="3"/>
       <c r="Z391" s="3"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -11409,7 +11334,7 @@
       <c r="Y392" s="3"/>
       <c r="Z392" s="3"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -11437,7 +11362,7 @@
       <c r="Y393" s="3"/>
       <c r="Z393" s="3"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -11465,7 +11390,7 @@
       <c r="Y394" s="3"/>
       <c r="Z394" s="3"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -11493,7 +11418,7 @@
       <c r="Y395" s="3"/>
       <c r="Z395" s="3"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -11521,7 +11446,7 @@
       <c r="Y396" s="3"/>
       <c r="Z396" s="3"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -11549,7 +11474,7 @@
       <c r="Y397" s="3"/>
       <c r="Z397" s="3"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -11577,7 +11502,7 @@
       <c r="Y398" s="3"/>
       <c r="Z398" s="3"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -11605,7 +11530,7 @@
       <c r="Y399" s="3"/>
       <c r="Z399" s="3"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -11633,7 +11558,7 @@
       <c r="Y400" s="3"/>
       <c r="Z400" s="3"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -11661,7 +11586,7 @@
       <c r="Y401" s="3"/>
       <c r="Z401" s="3"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -11689,7 +11614,7 @@
       <c r="Y402" s="3"/>
       <c r="Z402" s="3"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -11717,7 +11642,7 @@
       <c r="Y403" s="3"/>
       <c r="Z403" s="3"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -11745,7 +11670,7 @@
       <c r="Y404" s="3"/>
       <c r="Z404" s="3"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -11773,7 +11698,7 @@
       <c r="Y405" s="3"/>
       <c r="Z405" s="3"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -11801,7 +11726,7 @@
       <c r="Y406" s="3"/>
       <c r="Z406" s="3"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -11829,7 +11754,7 @@
       <c r="Y407" s="3"/>
       <c r="Z407" s="3"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -11857,7 +11782,7 @@
       <c r="Y408" s="3"/>
       <c r="Z408" s="3"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -11885,7 +11810,7 @@
       <c r="Y409" s="3"/>
       <c r="Z409" s="3"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -11913,7 +11838,7 @@
       <c r="Y410" s="3"/>
       <c r="Z410" s="3"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -11941,7 +11866,7 @@
       <c r="Y411" s="3"/>
       <c r="Z411" s="3"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -11969,7 +11894,7 @@
       <c r="Y412" s="3"/>
       <c r="Z412" s="3"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -11997,7 +11922,7 @@
       <c r="Y413" s="3"/>
       <c r="Z413" s="3"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -12025,7 +11950,7 @@
       <c r="Y414" s="3"/>
       <c r="Z414" s="3"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -12053,7 +11978,7 @@
       <c r="Y415" s="3"/>
       <c r="Z415" s="3"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -12081,7 +12006,7 @@
       <c r="Y416" s="3"/>
       <c r="Z416" s="3"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -12109,7 +12034,7 @@
       <c r="Y417" s="3"/>
       <c r="Z417" s="3"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -12137,7 +12062,7 @@
       <c r="Y418" s="3"/>
       <c r="Z418" s="3"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -12165,7 +12090,7 @@
       <c r="Y419" s="3"/>
       <c r="Z419" s="3"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -12193,7 +12118,7 @@
       <c r="Y420" s="3"/>
       <c r="Z420" s="3"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -12221,7 +12146,7 @@
       <c r="Y421" s="3"/>
       <c r="Z421" s="3"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -12249,7 +12174,7 @@
       <c r="Y422" s="3"/>
       <c r="Z422" s="3"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -12277,7 +12202,7 @@
       <c r="Y423" s="3"/>
       <c r="Z423" s="3"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -12305,7 +12230,7 @@
       <c r="Y424" s="3"/>
       <c r="Z424" s="3"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -12333,7 +12258,7 @@
       <c r="Y425" s="3"/>
       <c r="Z425" s="3"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -12361,7 +12286,7 @@
       <c r="Y426" s="3"/>
       <c r="Z426" s="3"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -12389,7 +12314,7 @@
       <c r="Y427" s="3"/>
       <c r="Z427" s="3"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -12417,7 +12342,7 @@
       <c r="Y428" s="3"/>
       <c r="Z428" s="3"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -12445,7 +12370,7 @@
       <c r="Y429" s="3"/>
       <c r="Z429" s="3"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -12473,7 +12398,7 @@
       <c r="Y430" s="3"/>
       <c r="Z430" s="3"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -12501,7 +12426,7 @@
       <c r="Y431" s="3"/>
       <c r="Z431" s="3"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -12529,7 +12454,7 @@
       <c r="Y432" s="3"/>
       <c r="Z432" s="3"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -12557,7 +12482,7 @@
       <c r="Y433" s="3"/>
       <c r="Z433" s="3"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -12585,7 +12510,7 @@
       <c r="Y434" s="3"/>
       <c r="Z434" s="3"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -12613,7 +12538,7 @@
       <c r="Y435" s="3"/>
       <c r="Z435" s="3"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -12641,7 +12566,7 @@
       <c r="Y436" s="3"/>
       <c r="Z436" s="3"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -12669,7 +12594,7 @@
       <c r="Y437" s="3"/>
       <c r="Z437" s="3"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -12697,7 +12622,7 @@
       <c r="Y438" s="3"/>
       <c r="Z438" s="3"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -12725,7 +12650,7 @@
       <c r="Y439" s="3"/>
       <c r="Z439" s="3"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -12753,7 +12678,7 @@
       <c r="Y440" s="3"/>
       <c r="Z440" s="3"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -12781,7 +12706,7 @@
       <c r="Y441" s="3"/>
       <c r="Z441" s="3"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -12809,7 +12734,7 @@
       <c r="Y442" s="3"/>
       <c r="Z442" s="3"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -12837,7 +12762,7 @@
       <c r="Y443" s="3"/>
       <c r="Z443" s="3"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -12865,7 +12790,7 @@
       <c r="Y444" s="3"/>
       <c r="Z444" s="3"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -12893,7 +12818,7 @@
       <c r="Y445" s="3"/>
       <c r="Z445" s="3"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -12921,7 +12846,7 @@
       <c r="Y446" s="3"/>
       <c r="Z446" s="3"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -12949,7 +12874,7 @@
       <c r="Y447" s="3"/>
       <c r="Z447" s="3"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -12977,7 +12902,7 @@
       <c r="Y448" s="3"/>
       <c r="Z448" s="3"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -13005,7 +12930,7 @@
       <c r="Y449" s="3"/>
       <c r="Z449" s="3"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -13033,7 +12958,7 @@
       <c r="Y450" s="3"/>
       <c r="Z450" s="3"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -13061,7 +12986,7 @@
       <c r="Y451" s="3"/>
       <c r="Z451" s="3"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -13089,7 +13014,7 @@
       <c r="Y452" s="3"/>
       <c r="Z452" s="3"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -13117,7 +13042,7 @@
       <c r="Y453" s="3"/>
       <c r="Z453" s="3"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -13145,7 +13070,7 @@
       <c r="Y454" s="3"/>
       <c r="Z454" s="3"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -13173,7 +13098,7 @@
       <c r="Y455" s="3"/>
       <c r="Z455" s="3"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -13201,7 +13126,7 @@
       <c r="Y456" s="3"/>
       <c r="Z456" s="3"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -13229,7 +13154,7 @@
       <c r="Y457" s="3"/>
       <c r="Z457" s="3"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -13257,7 +13182,7 @@
       <c r="Y458" s="3"/>
       <c r="Z458" s="3"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -13285,7 +13210,7 @@
       <c r="Y459" s="3"/>
       <c r="Z459" s="3"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -13313,7 +13238,7 @@
       <c r="Y460" s="3"/>
       <c r="Z460" s="3"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -13341,7 +13266,7 @@
       <c r="Y461" s="3"/>
       <c r="Z461" s="3"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -13369,7 +13294,7 @@
       <c r="Y462" s="3"/>
       <c r="Z462" s="3"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -13397,7 +13322,7 @@
       <c r="Y463" s="3"/>
       <c r="Z463" s="3"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -13425,7 +13350,7 @@
       <c r="Y464" s="3"/>
       <c r="Z464" s="3"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -13453,7 +13378,7 @@
       <c r="Y465" s="3"/>
       <c r="Z465" s="3"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -13481,7 +13406,7 @@
       <c r="Y466" s="3"/>
       <c r="Z466" s="3"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -13509,7 +13434,7 @@
       <c r="Y467" s="3"/>
       <c r="Z467" s="3"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -13537,7 +13462,7 @@
       <c r="Y468" s="3"/>
       <c r="Z468" s="3"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -13565,7 +13490,7 @@
       <c r="Y469" s="3"/>
       <c r="Z469" s="3"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -13593,7 +13518,7 @@
       <c r="Y470" s="3"/>
       <c r="Z470" s="3"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -13621,7 +13546,7 @@
       <c r="Y471" s="3"/>
       <c r="Z471" s="3"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -13649,7 +13574,7 @@
       <c r="Y472" s="3"/>
       <c r="Z472" s="3"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -13677,7 +13602,7 @@
       <c r="Y473" s="3"/>
       <c r="Z473" s="3"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -13705,7 +13630,7 @@
       <c r="Y474" s="3"/>
       <c r="Z474" s="3"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -13733,7 +13658,7 @@
       <c r="Y475" s="3"/>
       <c r="Z475" s="3"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -13761,7 +13686,7 @@
       <c r="Y476" s="3"/>
       <c r="Z476" s="3"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -13789,7 +13714,7 @@
       <c r="Y477" s="3"/>
       <c r="Z477" s="3"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -13817,7 +13742,7 @@
       <c r="Y478" s="3"/>
       <c r="Z478" s="3"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -13845,7 +13770,7 @@
       <c r="Y479" s="3"/>
       <c r="Z479" s="3"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -13873,7 +13798,7 @@
       <c r="Y480" s="3"/>
       <c r="Z480" s="3"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -13901,7 +13826,7 @@
       <c r="Y481" s="3"/>
       <c r="Z481" s="3"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -13929,7 +13854,7 @@
       <c r="Y482" s="3"/>
       <c r="Z482" s="3"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -13957,7 +13882,7 @@
       <c r="Y483" s="3"/>
       <c r="Z483" s="3"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -13985,7 +13910,7 @@
       <c r="Y484" s="3"/>
       <c r="Z484" s="3"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -14013,7 +13938,7 @@
       <c r="Y485" s="3"/>
       <c r="Z485" s="3"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -14041,7 +13966,7 @@
       <c r="Y486" s="3"/>
       <c r="Z486" s="3"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -14069,7 +13994,7 @@
       <c r="Y487" s="3"/>
       <c r="Z487" s="3"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -14097,7 +14022,7 @@
       <c r="Y488" s="3"/>
       <c r="Z488" s="3"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -14125,7 +14050,7 @@
       <c r="Y489" s="3"/>
       <c r="Z489" s="3"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -14153,7 +14078,7 @@
       <c r="Y490" s="3"/>
       <c r="Z490" s="3"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -14181,7 +14106,7 @@
       <c r="Y491" s="3"/>
       <c r="Z491" s="3"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -14209,7 +14134,7 @@
       <c r="Y492" s="3"/>
       <c r="Z492" s="3"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -14237,7 +14162,7 @@
       <c r="Y493" s="3"/>
       <c r="Z493" s="3"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -14265,7 +14190,7 @@
       <c r="Y494" s="3"/>
       <c r="Z494" s="3"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -14293,7 +14218,7 @@
       <c r="Y495" s="3"/>
       <c r="Z495" s="3"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -14321,7 +14246,7 @@
       <c r="Y496" s="3"/>
       <c r="Z496" s="3"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -14349,7 +14274,7 @@
       <c r="Y497" s="3"/>
       <c r="Z497" s="3"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -14377,7 +14302,7 @@
       <c r="Y498" s="3"/>
       <c r="Z498" s="3"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -14405,7 +14330,7 @@
       <c r="Y499" s="3"/>
       <c r="Z499" s="3"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -14433,7 +14358,7 @@
       <c r="Y500" s="3"/>
       <c r="Z500" s="3"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -14461,7 +14386,7 @@
       <c r="Y501" s="3"/>
       <c r="Z501" s="3"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -14489,7 +14414,7 @@
       <c r="Y502" s="3"/>
       <c r="Z502" s="3"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -14517,7 +14442,7 @@
       <c r="Y503" s="3"/>
       <c r="Z503" s="3"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -14545,7 +14470,7 @@
       <c r="Y504" s="3"/>
       <c r="Z504" s="3"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -14573,7 +14498,7 @@
       <c r="Y505" s="3"/>
       <c r="Z505" s="3"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -14601,7 +14526,7 @@
       <c r="Y506" s="3"/>
       <c r="Z506" s="3"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -14629,7 +14554,7 @@
       <c r="Y507" s="3"/>
       <c r="Z507" s="3"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -14657,7 +14582,7 @@
       <c r="Y508" s="3"/>
       <c r="Z508" s="3"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -14685,7 +14610,7 @@
       <c r="Y509" s="3"/>
       <c r="Z509" s="3"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -14713,7 +14638,7 @@
       <c r="Y510" s="3"/>
       <c r="Z510" s="3"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -14741,7 +14666,7 @@
       <c r="Y511" s="3"/>
       <c r="Z511" s="3"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -14769,7 +14694,7 @@
       <c r="Y512" s="3"/>
       <c r="Z512" s="3"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -14797,7 +14722,7 @@
       <c r="Y513" s="3"/>
       <c r="Z513" s="3"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -14825,7 +14750,7 @@
       <c r="Y514" s="3"/>
       <c r="Z514" s="3"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -14853,7 +14778,7 @@
       <c r="Y515" s="3"/>
       <c r="Z515" s="3"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -14881,7 +14806,7 @@
       <c r="Y516" s="3"/>
       <c r="Z516" s="3"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -14909,7 +14834,7 @@
       <c r="Y517" s="3"/>
       <c r="Z517" s="3"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -14937,7 +14862,7 @@
       <c r="Y518" s="3"/>
       <c r="Z518" s="3"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -14965,7 +14890,7 @@
       <c r="Y519" s="3"/>
       <c r="Z519" s="3"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -14993,7 +14918,7 @@
       <c r="Y520" s="3"/>
       <c r="Z520" s="3"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -15021,7 +14946,7 @@
       <c r="Y521" s="3"/>
       <c r="Z521" s="3"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -15049,7 +14974,7 @@
       <c r="Y522" s="3"/>
       <c r="Z522" s="3"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -15077,7 +15002,7 @@
       <c r="Y523" s="3"/>
       <c r="Z523" s="3"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -15105,7 +15030,7 @@
       <c r="Y524" s="3"/>
       <c r="Z524" s="3"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -15133,7 +15058,7 @@
       <c r="Y525" s="3"/>
       <c r="Z525" s="3"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -15161,7 +15086,7 @@
       <c r="Y526" s="3"/>
       <c r="Z526" s="3"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -15189,7 +15114,7 @@
       <c r="Y527" s="3"/>
       <c r="Z527" s="3"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -15217,7 +15142,7 @@
       <c r="Y528" s="3"/>
       <c r="Z528" s="3"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -15245,7 +15170,7 @@
       <c r="Y529" s="3"/>
       <c r="Z529" s="3"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -15273,7 +15198,7 @@
       <c r="Y530" s="3"/>
       <c r="Z530" s="3"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -15301,7 +15226,7 @@
       <c r="Y531" s="3"/>
       <c r="Z531" s="3"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -15329,7 +15254,7 @@
       <c r="Y532" s="3"/>
       <c r="Z532" s="3"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -15357,7 +15282,7 @@
       <c r="Y533" s="3"/>
       <c r="Z533" s="3"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -15385,7 +15310,7 @@
       <c r="Y534" s="3"/>
       <c r="Z534" s="3"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -15413,7 +15338,7 @@
       <c r="Y535" s="3"/>
       <c r="Z535" s="3"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -15441,7 +15366,7 @@
       <c r="Y536" s="3"/>
       <c r="Z536" s="3"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -15469,7 +15394,7 @@
       <c r="Y537" s="3"/>
       <c r="Z537" s="3"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -15497,7 +15422,7 @@
       <c r="Y538" s="3"/>
       <c r="Z538" s="3"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -15525,7 +15450,7 @@
       <c r="Y539" s="3"/>
       <c r="Z539" s="3"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -15553,7 +15478,7 @@
       <c r="Y540" s="3"/>
       <c r="Z540" s="3"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -15581,7 +15506,7 @@
       <c r="Y541" s="3"/>
       <c r="Z541" s="3"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -15609,7 +15534,7 @@
       <c r="Y542" s="3"/>
       <c r="Z542" s="3"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -15637,7 +15562,7 @@
       <c r="Y543" s="3"/>
       <c r="Z543" s="3"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -15665,7 +15590,7 @@
       <c r="Y544" s="3"/>
       <c r="Z544" s="3"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -15693,7 +15618,7 @@
       <c r="Y545" s="3"/>
       <c r="Z545" s="3"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -15721,7 +15646,7 @@
       <c r="Y546" s="3"/>
       <c r="Z546" s="3"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -15749,7 +15674,7 @@
       <c r="Y547" s="3"/>
       <c r="Z547" s="3"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -15777,7 +15702,7 @@
       <c r="Y548" s="3"/>
       <c r="Z548" s="3"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -15805,7 +15730,7 @@
       <c r="Y549" s="3"/>
       <c r="Z549" s="3"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -15833,7 +15758,7 @@
       <c r="Y550" s="3"/>
       <c r="Z550" s="3"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -15861,7 +15786,7 @@
       <c r="Y551" s="3"/>
       <c r="Z551" s="3"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -15889,7 +15814,7 @@
       <c r="Y552" s="3"/>
       <c r="Z552" s="3"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -15917,7 +15842,7 @@
       <c r="Y553" s="3"/>
       <c r="Z553" s="3"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -15945,7 +15870,7 @@
       <c r="Y554" s="3"/>
       <c r="Z554" s="3"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -15973,7 +15898,7 @@
       <c r="Y555" s="3"/>
       <c r="Z555" s="3"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -16001,7 +15926,7 @@
       <c r="Y556" s="3"/>
       <c r="Z556" s="3"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -16029,7 +15954,7 @@
       <c r="Y557" s="3"/>
       <c r="Z557" s="3"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -16057,7 +15982,7 @@
       <c r="Y558" s="3"/>
       <c r="Z558" s="3"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -16085,7 +16010,7 @@
       <c r="Y559" s="3"/>
       <c r="Z559" s="3"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -16113,7 +16038,7 @@
       <c r="Y560" s="3"/>
       <c r="Z560" s="3"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -16141,7 +16066,7 @@
       <c r="Y561" s="3"/>
       <c r="Z561" s="3"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -16169,7 +16094,7 @@
       <c r="Y562" s="3"/>
       <c r="Z562" s="3"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -16197,7 +16122,7 @@
       <c r="Y563" s="3"/>
       <c r="Z563" s="3"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -16225,7 +16150,7 @@
       <c r="Y564" s="3"/>
       <c r="Z564" s="3"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -16253,7 +16178,7 @@
       <c r="Y565" s="3"/>
       <c r="Z565" s="3"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -16281,7 +16206,7 @@
       <c r="Y566" s="3"/>
       <c r="Z566" s="3"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -16309,7 +16234,7 @@
       <c r="Y567" s="3"/>
       <c r="Z567" s="3"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -16337,7 +16262,7 @@
       <c r="Y568" s="3"/>
       <c r="Z568" s="3"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -16365,7 +16290,7 @@
       <c r="Y569" s="3"/>
       <c r="Z569" s="3"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -16393,7 +16318,7 @@
       <c r="Y570" s="3"/>
       <c r="Z570" s="3"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -16421,7 +16346,7 @@
       <c r="Y571" s="3"/>
       <c r="Z571" s="3"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -16449,7 +16374,7 @@
       <c r="Y572" s="3"/>
       <c r="Z572" s="3"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -16477,7 +16402,7 @@
       <c r="Y573" s="3"/>
       <c r="Z573" s="3"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -16505,7 +16430,7 @@
       <c r="Y574" s="3"/>
       <c r="Z574" s="3"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -16533,7 +16458,7 @@
       <c r="Y575" s="3"/>
       <c r="Z575" s="3"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -16561,7 +16486,7 @@
       <c r="Y576" s="3"/>
       <c r="Z576" s="3"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -16589,7 +16514,7 @@
       <c r="Y577" s="3"/>
       <c r="Z577" s="3"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -16617,7 +16542,7 @@
       <c r="Y578" s="3"/>
       <c r="Z578" s="3"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -16645,7 +16570,7 @@
       <c r="Y579" s="3"/>
       <c r="Z579" s="3"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -16673,7 +16598,7 @@
       <c r="Y580" s="3"/>
       <c r="Z580" s="3"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -16701,7 +16626,7 @@
       <c r="Y581" s="3"/>
       <c r="Z581" s="3"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -16729,7 +16654,7 @@
       <c r="Y582" s="3"/>
       <c r="Z582" s="3"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -16757,7 +16682,7 @@
       <c r="Y583" s="3"/>
       <c r="Z583" s="3"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -16785,7 +16710,7 @@
       <c r="Y584" s="3"/>
       <c r="Z584" s="3"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -16813,7 +16738,7 @@
       <c r="Y585" s="3"/>
       <c r="Z585" s="3"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -16841,7 +16766,7 @@
       <c r="Y586" s="3"/>
       <c r="Z586" s="3"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -16869,7 +16794,7 @@
       <c r="Y587" s="3"/>
       <c r="Z587" s="3"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -16897,7 +16822,7 @@
       <c r="Y588" s="3"/>
       <c r="Z588" s="3"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -16925,7 +16850,7 @@
       <c r="Y589" s="3"/>
       <c r="Z589" s="3"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -16953,7 +16878,7 @@
       <c r="Y590" s="3"/>
       <c r="Z590" s="3"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -16981,7 +16906,7 @@
       <c r="Y591" s="3"/>
       <c r="Z591" s="3"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -17009,7 +16934,7 @@
       <c r="Y592" s="3"/>
       <c r="Z592" s="3"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -17037,7 +16962,7 @@
       <c r="Y593" s="3"/>
       <c r="Z593" s="3"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -17065,7 +16990,7 @@
       <c r="Y594" s="3"/>
       <c r="Z594" s="3"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -17093,7 +17018,7 @@
       <c r="Y595" s="3"/>
       <c r="Z595" s="3"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -17121,7 +17046,7 @@
       <c r="Y596" s="3"/>
       <c r="Z596" s="3"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -17149,7 +17074,7 @@
       <c r="Y597" s="3"/>
       <c r="Z597" s="3"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -17177,7 +17102,7 @@
       <c r="Y598" s="3"/>
       <c r="Z598" s="3"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -17205,7 +17130,7 @@
       <c r="Y599" s="3"/>
       <c r="Z599" s="3"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -17233,7 +17158,7 @@
       <c r="Y600" s="3"/>
       <c r="Z600" s="3"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -17261,7 +17186,7 @@
       <c r="Y601" s="3"/>
       <c r="Z601" s="3"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -17289,7 +17214,7 @@
       <c r="Y602" s="3"/>
       <c r="Z602" s="3"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -17317,7 +17242,7 @@
       <c r="Y603" s="3"/>
       <c r="Z603" s="3"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -17345,7 +17270,7 @@
       <c r="Y604" s="3"/>
       <c r="Z604" s="3"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -17373,7 +17298,7 @@
       <c r="Y605" s="3"/>
       <c r="Z605" s="3"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -17401,7 +17326,7 @@
       <c r="Y606" s="3"/>
       <c r="Z606" s="3"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -17429,7 +17354,7 @@
       <c r="Y607" s="3"/>
       <c r="Z607" s="3"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -17457,7 +17382,7 @@
       <c r="Y608" s="3"/>
       <c r="Z608" s="3"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -17485,7 +17410,7 @@
       <c r="Y609" s="3"/>
       <c r="Z609" s="3"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -17513,7 +17438,7 @@
       <c r="Y610" s="3"/>
       <c r="Z610" s="3"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -17541,7 +17466,7 @@
       <c r="Y611" s="3"/>
       <c r="Z611" s="3"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -17569,7 +17494,7 @@
       <c r="Y612" s="3"/>
       <c r="Z612" s="3"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -17597,7 +17522,7 @@
       <c r="Y613" s="3"/>
       <c r="Z613" s="3"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -17625,7 +17550,7 @@
       <c r="Y614" s="3"/>
       <c r="Z614" s="3"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -17653,7 +17578,7 @@
       <c r="Y615" s="3"/>
       <c r="Z615" s="3"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -17681,7 +17606,7 @@
       <c r="Y616" s="3"/>
       <c r="Z616" s="3"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -17709,7 +17634,7 @@
       <c r="Y617" s="3"/>
       <c r="Z617" s="3"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -17737,7 +17662,7 @@
       <c r="Y618" s="3"/>
       <c r="Z618" s="3"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -17765,7 +17690,7 @@
       <c r="Y619" s="3"/>
       <c r="Z619" s="3"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -17793,7 +17718,7 @@
       <c r="Y620" s="3"/>
       <c r="Z620" s="3"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -17821,7 +17746,7 @@
       <c r="Y621" s="3"/>
       <c r="Z621" s="3"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -17849,7 +17774,7 @@
       <c r="Y622" s="3"/>
       <c r="Z622" s="3"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -17877,7 +17802,7 @@
       <c r="Y623" s="3"/>
       <c r="Z623" s="3"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -17905,7 +17830,7 @@
       <c r="Y624" s="3"/>
       <c r="Z624" s="3"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -17933,7 +17858,7 @@
       <c r="Y625" s="3"/>
       <c r="Z625" s="3"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -17961,7 +17886,7 @@
       <c r="Y626" s="3"/>
       <c r="Z626" s="3"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -17989,7 +17914,7 @@
       <c r="Y627" s="3"/>
       <c r="Z627" s="3"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -18017,7 +17942,7 @@
       <c r="Y628" s="3"/>
       <c r="Z628" s="3"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -18045,7 +17970,7 @@
       <c r="Y629" s="3"/>
       <c r="Z629" s="3"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -18073,7 +17998,7 @@
       <c r="Y630" s="3"/>
       <c r="Z630" s="3"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -18101,7 +18026,7 @@
       <c r="Y631" s="3"/>
       <c r="Z631" s="3"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -18129,7 +18054,7 @@
       <c r="Y632" s="3"/>
       <c r="Z632" s="3"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -18157,7 +18082,7 @@
       <c r="Y633" s="3"/>
       <c r="Z633" s="3"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -18185,7 +18110,7 @@
       <c r="Y634" s="3"/>
       <c r="Z634" s="3"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -18213,7 +18138,7 @@
       <c r="Y635" s="3"/>
       <c r="Z635" s="3"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -18241,7 +18166,7 @@
       <c r="Y636" s="3"/>
       <c r="Z636" s="3"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -18269,7 +18194,7 @@
       <c r="Y637" s="3"/>
       <c r="Z637" s="3"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -18297,7 +18222,7 @@
       <c r="Y638" s="3"/>
       <c r="Z638" s="3"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -18325,7 +18250,7 @@
       <c r="Y639" s="3"/>
       <c r="Z639" s="3"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -18353,7 +18278,7 @@
       <c r="Y640" s="3"/>
       <c r="Z640" s="3"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -18381,7 +18306,7 @@
       <c r="Y641" s="3"/>
       <c r="Z641" s="3"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -18409,7 +18334,7 @@
       <c r="Y642" s="3"/>
       <c r="Z642" s="3"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -18437,7 +18362,7 @@
       <c r="Y643" s="3"/>
       <c r="Z643" s="3"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -18465,7 +18390,7 @@
       <c r="Y644" s="3"/>
       <c r="Z644" s="3"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -18493,7 +18418,7 @@
       <c r="Y645" s="3"/>
       <c r="Z645" s="3"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -18521,7 +18446,7 @@
       <c r="Y646" s="3"/>
       <c r="Z646" s="3"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -18549,7 +18474,7 @@
       <c r="Y647" s="3"/>
       <c r="Z647" s="3"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -18577,7 +18502,7 @@
       <c r="Y648" s="3"/>
       <c r="Z648" s="3"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -18605,7 +18530,7 @@
       <c r="Y649" s="3"/>
       <c r="Z649" s="3"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -18633,7 +18558,7 @@
       <c r="Y650" s="3"/>
       <c r="Z650" s="3"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -18661,7 +18586,7 @@
       <c r="Y651" s="3"/>
       <c r="Z651" s="3"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -18689,7 +18614,7 @@
       <c r="Y652" s="3"/>
       <c r="Z652" s="3"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -18717,7 +18642,7 @@
       <c r="Y653" s="3"/>
       <c r="Z653" s="3"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -18745,7 +18670,7 @@
       <c r="Y654" s="3"/>
       <c r="Z654" s="3"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -18773,7 +18698,7 @@
       <c r="Y655" s="3"/>
       <c r="Z655" s="3"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -18801,7 +18726,7 @@
       <c r="Y656" s="3"/>
       <c r="Z656" s="3"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -18829,7 +18754,7 @@
       <c r="Y657" s="3"/>
       <c r="Z657" s="3"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -18857,7 +18782,7 @@
       <c r="Y658" s="3"/>
       <c r="Z658" s="3"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -18885,7 +18810,7 @@
       <c r="Y659" s="3"/>
       <c r="Z659" s="3"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -18913,7 +18838,7 @@
       <c r="Y660" s="3"/>
       <c r="Z660" s="3"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -18941,7 +18866,7 @@
       <c r="Y661" s="3"/>
       <c r="Z661" s="3"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -18969,7 +18894,7 @@
       <c r="Y662" s="3"/>
       <c r="Z662" s="3"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -18997,7 +18922,7 @@
       <c r="Y663" s="3"/>
       <c r="Z663" s="3"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -19025,7 +18950,7 @@
       <c r="Y664" s="3"/>
       <c r="Z664" s="3"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -19053,7 +18978,7 @@
       <c r="Y665" s="3"/>
       <c r="Z665" s="3"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -19081,7 +19006,7 @@
       <c r="Y666" s="3"/>
       <c r="Z666" s="3"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -19109,7 +19034,7 @@
       <c r="Y667" s="3"/>
       <c r="Z667" s="3"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -19137,7 +19062,7 @@
       <c r="Y668" s="3"/>
       <c r="Z668" s="3"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -19165,7 +19090,7 @@
       <c r="Y669" s="3"/>
       <c r="Z669" s="3"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -19193,7 +19118,7 @@
       <c r="Y670" s="3"/>
       <c r="Z670" s="3"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -19221,7 +19146,7 @@
       <c r="Y671" s="3"/>
       <c r="Z671" s="3"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -19249,7 +19174,7 @@
       <c r="Y672" s="3"/>
       <c r="Z672" s="3"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -19277,7 +19202,7 @@
       <c r="Y673" s="3"/>
       <c r="Z673" s="3"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -19305,7 +19230,7 @@
       <c r="Y674" s="3"/>
       <c r="Z674" s="3"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -19333,7 +19258,7 @@
       <c r="Y675" s="3"/>
       <c r="Z675" s="3"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -19361,7 +19286,7 @@
       <c r="Y676" s="3"/>
       <c r="Z676" s="3"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -19389,7 +19314,7 @@
       <c r="Y677" s="3"/>
       <c r="Z677" s="3"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -19417,7 +19342,7 @@
       <c r="Y678" s="3"/>
       <c r="Z678" s="3"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -19445,7 +19370,7 @@
       <c r="Y679" s="3"/>
       <c r="Z679" s="3"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -19473,7 +19398,7 @@
       <c r="Y680" s="3"/>
       <c r="Z680" s="3"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -19501,7 +19426,7 @@
       <c r="Y681" s="3"/>
       <c r="Z681" s="3"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -19529,7 +19454,7 @@
       <c r="Y682" s="3"/>
       <c r="Z682" s="3"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -19557,7 +19482,7 @@
       <c r="Y683" s="3"/>
       <c r="Z683" s="3"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -19585,7 +19510,7 @@
       <c r="Y684" s="3"/>
       <c r="Z684" s="3"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -19613,7 +19538,7 @@
       <c r="Y685" s="3"/>
       <c r="Z685" s="3"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -19641,7 +19566,7 @@
       <c r="Y686" s="3"/>
       <c r="Z686" s="3"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -19669,7 +19594,7 @@
       <c r="Y687" s="3"/>
       <c r="Z687" s="3"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -19697,7 +19622,7 @@
       <c r="Y688" s="3"/>
       <c r="Z688" s="3"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -19725,7 +19650,7 @@
       <c r="Y689" s="3"/>
       <c r="Z689" s="3"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -19753,7 +19678,7 @@
       <c r="Y690" s="3"/>
       <c r="Z690" s="3"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -19781,7 +19706,7 @@
       <c r="Y691" s="3"/>
       <c r="Z691" s="3"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -19809,7 +19734,7 @@
       <c r="Y692" s="3"/>
       <c r="Z692" s="3"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -19837,7 +19762,7 @@
       <c r="Y693" s="3"/>
       <c r="Z693" s="3"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -19865,7 +19790,7 @@
       <c r="Y694" s="3"/>
       <c r="Z694" s="3"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -19893,7 +19818,7 @@
       <c r="Y695" s="3"/>
       <c r="Z695" s="3"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -19921,7 +19846,7 @@
       <c r="Y696" s="3"/>
       <c r="Z696" s="3"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -19949,7 +19874,7 @@
       <c r="Y697" s="3"/>
       <c r="Z697" s="3"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -19977,7 +19902,7 @@
       <c r="Y698" s="3"/>
       <c r="Z698" s="3"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -20005,7 +19930,7 @@
       <c r="Y699" s="3"/>
       <c r="Z699" s="3"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -20033,7 +19958,7 @@
       <c r="Y700" s="3"/>
       <c r="Z700" s="3"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -20061,7 +19986,7 @@
       <c r="Y701" s="3"/>
       <c r="Z701" s="3"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -20089,7 +20014,7 @@
       <c r="Y702" s="3"/>
       <c r="Z702" s="3"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -20117,7 +20042,7 @@
       <c r="Y703" s="3"/>
       <c r="Z703" s="3"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -20145,7 +20070,7 @@
       <c r="Y704" s="3"/>
       <c r="Z704" s="3"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -20173,7 +20098,7 @@
       <c r="Y705" s="3"/>
       <c r="Z705" s="3"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -20201,7 +20126,7 @@
       <c r="Y706" s="3"/>
       <c r="Z706" s="3"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -20229,7 +20154,7 @@
       <c r="Y707" s="3"/>
       <c r="Z707" s="3"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -20257,7 +20182,7 @@
       <c r="Y708" s="3"/>
       <c r="Z708" s="3"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -20285,7 +20210,7 @@
       <c r="Y709" s="3"/>
       <c r="Z709" s="3"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -20313,7 +20238,7 @@
       <c r="Y710" s="3"/>
       <c r="Z710" s="3"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -20341,7 +20266,7 @@
       <c r="Y711" s="3"/>
       <c r="Z711" s="3"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -20369,7 +20294,7 @@
       <c r="Y712" s="3"/>
       <c r="Z712" s="3"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -20397,7 +20322,7 @@
       <c r="Y713" s="3"/>
       <c r="Z713" s="3"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -20425,7 +20350,7 @@
       <c r="Y714" s="3"/>
       <c r="Z714" s="3"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -20453,7 +20378,7 @@
       <c r="Y715" s="3"/>
       <c r="Z715" s="3"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -20481,7 +20406,7 @@
       <c r="Y716" s="3"/>
       <c r="Z716" s="3"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -20509,7 +20434,7 @@
       <c r="Y717" s="3"/>
       <c r="Z717" s="3"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -20537,7 +20462,7 @@
       <c r="Y718" s="3"/>
       <c r="Z718" s="3"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -20565,7 +20490,7 @@
       <c r="Y719" s="3"/>
       <c r="Z719" s="3"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -20593,7 +20518,7 @@
       <c r="Y720" s="3"/>
       <c r="Z720" s="3"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -20621,7 +20546,7 @@
       <c r="Y721" s="3"/>
       <c r="Z721" s="3"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -20649,7 +20574,7 @@
       <c r="Y722" s="3"/>
       <c r="Z722" s="3"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -20677,7 +20602,7 @@
       <c r="Y723" s="3"/>
       <c r="Z723" s="3"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -20705,7 +20630,7 @@
       <c r="Y724" s="3"/>
       <c r="Z724" s="3"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -20733,7 +20658,7 @@
       <c r="Y725" s="3"/>
       <c r="Z725" s="3"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -20761,7 +20686,7 @@
       <c r="Y726" s="3"/>
       <c r="Z726" s="3"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -20789,7 +20714,7 @@
       <c r="Y727" s="3"/>
       <c r="Z727" s="3"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -20817,7 +20742,7 @@
       <c r="Y728" s="3"/>
       <c r="Z728" s="3"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -20845,7 +20770,7 @@
       <c r="Y729" s="3"/>
       <c r="Z729" s="3"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -20873,7 +20798,7 @@
       <c r="Y730" s="3"/>
       <c r="Z730" s="3"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -20901,7 +20826,7 @@
       <c r="Y731" s="3"/>
       <c r="Z731" s="3"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -20929,7 +20854,7 @@
       <c r="Y732" s="3"/>
       <c r="Z732" s="3"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -20957,7 +20882,7 @@
       <c r="Y733" s="3"/>
       <c r="Z733" s="3"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -20985,7 +20910,7 @@
       <c r="Y734" s="3"/>
       <c r="Z734" s="3"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -21013,7 +20938,7 @@
       <c r="Y735" s="3"/>
       <c r="Z735" s="3"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -21041,7 +20966,7 @@
       <c r="Y736" s="3"/>
       <c r="Z736" s="3"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -21069,7 +20994,7 @@
       <c r="Y737" s="3"/>
       <c r="Z737" s="3"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -21097,7 +21022,7 @@
       <c r="Y738" s="3"/>
       <c r="Z738" s="3"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -21125,7 +21050,7 @@
       <c r="Y739" s="3"/>
       <c r="Z739" s="3"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -21153,7 +21078,7 @@
       <c r="Y740" s="3"/>
       <c r="Z740" s="3"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -21181,7 +21106,7 @@
       <c r="Y741" s="3"/>
       <c r="Z741" s="3"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -21209,7 +21134,7 @@
       <c r="Y742" s="3"/>
       <c r="Z742" s="3"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -21237,7 +21162,7 @@
       <c r="Y743" s="3"/>
       <c r="Z743" s="3"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -21265,7 +21190,7 @@
       <c r="Y744" s="3"/>
       <c r="Z744" s="3"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -21293,7 +21218,7 @@
       <c r="Y745" s="3"/>
       <c r="Z745" s="3"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -21321,7 +21246,7 @@
       <c r="Y746" s="3"/>
       <c r="Z746" s="3"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -21349,7 +21274,7 @@
       <c r="Y747" s="3"/>
       <c r="Z747" s="3"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -21377,7 +21302,7 @@
       <c r="Y748" s="3"/>
       <c r="Z748" s="3"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -21405,7 +21330,7 @@
       <c r="Y749" s="3"/>
       <c r="Z749" s="3"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -21433,7 +21358,7 @@
       <c r="Y750" s="3"/>
       <c r="Z750" s="3"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -21461,7 +21386,7 @@
       <c r="Y751" s="3"/>
       <c r="Z751" s="3"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -21489,7 +21414,7 @@
       <c r="Y752" s="3"/>
       <c r="Z752" s="3"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -21517,7 +21442,7 @@
       <c r="Y753" s="3"/>
       <c r="Z753" s="3"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -21545,7 +21470,7 @@
       <c r="Y754" s="3"/>
       <c r="Z754" s="3"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -21573,7 +21498,7 @@
       <c r="Y755" s="3"/>
       <c r="Z755" s="3"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -21601,7 +21526,7 @@
       <c r="Y756" s="3"/>
       <c r="Z756" s="3"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -21629,7 +21554,7 @@
       <c r="Y757" s="3"/>
       <c r="Z757" s="3"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -21657,7 +21582,7 @@
       <c r="Y758" s="3"/>
       <c r="Z758" s="3"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -21685,7 +21610,7 @@
       <c r="Y759" s="3"/>
       <c r="Z759" s="3"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -21713,7 +21638,7 @@
       <c r="Y760" s="3"/>
       <c r="Z760" s="3"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -21741,7 +21666,7 @@
       <c r="Y761" s="3"/>
       <c r="Z761" s="3"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -21769,7 +21694,7 @@
       <c r="Y762" s="3"/>
       <c r="Z762" s="3"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -21797,7 +21722,7 @@
       <c r="Y763" s="3"/>
       <c r="Z763" s="3"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -21825,7 +21750,7 @@
       <c r="Y764" s="3"/>
       <c r="Z764" s="3"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -21853,7 +21778,7 @@
       <c r="Y765" s="3"/>
       <c r="Z765" s="3"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -21881,7 +21806,7 @@
       <c r="Y766" s="3"/>
       <c r="Z766" s="3"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -21909,7 +21834,7 @@
       <c r="Y767" s="3"/>
       <c r="Z767" s="3"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -21937,7 +21862,7 @@
       <c r="Y768" s="3"/>
       <c r="Z768" s="3"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -21965,7 +21890,7 @@
       <c r="Y769" s="3"/>
       <c r="Z769" s="3"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -21993,7 +21918,7 @@
       <c r="Y770" s="3"/>
       <c r="Z770" s="3"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -22021,7 +21946,7 @@
       <c r="Y771" s="3"/>
       <c r="Z771" s="3"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -22049,7 +21974,7 @@
       <c r="Y772" s="3"/>
       <c r="Z772" s="3"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -22077,7 +22002,7 @@
       <c r="Y773" s="3"/>
       <c r="Z773" s="3"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -22105,7 +22030,7 @@
       <c r="Y774" s="3"/>
       <c r="Z774" s="3"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -22133,7 +22058,7 @@
       <c r="Y775" s="3"/>
       <c r="Z775" s="3"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -22161,7 +22086,7 @@
       <c r="Y776" s="3"/>
       <c r="Z776" s="3"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -22189,7 +22114,7 @@
       <c r="Y777" s="3"/>
       <c r="Z777" s="3"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -22217,7 +22142,7 @@
       <c r="Y778" s="3"/>
       <c r="Z778" s="3"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -22245,7 +22170,7 @@
       <c r="Y779" s="3"/>
       <c r="Z779" s="3"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -22273,7 +22198,7 @@
       <c r="Y780" s="3"/>
       <c r="Z780" s="3"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -22301,7 +22226,7 @@
       <c r="Y781" s="3"/>
       <c r="Z781" s="3"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -22329,7 +22254,7 @@
       <c r="Y782" s="3"/>
       <c r="Z782" s="3"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -22357,7 +22282,7 @@
       <c r="Y783" s="3"/>
       <c r="Z783" s="3"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -22385,7 +22310,7 @@
       <c r="Y784" s="3"/>
       <c r="Z784" s="3"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -22413,7 +22338,7 @@
       <c r="Y785" s="3"/>
       <c r="Z785" s="3"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -22441,7 +22366,7 @@
       <c r="Y786" s="3"/>
       <c r="Z786" s="3"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -22469,7 +22394,7 @@
       <c r="Y787" s="3"/>
       <c r="Z787" s="3"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -22497,7 +22422,7 @@
       <c r="Y788" s="3"/>
       <c r="Z788" s="3"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -22525,7 +22450,7 @@
       <c r="Y789" s="3"/>
       <c r="Z789" s="3"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -22553,7 +22478,7 @@
       <c r="Y790" s="3"/>
       <c r="Z790" s="3"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -22581,7 +22506,7 @@
       <c r="Y791" s="3"/>
       <c r="Z791" s="3"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -22609,7 +22534,7 @@
       <c r="Y792" s="3"/>
       <c r="Z792" s="3"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -22637,7 +22562,7 @@
       <c r="Y793" s="3"/>
       <c r="Z793" s="3"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -22665,7 +22590,7 @@
       <c r="Y794" s="3"/>
       <c r="Z794" s="3"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -22693,7 +22618,7 @@
       <c r="Y795" s="3"/>
       <c r="Z795" s="3"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -22721,7 +22646,7 @@
       <c r="Y796" s="3"/>
       <c r="Z796" s="3"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -22749,7 +22674,7 @@
       <c r="Y797" s="3"/>
       <c r="Z797" s="3"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -22777,7 +22702,7 @@
       <c r="Y798" s="3"/>
       <c r="Z798" s="3"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -22805,7 +22730,7 @@
       <c r="Y799" s="3"/>
       <c r="Z799" s="3"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -22833,7 +22758,7 @@
       <c r="Y800" s="3"/>
       <c r="Z800" s="3"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -22861,7 +22786,7 @@
       <c r="Y801" s="3"/>
       <c r="Z801" s="3"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -22889,7 +22814,7 @@
       <c r="Y802" s="3"/>
       <c r="Z802" s="3"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -22917,7 +22842,7 @@
       <c r="Y803" s="3"/>
       <c r="Z803" s="3"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -22945,7 +22870,7 @@
       <c r="Y804" s="3"/>
       <c r="Z804" s="3"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -22973,7 +22898,7 @@
       <c r="Y805" s="3"/>
       <c r="Z805" s="3"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -23001,7 +22926,7 @@
       <c r="Y806" s="3"/>
       <c r="Z806" s="3"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -23029,7 +22954,7 @@
       <c r="Y807" s="3"/>
       <c r="Z807" s="3"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -23057,7 +22982,7 @@
       <c r="Y808" s="3"/>
       <c r="Z808" s="3"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -23085,7 +23010,7 @@
       <c r="Y809" s="3"/>
       <c r="Z809" s="3"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -23113,7 +23038,7 @@
       <c r="Y810" s="3"/>
       <c r="Z810" s="3"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -23141,7 +23066,7 @@
       <c r="Y811" s="3"/>
       <c r="Z811" s="3"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -23169,7 +23094,7 @@
       <c r="Y812" s="3"/>
       <c r="Z812" s="3"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -23197,7 +23122,7 @@
       <c r="Y813" s="3"/>
       <c r="Z813" s="3"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -23225,7 +23150,7 @@
       <c r="Y814" s="3"/>
       <c r="Z814" s="3"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -23253,7 +23178,7 @@
       <c r="Y815" s="3"/>
       <c r="Z815" s="3"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -23281,7 +23206,7 @@
       <c r="Y816" s="3"/>
       <c r="Z816" s="3"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -23309,7 +23234,7 @@
       <c r="Y817" s="3"/>
       <c r="Z817" s="3"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -23337,7 +23262,7 @@
       <c r="Y818" s="3"/>
       <c r="Z818" s="3"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -23365,7 +23290,7 @@
       <c r="Y819" s="3"/>
       <c r="Z819" s="3"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -23393,7 +23318,7 @@
       <c r="Y820" s="3"/>
       <c r="Z820" s="3"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -23421,7 +23346,7 @@
       <c r="Y821" s="3"/>
       <c r="Z821" s="3"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -23449,7 +23374,7 @@
       <c r="Y822" s="3"/>
       <c r="Z822" s="3"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -23477,7 +23402,7 @@
       <c r="Y823" s="3"/>
       <c r="Z823" s="3"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -23505,7 +23430,7 @@
       <c r="Y824" s="3"/>
       <c r="Z824" s="3"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -23533,7 +23458,7 @@
       <c r="Y825" s="3"/>
       <c r="Z825" s="3"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -23561,7 +23486,7 @@
       <c r="Y826" s="3"/>
       <c r="Z826" s="3"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -23589,7 +23514,7 @@
       <c r="Y827" s="3"/>
       <c r="Z827" s="3"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -23617,7 +23542,7 @@
       <c r="Y828" s="3"/>
       <c r="Z828" s="3"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -23645,7 +23570,7 @@
       <c r="Y829" s="3"/>
       <c r="Z829" s="3"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -23673,7 +23598,7 @@
       <c r="Y830" s="3"/>
       <c r="Z830" s="3"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -23701,7 +23626,7 @@
       <c r="Y831" s="3"/>
       <c r="Z831" s="3"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -23729,7 +23654,7 @@
       <c r="Y832" s="3"/>
       <c r="Z832" s="3"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -23757,7 +23682,7 @@
       <c r="Y833" s="3"/>
       <c r="Z833" s="3"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -23785,7 +23710,7 @@
       <c r="Y834" s="3"/>
       <c r="Z834" s="3"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -23813,7 +23738,7 @@
       <c r="Y835" s="3"/>
       <c r="Z835" s="3"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -23841,7 +23766,7 @@
       <c r="Y836" s="3"/>
       <c r="Z836" s="3"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -23869,7 +23794,7 @@
       <c r="Y837" s="3"/>
       <c r="Z837" s="3"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -23897,7 +23822,7 @@
       <c r="Y838" s="3"/>
       <c r="Z838" s="3"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -23925,7 +23850,7 @@
       <c r="Y839" s="3"/>
       <c r="Z839" s="3"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -23953,7 +23878,7 @@
       <c r="Y840" s="3"/>
       <c r="Z840" s="3"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -23981,7 +23906,7 @@
       <c r="Y841" s="3"/>
       <c r="Z841" s="3"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -24009,7 +23934,7 @@
       <c r="Y842" s="3"/>
       <c r="Z842" s="3"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -24037,7 +23962,7 @@
       <c r="Y843" s="3"/>
       <c r="Z843" s="3"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -24065,7 +23990,7 @@
       <c r="Y844" s="3"/>
       <c r="Z844" s="3"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -24093,7 +24018,7 @@
       <c r="Y845" s="3"/>
       <c r="Z845" s="3"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -24121,7 +24046,7 @@
       <c r="Y846" s="3"/>
       <c r="Z846" s="3"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -24149,7 +24074,7 @@
       <c r="Y847" s="3"/>
       <c r="Z847" s="3"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -24177,7 +24102,7 @@
       <c r="Y848" s="3"/>
       <c r="Z848" s="3"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -24205,7 +24130,7 @@
       <c r="Y849" s="3"/>
       <c r="Z849" s="3"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -24233,7 +24158,7 @@
       <c r="Y850" s="3"/>
       <c r="Z850" s="3"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -24261,7 +24186,7 @@
       <c r="Y851" s="3"/>
       <c r="Z851" s="3"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -24289,7 +24214,7 @@
       <c r="Y852" s="3"/>
       <c r="Z852" s="3"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -24317,7 +24242,7 @@
       <c r="Y853" s="3"/>
       <c r="Z853" s="3"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -24345,7 +24270,7 @@
       <c r="Y854" s="3"/>
       <c r="Z854" s="3"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -24373,7 +24298,7 @@
       <c r="Y855" s="3"/>
       <c r="Z855" s="3"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -24401,7 +24326,7 @@
       <c r="Y856" s="3"/>
       <c r="Z856" s="3"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -24429,7 +24354,7 @@
       <c r="Y857" s="3"/>
       <c r="Z857" s="3"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -24457,7 +24382,7 @@
       <c r="Y858" s="3"/>
       <c r="Z858" s="3"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -24485,7 +24410,7 @@
       <c r="Y859" s="3"/>
       <c r="Z859" s="3"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -24513,7 +24438,7 @@
       <c r="Y860" s="3"/>
       <c r="Z860" s="3"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -24541,7 +24466,7 @@
       <c r="Y861" s="3"/>
       <c r="Z861" s="3"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -24569,7 +24494,7 @@
       <c r="Y862" s="3"/>
       <c r="Z862" s="3"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -24597,7 +24522,7 @@
       <c r="Y863" s="3"/>
       <c r="Z863" s="3"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -24625,7 +24550,7 @@
       <c r="Y864" s="3"/>
       <c r="Z864" s="3"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -24653,7 +24578,7 @@
       <c r="Y865" s="3"/>
       <c r="Z865" s="3"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -24681,7 +24606,7 @@
       <c r="Y866" s="3"/>
       <c r="Z866" s="3"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -24709,7 +24634,7 @@
       <c r="Y867" s="3"/>
       <c r="Z867" s="3"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -24737,7 +24662,7 @@
       <c r="Y868" s="3"/>
       <c r="Z868" s="3"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -24765,7 +24690,7 @@
       <c r="Y869" s="3"/>
       <c r="Z869" s="3"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -24793,7 +24718,7 @@
       <c r="Y870" s="3"/>
       <c r="Z870" s="3"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -24821,7 +24746,7 @@
       <c r="Y871" s="3"/>
       <c r="Z871" s="3"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -24849,7 +24774,7 @@
       <c r="Y872" s="3"/>
       <c r="Z872" s="3"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -24877,7 +24802,7 @@
       <c r="Y873" s="3"/>
       <c r="Z873" s="3"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -24905,7 +24830,7 @@
       <c r="Y874" s="3"/>
       <c r="Z874" s="3"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -24933,7 +24858,7 @@
       <c r="Y875" s="3"/>
       <c r="Z875" s="3"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -24961,7 +24886,7 @@
       <c r="Y876" s="3"/>
       <c r="Z876" s="3"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -24989,7 +24914,7 @@
       <c r="Y877" s="3"/>
       <c r="Z877" s="3"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -25017,7 +24942,7 @@
       <c r="Y878" s="3"/>
       <c r="Z878" s="3"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -25045,7 +24970,7 @@
       <c r="Y879" s="3"/>
       <c r="Z879" s="3"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -25073,7 +24998,7 @@
       <c r="Y880" s="3"/>
       <c r="Z880" s="3"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -25101,7 +25026,7 @@
       <c r="Y881" s="3"/>
       <c r="Z881" s="3"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -25129,7 +25054,7 @@
       <c r="Y882" s="3"/>
       <c r="Z882" s="3"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -25157,7 +25082,7 @@
       <c r="Y883" s="3"/>
       <c r="Z883" s="3"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -25185,7 +25110,7 @@
       <c r="Y884" s="3"/>
       <c r="Z884" s="3"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
@@ -25213,7 +25138,7 @@
       <c r="Y885" s="3"/>
       <c r="Z885" s="3"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
@@ -25241,7 +25166,7 @@
       <c r="Y886" s="3"/>
       <c r="Z886" s="3"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
@@ -25269,7 +25194,7 @@
       <c r="Y887" s="3"/>
       <c r="Z887" s="3"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
@@ -25297,7 +25222,7 @@
       <c r="Y888" s="3"/>
       <c r="Z888" s="3"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -25325,7 +25250,7 @@
       <c r="Y889" s="3"/>
       <c r="Z889" s="3"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -25353,7 +25278,7 @@
       <c r="Y890" s="3"/>
       <c r="Z890" s="3"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
@@ -25381,7 +25306,7 @@
       <c r="Y891" s="3"/>
       <c r="Z891" s="3"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
@@ -25409,7 +25334,7 @@
       <c r="Y892" s="3"/>
       <c r="Z892" s="3"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -25437,7 +25362,7 @@
       <c r="Y893" s="3"/>
       <c r="Z893" s="3"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -25465,7 +25390,7 @@
       <c r="Y894" s="3"/>
       <c r="Z894" s="3"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
@@ -25493,7 +25418,7 @@
       <c r="Y895" s="3"/>
       <c r="Z895" s="3"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
@@ -25521,7 +25446,7 @@
       <c r="Y896" s="3"/>
       <c r="Z896" s="3"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -25549,7 +25474,7 @@
       <c r="Y897" s="3"/>
       <c r="Z897" s="3"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -25577,7 +25502,7 @@
       <c r="Y898" s="3"/>
       <c r="Z898" s="3"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
@@ -25605,7 +25530,7 @@
       <c r="Y899" s="3"/>
       <c r="Z899" s="3"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
@@ -25633,7 +25558,7 @@
       <c r="Y900" s="3"/>
       <c r="Z900" s="3"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -25661,7 +25586,7 @@
       <c r="Y901" s="3"/>
       <c r="Z901" s="3"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -25689,7 +25614,7 @@
       <c r="Y902" s="3"/>
       <c r="Z902" s="3"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
@@ -25717,7 +25642,7 @@
       <c r="Y903" s="3"/>
       <c r="Z903" s="3"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
@@ -25745,7 +25670,7 @@
       <c r="Y904" s="3"/>
       <c r="Z904" s="3"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -25773,7 +25698,7 @@
       <c r="Y905" s="3"/>
       <c r="Z905" s="3"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -25801,7 +25726,7 @@
       <c r="Y906" s="3"/>
       <c r="Z906" s="3"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
@@ -25829,7 +25754,7 @@
       <c r="Y907" s="3"/>
       <c r="Z907" s="3"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
@@ -25857,7 +25782,7 @@
       <c r="Y908" s="3"/>
       <c r="Z908" s="3"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -25885,7 +25810,7 @@
       <c r="Y909" s="3"/>
       <c r="Z909" s="3"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -25913,7 +25838,7 @@
       <c r="Y910" s="3"/>
       <c r="Z910" s="3"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
@@ -25941,7 +25866,7 @@
       <c r="Y911" s="3"/>
       <c r="Z911" s="3"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
@@ -25969,7 +25894,7 @@
       <c r="Y912" s="3"/>
       <c r="Z912" s="3"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -25997,7 +25922,7 @@
       <c r="Y913" s="3"/>
       <c r="Z913" s="3"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -26025,7 +25950,7 @@
       <c r="Y914" s="3"/>
       <c r="Z914" s="3"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
@@ -26053,7 +25978,7 @@
       <c r="Y915" s="3"/>
       <c r="Z915" s="3"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
@@ -26081,7 +26006,7 @@
       <c r="Y916" s="3"/>
       <c r="Z916" s="3"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -26109,7 +26034,7 @@
       <c r="Y917" s="3"/>
       <c r="Z917" s="3"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -26137,7 +26062,7 @@
       <c r="Y918" s="3"/>
       <c r="Z918" s="3"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
@@ -26165,7 +26090,7 @@
       <c r="Y919" s="3"/>
       <c r="Z919" s="3"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
@@ -26193,7 +26118,7 @@
       <c r="Y920" s="3"/>
       <c r="Z920" s="3"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -26221,7 +26146,7 @@
       <c r="Y921" s="3"/>
       <c r="Z921" s="3"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -26249,7 +26174,7 @@
       <c r="Y922" s="3"/>
       <c r="Z922" s="3"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
@@ -26277,7 +26202,7 @@
       <c r="Y923" s="3"/>
       <c r="Z923" s="3"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
@@ -26305,7 +26230,7 @@
       <c r="Y924" s="3"/>
       <c r="Z924" s="3"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -26333,7 +26258,7 @@
       <c r="Y925" s="3"/>
       <c r="Z925" s="3"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -26361,7 +26286,7 @@
       <c r="Y926" s="3"/>
       <c r="Z926" s="3"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
@@ -26389,7 +26314,7 @@
       <c r="Y927" s="3"/>
       <c r="Z927" s="3"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
@@ -26417,7 +26342,7 @@
       <c r="Y928" s="3"/>
       <c r="Z928" s="3"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -26445,7 +26370,7 @@
       <c r="Y929" s="3"/>
       <c r="Z929" s="3"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -26473,7 +26398,7 @@
       <c r="Y930" s="3"/>
       <c r="Z930" s="3"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
@@ -26501,7 +26426,7 @@
       <c r="Y931" s="3"/>
       <c r="Z931" s="3"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
@@ -26529,7 +26454,7 @@
       <c r="Y932" s="3"/>
       <c r="Z932" s="3"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
@@ -26557,7 +26482,7 @@
       <c r="Y933" s="3"/>
       <c r="Z933" s="3"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
@@ -26585,7 +26510,7 @@
       <c r="Y934" s="3"/>
       <c r="Z934" s="3"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
@@ -26613,7 +26538,7 @@
       <c r="Y935" s="3"/>
       <c r="Z935" s="3"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
@@ -26641,7 +26566,7 @@
       <c r="Y936" s="3"/>
       <c r="Z936" s="3"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -26669,7 +26594,7 @@
       <c r="Y937" s="3"/>
       <c r="Z937" s="3"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
@@ -26697,7 +26622,7 @@
       <c r="Y938" s="3"/>
       <c r="Z938" s="3"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
@@ -26725,7 +26650,7 @@
       <c r="Y939" s="3"/>
       <c r="Z939" s="3"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
@@ -26753,7 +26678,7 @@
       <c r="Y940" s="3"/>
       <c r="Z940" s="3"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -26781,7 +26706,7 @@
       <c r="Y941" s="3"/>
       <c r="Z941" s="3"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -26809,7 +26734,7 @@
       <c r="Y942" s="3"/>
       <c r="Z942" s="3"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -26837,7 +26762,7 @@
       <c r="Y943" s="3"/>
       <c r="Z943" s="3"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
@@ -26865,7 +26790,7 @@
       <c r="Y944" s="3"/>
       <c r="Z944" s="3"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
@@ -26893,7 +26818,7 @@
       <c r="Y945" s="3"/>
       <c r="Z945" s="3"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
@@ -26921,7 +26846,7 @@
       <c r="Y946" s="3"/>
       <c r="Z946" s="3"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -26949,7 +26874,7 @@
       <c r="Y947" s="3"/>
       <c r="Z947" s="3"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
@@ -26977,7 +26902,7 @@
       <c r="Y948" s="3"/>
       <c r="Z948" s="3"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
@@ -27005,7 +26930,7 @@
       <c r="Y949" s="3"/>
       <c r="Z949" s="3"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -27033,7 +26958,7 @@
       <c r="Y950" s="3"/>
       <c r="Z950" s="3"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -27061,7 +26986,7 @@
       <c r="Y951" s="3"/>
       <c r="Z951" s="3"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -27089,7 +27014,7 @@
       <c r="Y952" s="3"/>
       <c r="Z952" s="3"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
@@ -27117,7 +27042,7 @@
       <c r="Y953" s="3"/>
       <c r="Z953" s="3"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
@@ -27145,7 +27070,7 @@
       <c r="Y954" s="3"/>
       <c r="Z954" s="3"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -27173,7 +27098,7 @@
       <c r="Y955" s="3"/>
       <c r="Z955" s="3"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -27201,7 +27126,7 @@
       <c r="Y956" s="3"/>
       <c r="Z956" s="3"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -27229,7 +27154,7 @@
       <c r="Y957" s="3"/>
       <c r="Z957" s="3"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
@@ -27257,7 +27182,7 @@
       <c r="Y958" s="3"/>
       <c r="Z958" s="3"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
@@ -27285,7 +27210,7 @@
       <c r="Y959" s="3"/>
       <c r="Z959" s="3"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -27313,7 +27238,7 @@
       <c r="Y960" s="3"/>
       <c r="Z960" s="3"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
@@ -27341,7 +27266,7 @@
       <c r="Y961" s="3"/>
       <c r="Z961" s="3"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
@@ -27369,7 +27294,7 @@
       <c r="Y962" s="3"/>
       <c r="Z962" s="3"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -27397,7 +27322,7 @@
       <c r="Y963" s="3"/>
       <c r="Z963" s="3"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -27425,7 +27350,7 @@
       <c r="Y964" s="3"/>
       <c r="Z964" s="3"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -27453,7 +27378,7 @@
       <c r="Y965" s="3"/>
       <c r="Z965" s="3"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -27481,7 +27406,7 @@
       <c r="Y966" s="3"/>
       <c r="Z966" s="3"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -27509,7 +27434,7 @@
       <c r="Y967" s="3"/>
       <c r="Z967" s="3"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -27537,7 +27462,7 @@
       <c r="Y968" s="3"/>
       <c r="Z968" s="3"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
@@ -27565,7 +27490,7 @@
       <c r="Y969" s="3"/>
       <c r="Z969" s="3"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
@@ -27593,7 +27518,7 @@
       <c r="Y970" s="3"/>
       <c r="Z970" s="3"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -27621,7 +27546,7 @@
       <c r="Y971" s="3"/>
       <c r="Z971" s="3"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -27649,7 +27574,7 @@
       <c r="Y972" s="3"/>
       <c r="Z972" s="3"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
@@ -27677,7 +27602,7 @@
       <c r="Y973" s="3"/>
       <c r="Z973" s="3"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
@@ -27705,7 +27630,7 @@
       <c r="Y974" s="3"/>
       <c r="Z974" s="3"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -27733,7 +27658,7 @@
       <c r="Y975" s="3"/>
       <c r="Z975" s="3"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -27761,7 +27686,7 @@
       <c r="Y976" s="3"/>
       <c r="Z976" s="3"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -27789,7 +27714,7 @@
       <c r="Y977" s="3"/>
       <c r="Z977" s="3"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -27817,7 +27742,7 @@
       <c r="Y978" s="3"/>
       <c r="Z978" s="3"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -27845,7 +27770,7 @@
       <c r="Y979" s="3"/>
       <c r="Z979" s="3"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
@@ -27873,7 +27798,7 @@
       <c r="Y980" s="3"/>
       <c r="Z980" s="3"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
@@ -27901,7 +27826,7 @@
       <c r="Y981" s="3"/>
       <c r="Z981" s="3"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -27929,7 +27854,7 @@
       <c r="Y982" s="3"/>
       <c r="Z982" s="3"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -27957,7 +27882,7 @@
       <c r="Y983" s="3"/>
       <c r="Z983" s="3"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -27985,7 +27910,7 @@
       <c r="Y984" s="3"/>
       <c r="Z984" s="3"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -28013,7 +27938,7 @@
       <c r="Y985" s="3"/>
       <c r="Z985" s="3"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
@@ -28041,7 +27966,7 @@
       <c r="Y986" s="3"/>
       <c r="Z986" s="3"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
@@ -28069,7 +27994,7 @@
       <c r="Y987" s="3"/>
       <c r="Z987" s="3"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
@@ -28097,7 +28022,7 @@
       <c r="Y988" s="3"/>
       <c r="Z988" s="3"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
@@ -28125,7 +28050,7 @@
       <c r="Y989" s="3"/>
       <c r="Z989" s="3"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
@@ -28153,7 +28078,7 @@
       <c r="Y990" s="3"/>
       <c r="Z990" s="3"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
@@ -28181,7 +28106,7 @@
       <c r="Y991" s="3"/>
       <c r="Z991" s="3"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
@@ -28209,7 +28134,7 @@
       <c r="Y992" s="3"/>
       <c r="Z992" s="3"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
@@ -28237,7 +28162,7 @@
       <c r="Y993" s="3"/>
       <c r="Z993" s="3"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
@@ -28265,7 +28190,7 @@
       <c r="Y994" s="3"/>
       <c r="Z994" s="3"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
@@ -28293,7 +28218,7 @@
       <c r="Y995" s="3"/>
       <c r="Z995" s="3"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
@@ -28321,7 +28246,7 @@
       <c r="Y996" s="3"/>
       <c r="Z996" s="3"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
@@ -28349,7 +28274,7 @@
       <c r="Y997" s="3"/>
       <c r="Z997" s="3"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
@@ -28377,7 +28302,7 @@
       <c r="Y998" s="3"/>
       <c r="Z998" s="3"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
@@ -28405,7 +28330,7 @@
       <c r="Y999" s="3"/>
       <c r="Z999" s="3"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>
@@ -28434,6 +28359,6 @@
       <c r="Z1000" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/files/applications/products_template.xlsx
+++ b/files/applications/products_template.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
   <si>
-    <t>Номер продукции</t>
+    <t>Код номенклатуры</t>
   </si>
   <si>
     <t>Торговое название</t>
@@ -33,10 +33,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -66,6 +66,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -73,10 +88,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -96,17 +112,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,11 +127,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,6 +150,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -150,23 +179,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,30 +195,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,7 +225,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,19 +279,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,151 +399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,6 +416,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -443,15 +452,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -463,21 +463,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,153 +496,168 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -936,7 +936,7 @@
   <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -980,7 +980,7 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" ht="12" spans="1:23">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1005,7 +1005,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" ht="12" spans="1:23">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1030,7 +1030,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" ht="12" spans="1:23">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1055,7 +1055,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" ht="12" spans="1:23">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1080,7 +1080,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" ht="12" spans="1:23">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1105,7 +1105,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" ht="12" spans="1:23">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1130,7 +1130,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" ht="12" spans="1:23">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1155,7 +1155,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" ht="12" spans="1:23">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1180,7 +1180,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" ht="12" spans="1:23">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1205,7 +1205,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" ht="12" spans="1:23">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1230,7 +1230,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" ht="12" spans="1:23">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1255,7 +1255,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" ht="12" spans="1:23">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1280,7 +1280,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" ht="12" spans="1:23">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1305,7 +1305,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" ht="12" spans="1:23">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1330,7 +1330,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" ht="12" spans="1:23">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1355,7 +1355,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" ht="12" spans="1:23">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1380,7 +1380,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" ht="12" spans="1:23">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1405,7 +1405,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" ht="12" spans="1:23">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1430,7 +1430,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" ht="12" spans="1:23">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1455,7 +1455,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" ht="12" spans="1:23">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1480,7 +1480,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" ht="12" spans="1:23">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1505,7 +1505,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" ht="12" spans="1:23">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1530,7 +1530,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" ht="12" spans="1:23">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1555,7 +1555,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" ht="12" spans="1:23">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1580,7 +1580,7 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" ht="12" spans="1:23">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1605,7 +1605,7 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" ht="12" spans="1:23">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1630,7 +1630,7 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" ht="12" spans="1:23">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1655,7 +1655,7 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" ht="12" spans="1:23">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1680,7 +1680,7 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" ht="12" spans="1:23">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1705,7 +1705,7 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" ht="12" spans="1:23">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1730,7 +1730,7 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" ht="12" spans="1:23">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1755,7 +1755,7 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" ht="12" spans="1:23">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1780,7 +1780,7 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" ht="12" spans="1:23">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1805,7 +1805,7 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" ht="12" spans="1:23">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1830,7 +1830,7 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" ht="12" spans="1:23">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1855,7 +1855,7 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" ht="12" spans="1:23">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1880,7 +1880,7 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" ht="12" spans="1:23">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1905,7 +1905,7 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" ht="12" spans="1:23">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1930,7 +1930,7 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" ht="12" spans="1:23">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1955,7 +1955,7 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" ht="12" spans="1:23">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1980,7 +1980,7 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" ht="12" spans="1:23">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2005,7 +2005,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" ht="12" spans="1:23">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2030,7 +2030,7 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" ht="12" spans="1:23">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2055,7 +2055,7 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" ht="12" spans="1:23">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2080,7 +2080,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" ht="12" spans="1:23">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2105,7 +2105,7 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" ht="12" spans="1:23">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2130,7 +2130,7 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" ht="12" spans="1:23">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2155,7 +2155,7 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" ht="12" spans="1:23">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2180,7 +2180,7 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" ht="12" spans="1:23">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2205,7 +2205,7 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" ht="12" spans="1:23">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2230,7 +2230,7 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" ht="12" spans="1:23">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2255,7 +2255,7 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" ht="12" spans="1:23">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2280,7 +2280,7 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" ht="12" spans="1:23">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2305,7 +2305,7 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" ht="12" spans="1:23">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2330,7 +2330,7 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" ht="12" spans="1:23">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2355,7 +2355,7 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" ht="12" spans="1:23">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2380,7 +2380,7 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" ht="12" spans="1:23">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2405,7 +2405,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" ht="12" spans="1:23">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2430,7 +2430,7 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" ht="12" spans="1:23">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2455,7 +2455,7 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" ht="12" spans="1:23">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2480,7 +2480,7 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" ht="12" spans="1:23">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2505,7 +2505,7 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" ht="12" spans="1:23">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2530,7 +2530,7 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" ht="12" spans="1:23">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2555,7 +2555,7 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" ht="12" spans="1:23">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2580,7 +2580,7 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" ht="12" spans="1:23">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2605,7 +2605,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" ht="12" spans="1:23">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2630,7 +2630,7 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" ht="12" spans="1:23">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2655,7 +2655,7 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" ht="12" spans="1:23">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2680,7 +2680,7 @@
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" ht="12" spans="1:23">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2705,7 +2705,7 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" ht="12" spans="1:23">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2730,7 +2730,7 @@
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" ht="12" spans="1:23">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2755,7 +2755,7 @@
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" ht="12" spans="1:23">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2780,7 +2780,7 @@
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" ht="12" spans="1:23">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2805,7 +2805,7 @@
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" ht="12" spans="1:23">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2830,7 +2830,7 @@
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" ht="12" spans="1:23">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2855,7 +2855,7 @@
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" ht="12" spans="1:23">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2880,7 +2880,7 @@
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" ht="12" spans="1:23">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2905,7 +2905,7 @@
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" ht="12" spans="1:23">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2930,7 +2930,7 @@
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" ht="12" spans="1:23">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2955,7 +2955,7 @@
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" ht="12" spans="1:23">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2980,7 +2980,7 @@
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" ht="12" spans="1:23">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3005,7 +3005,7 @@
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" ht="12" spans="1:23">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3030,7 +3030,7 @@
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" ht="12" spans="1:23">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3055,7 +3055,7 @@
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" ht="12" spans="1:23">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3080,7 +3080,7 @@
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" ht="12" spans="1:23">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3105,7 +3105,7 @@
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" ht="12" spans="1:23">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3130,7 +3130,7 @@
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" ht="12" spans="1:23">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3155,7 +3155,7 @@
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" ht="12" spans="1:23">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3180,7 +3180,7 @@
       <c r="V89" s="2"/>
       <c r="W89" s="2"/>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" ht="12" spans="1:23">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3205,7 +3205,7 @@
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" ht="12" spans="1:23">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3230,7 +3230,7 @@
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" ht="12" spans="1:23">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3255,7 +3255,7 @@
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" ht="12" spans="1:23">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3280,7 +3280,7 @@
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" ht="12" spans="1:23">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3305,7 +3305,7 @@
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" ht="12" spans="1:23">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3330,7 +3330,7 @@
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" ht="12" spans="1:23">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3355,7 +3355,7 @@
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" ht="12" spans="1:23">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3380,7 +3380,7 @@
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" ht="12" spans="1:23">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3405,7 +3405,7 @@
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" ht="12" spans="1:23">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3430,7 +3430,7 @@
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" ht="12" spans="1:23">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3455,7 +3455,7 @@
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" ht="12" spans="1:23">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3480,7 +3480,7 @@
       <c r="V101" s="2"/>
       <c r="W101" s="2"/>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" ht="12" spans="1:23">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3505,7 +3505,7 @@
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" ht="12" spans="1:23">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3530,7 +3530,7 @@
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" ht="12" spans="1:23">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3555,7 +3555,7 @@
       <c r="V104" s="2"/>
       <c r="W104" s="2"/>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" ht="12" spans="1:23">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3580,7 +3580,7 @@
       <c r="V105" s="2"/>
       <c r="W105" s="2"/>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" ht="12" spans="1:23">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3605,7 +3605,7 @@
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" ht="12" spans="1:23">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3630,7 +3630,7 @@
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" ht="12" spans="1:23">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3655,7 +3655,7 @@
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" ht="12" spans="1:23">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3680,7 +3680,7 @@
       <c r="V109" s="2"/>
       <c r="W109" s="2"/>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" ht="12" spans="1:23">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3705,7 +3705,7 @@
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" ht="12" spans="1:23">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3730,7 +3730,7 @@
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" ht="12" spans="1:23">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3755,7 +3755,7 @@
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" ht="12" spans="1:23">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3780,7 +3780,7 @@
       <c r="V113" s="2"/>
       <c r="W113" s="2"/>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" ht="12" spans="1:23">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3805,7 +3805,7 @@
       <c r="V114" s="2"/>
       <c r="W114" s="2"/>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" ht="12" spans="1:23">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3830,7 +3830,7 @@
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" ht="12" spans="1:23">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3855,7 +3855,7 @@
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" ht="12" spans="1:23">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3880,7 +3880,7 @@
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" ht="12" spans="1:23">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3905,7 +3905,7 @@
       <c r="V118" s="2"/>
       <c r="W118" s="2"/>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" ht="12" spans="1:23">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3930,7 +3930,7 @@
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" ht="12" spans="1:23">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3955,7 +3955,7 @@
       <c r="V120" s="2"/>
       <c r="W120" s="2"/>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" ht="12" spans="1:23">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3980,7 +3980,7 @@
       <c r="V121" s="2"/>
       <c r="W121" s="2"/>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" ht="12" spans="1:23">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4005,7 +4005,7 @@
       <c r="V122" s="2"/>
       <c r="W122" s="2"/>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" ht="12" spans="1:23">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4030,7 +4030,7 @@
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" ht="12" spans="1:23">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4055,7 +4055,7 @@
       <c r="V124" s="2"/>
       <c r="W124" s="2"/>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" ht="12" spans="1:23">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4080,7 +4080,7 @@
       <c r="V125" s="2"/>
       <c r="W125" s="2"/>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" ht="12" spans="1:23">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4105,7 +4105,7 @@
       <c r="V126" s="2"/>
       <c r="W126" s="2"/>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" ht="12" spans="1:23">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4130,7 +4130,7 @@
       <c r="V127" s="2"/>
       <c r="W127" s="2"/>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" ht="12" spans="1:23">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4155,7 +4155,7 @@
       <c r="V128" s="2"/>
       <c r="W128" s="2"/>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" ht="12" spans="1:23">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4180,7 +4180,7 @@
       <c r="V129" s="2"/>
       <c r="W129" s="2"/>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" ht="12" spans="1:23">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4205,7 +4205,7 @@
       <c r="V130" s="2"/>
       <c r="W130" s="2"/>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" ht="12" spans="1:23">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4230,7 +4230,7 @@
       <c r="V131" s="2"/>
       <c r="W131" s="2"/>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" ht="12" spans="1:23">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4255,7 +4255,7 @@
       <c r="V132" s="2"/>
       <c r="W132" s="2"/>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" ht="12" spans="1:23">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4280,7 +4280,7 @@
       <c r="V133" s="2"/>
       <c r="W133" s="2"/>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" ht="12" spans="1:23">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4305,7 +4305,7 @@
       <c r="V134" s="2"/>
       <c r="W134" s="2"/>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" ht="12" spans="1:23">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4330,7 +4330,7 @@
       <c r="V135" s="2"/>
       <c r="W135" s="2"/>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" ht="12" spans="1:23">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -4355,7 +4355,7 @@
       <c r="V136" s="2"/>
       <c r="W136" s="2"/>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" ht="12" spans="1:23">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4380,7 +4380,7 @@
       <c r="V137" s="2"/>
       <c r="W137" s="2"/>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" ht="12" spans="1:23">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4405,7 +4405,7 @@
       <c r="V138" s="2"/>
       <c r="W138" s="2"/>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" ht="12" spans="1:23">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -4430,7 +4430,7 @@
       <c r="V139" s="2"/>
       <c r="W139" s="2"/>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" ht="12" spans="1:23">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4455,7 +4455,7 @@
       <c r="V140" s="2"/>
       <c r="W140" s="2"/>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" ht="12" spans="1:23">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4480,7 +4480,7 @@
       <c r="V141" s="2"/>
       <c r="W141" s="2"/>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" ht="12" spans="1:23">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -4505,7 +4505,7 @@
       <c r="V142" s="2"/>
       <c r="W142" s="2"/>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" ht="12" spans="1:23">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -4530,7 +4530,7 @@
       <c r="V143" s="2"/>
       <c r="W143" s="2"/>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" ht="12" spans="1:23">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -4555,7 +4555,7 @@
       <c r="V144" s="2"/>
       <c r="W144" s="2"/>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" ht="12" spans="1:23">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -4580,7 +4580,7 @@
       <c r="V145" s="2"/>
       <c r="W145" s="2"/>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" ht="12" spans="1:23">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -4605,7 +4605,7 @@
       <c r="V146" s="2"/>
       <c r="W146" s="2"/>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" ht="12" spans="1:23">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -4630,7 +4630,7 @@
       <c r="V147" s="2"/>
       <c r="W147" s="2"/>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" ht="12" spans="1:23">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -4655,7 +4655,7 @@
       <c r="V148" s="2"/>
       <c r="W148" s="2"/>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" ht="12" spans="1:23">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -4680,7 +4680,7 @@
       <c r="V149" s="2"/>
       <c r="W149" s="2"/>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" ht="12" spans="1:23">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -4705,7 +4705,7 @@
       <c r="V150" s="2"/>
       <c r="W150" s="2"/>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" ht="12" spans="1:23">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -4730,7 +4730,7 @@
       <c r="V151" s="2"/>
       <c r="W151" s="2"/>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" ht="12" spans="1:23">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -4755,7 +4755,7 @@
       <c r="V152" s="2"/>
       <c r="W152" s="2"/>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" ht="12" spans="1:23">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -4780,7 +4780,7 @@
       <c r="V153" s="2"/>
       <c r="W153" s="2"/>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" ht="12" spans="1:23">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -4805,7 +4805,7 @@
       <c r="V154" s="2"/>
       <c r="W154" s="2"/>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" ht="12" spans="1:23">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -4830,7 +4830,7 @@
       <c r="V155" s="2"/>
       <c r="W155" s="2"/>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" ht="12" spans="1:23">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -4855,7 +4855,7 @@
       <c r="V156" s="2"/>
       <c r="W156" s="2"/>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" ht="12" spans="1:23">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -4880,7 +4880,7 @@
       <c r="V157" s="2"/>
       <c r="W157" s="2"/>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" ht="12" spans="1:23">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -4905,7 +4905,7 @@
       <c r="V158" s="2"/>
       <c r="W158" s="2"/>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" ht="12" spans="1:23">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -4930,7 +4930,7 @@
       <c r="V159" s="2"/>
       <c r="W159" s="2"/>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" ht="12" spans="1:23">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -4955,7 +4955,7 @@
       <c r="V160" s="2"/>
       <c r="W160" s="2"/>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" ht="12" spans="1:23">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -4980,7 +4980,7 @@
       <c r="V161" s="2"/>
       <c r="W161" s="2"/>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" ht="12" spans="1:23">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5005,7 +5005,7 @@
       <c r="V162" s="2"/>
       <c r="W162" s="2"/>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" ht="12" spans="1:23">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5030,7 +5030,7 @@
       <c r="V163" s="2"/>
       <c r="W163" s="2"/>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" ht="12" spans="1:23">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5055,7 +5055,7 @@
       <c r="V164" s="2"/>
       <c r="W164" s="2"/>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" ht="12" spans="1:23">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5080,7 +5080,7 @@
       <c r="V165" s="2"/>
       <c r="W165" s="2"/>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" ht="12" spans="1:23">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5105,7 +5105,7 @@
       <c r="V166" s="2"/>
       <c r="W166" s="2"/>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" ht="12" spans="1:23">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5130,7 +5130,7 @@
       <c r="V167" s="2"/>
       <c r="W167" s="2"/>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" ht="12" spans="1:23">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5155,7 +5155,7 @@
       <c r="V168" s="2"/>
       <c r="W168" s="2"/>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" ht="12" spans="1:23">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5180,7 +5180,7 @@
       <c r="V169" s="2"/>
       <c r="W169" s="2"/>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" ht="12" spans="1:23">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5205,7 +5205,7 @@
       <c r="V170" s="2"/>
       <c r="W170" s="2"/>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" ht="12" spans="1:23">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5230,7 +5230,7 @@
       <c r="V171" s="2"/>
       <c r="W171" s="2"/>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" ht="12" spans="1:23">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5255,7 +5255,7 @@
       <c r="V172" s="2"/>
       <c r="W172" s="2"/>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" ht="12" spans="1:23">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -5280,7 +5280,7 @@
       <c r="V173" s="2"/>
       <c r="W173" s="2"/>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" ht="12" spans="1:23">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -5305,7 +5305,7 @@
       <c r="V174" s="2"/>
       <c r="W174" s="2"/>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" ht="12" spans="1:23">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -5330,7 +5330,7 @@
       <c r="V175" s="2"/>
       <c r="W175" s="2"/>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" ht="12" spans="1:23">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -5355,7 +5355,7 @@
       <c r="V176" s="2"/>
       <c r="W176" s="2"/>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" ht="12" spans="1:23">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -5380,7 +5380,7 @@
       <c r="V177" s="2"/>
       <c r="W177" s="2"/>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" ht="12" spans="1:23">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -5405,7 +5405,7 @@
       <c r="V178" s="2"/>
       <c r="W178" s="2"/>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" ht="12" spans="1:23">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -5430,7 +5430,7 @@
       <c r="V179" s="2"/>
       <c r="W179" s="2"/>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" ht="12" spans="1:23">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -5455,7 +5455,7 @@
       <c r="V180" s="2"/>
       <c r="W180" s="2"/>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" ht="12" spans="1:23">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -5480,7 +5480,7 @@
       <c r="V181" s="2"/>
       <c r="W181" s="2"/>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" ht="12" spans="1:23">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -5505,7 +5505,7 @@
       <c r="V182" s="2"/>
       <c r="W182" s="2"/>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" ht="12" spans="1:23">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -5530,7 +5530,7 @@
       <c r="V183" s="2"/>
       <c r="W183" s="2"/>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" ht="12" spans="1:23">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -5555,7 +5555,7 @@
       <c r="V184" s="2"/>
       <c r="W184" s="2"/>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" ht="12" spans="1:23">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -5580,7 +5580,7 @@
       <c r="V185" s="2"/>
       <c r="W185" s="2"/>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" ht="12" spans="1:23">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -5605,7 +5605,7 @@
       <c r="V186" s="2"/>
       <c r="W186" s="2"/>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" ht="12" spans="1:23">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -5630,7 +5630,7 @@
       <c r="V187" s="2"/>
       <c r="W187" s="2"/>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" ht="12" spans="1:23">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -5655,7 +5655,7 @@
       <c r="V188" s="2"/>
       <c r="W188" s="2"/>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" ht="12" spans="1:23">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -5680,7 +5680,7 @@
       <c r="V189" s="2"/>
       <c r="W189" s="2"/>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" ht="12" spans="1:23">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -5705,7 +5705,7 @@
       <c r="V190" s="2"/>
       <c r="W190" s="2"/>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" ht="12" spans="1:23">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -5730,7 +5730,7 @@
       <c r="V191" s="2"/>
       <c r="W191" s="2"/>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" ht="12" spans="1:23">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -5755,7 +5755,7 @@
       <c r="V192" s="2"/>
       <c r="W192" s="2"/>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" ht="12" spans="1:23">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -5780,7 +5780,7 @@
       <c r="V193" s="2"/>
       <c r="W193" s="2"/>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" ht="12" spans="1:23">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -5805,7 +5805,7 @@
       <c r="V194" s="2"/>
       <c r="W194" s="2"/>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" ht="12" spans="1:23">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -5830,7 +5830,7 @@
       <c r="V195" s="2"/>
       <c r="W195" s="2"/>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" ht="12" spans="1:23">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -5855,7 +5855,7 @@
       <c r="V196" s="2"/>
       <c r="W196" s="2"/>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" ht="12" spans="1:23">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -5880,7 +5880,7 @@
       <c r="V197" s="2"/>
       <c r="W197" s="2"/>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" ht="12" spans="1:23">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -5905,7 +5905,7 @@
       <c r="V198" s="2"/>
       <c r="W198" s="2"/>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" ht="12" spans="1:23">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -5930,7 +5930,7 @@
       <c r="V199" s="2"/>
       <c r="W199" s="2"/>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" ht="12" spans="1:23">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -5955,7 +5955,7 @@
       <c r="V200" s="2"/>
       <c r="W200" s="2"/>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" ht="12" spans="1:23">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -5980,7 +5980,7 @@
       <c r="V201" s="2"/>
       <c r="W201" s="2"/>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" ht="12" spans="1:23">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6005,7 +6005,7 @@
       <c r="V202" s="2"/>
       <c r="W202" s="2"/>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" ht="12" spans="1:23">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -6030,7 +6030,7 @@
       <c r="V203" s="2"/>
       <c r="W203" s="2"/>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" ht="12" spans="1:23">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -6055,7 +6055,7 @@
       <c r="V204" s="2"/>
       <c r="W204" s="2"/>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" ht="12" spans="1:23">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -6080,7 +6080,7 @@
       <c r="V205" s="2"/>
       <c r="W205" s="2"/>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" ht="12" spans="1:23">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6105,7 +6105,7 @@
       <c r="V206" s="2"/>
       <c r="W206" s="2"/>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" ht="12" spans="1:23">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6130,7 +6130,7 @@
       <c r="V207" s="2"/>
       <c r="W207" s="2"/>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" ht="12" spans="1:23">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6155,7 +6155,7 @@
       <c r="V208" s="2"/>
       <c r="W208" s="2"/>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" ht="12" spans="1:23">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6180,7 +6180,7 @@
       <c r="V209" s="2"/>
       <c r="W209" s="2"/>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" ht="12" spans="1:23">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6205,7 +6205,7 @@
       <c r="V210" s="2"/>
       <c r="W210" s="2"/>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" ht="12" spans="1:23">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6230,7 +6230,7 @@
       <c r="V211" s="2"/>
       <c r="W211" s="2"/>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" ht="12" spans="1:23">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6255,7 +6255,7 @@
       <c r="V212" s="2"/>
       <c r="W212" s="2"/>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" ht="12" spans="1:23">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6280,7 +6280,7 @@
       <c r="V213" s="2"/>
       <c r="W213" s="2"/>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" ht="12" spans="1:23">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6305,7 +6305,7 @@
       <c r="V214" s="2"/>
       <c r="W214" s="2"/>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" ht="12" spans="1:23">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6330,7 +6330,7 @@
       <c r="V215" s="2"/>
       <c r="W215" s="2"/>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" ht="12" spans="1:23">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -6355,7 +6355,7 @@
       <c r="V216" s="2"/>
       <c r="W216" s="2"/>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" ht="12" spans="1:23">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -6380,7 +6380,7 @@
       <c r="V217" s="2"/>
       <c r="W217" s="2"/>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" ht="12" spans="1:23">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -6405,7 +6405,7 @@
       <c r="V218" s="2"/>
       <c r="W218" s="2"/>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" ht="12" spans="1:23">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -6430,7 +6430,7 @@
       <c r="V219" s="2"/>
       <c r="W219" s="2"/>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" ht="12" spans="1:23">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -6455,7 +6455,7 @@
       <c r="V220" s="2"/>
       <c r="W220" s="2"/>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" ht="12" spans="1:23">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -6480,7 +6480,7 @@
       <c r="V221" s="2"/>
       <c r="W221" s="2"/>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" ht="12" spans="1:23">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -6505,7 +6505,7 @@
       <c r="V222" s="2"/>
       <c r="W222" s="2"/>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" ht="12" spans="1:23">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -6530,7 +6530,7 @@
       <c r="V223" s="2"/>
       <c r="W223" s="2"/>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" ht="12" spans="1:23">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -6555,7 +6555,7 @@
       <c r="V224" s="2"/>
       <c r="W224" s="2"/>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" ht="12" spans="1:23">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -6580,7 +6580,7 @@
       <c r="V225" s="2"/>
       <c r="W225" s="2"/>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" ht="12" spans="1:23">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -6605,7 +6605,7 @@
       <c r="V226" s="2"/>
       <c r="W226" s="2"/>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" ht="12" spans="1:23">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -6630,7 +6630,7 @@
       <c r="V227" s="2"/>
       <c r="W227" s="2"/>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" ht="12" spans="1:23">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -6655,7 +6655,7 @@
       <c r="V228" s="2"/>
       <c r="W228" s="2"/>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" ht="12" spans="1:23">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -6680,7 +6680,7 @@
       <c r="V229" s="2"/>
       <c r="W229" s="2"/>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" ht="12" spans="1:23">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -6705,7 +6705,7 @@
       <c r="V230" s="2"/>
       <c r="W230" s="2"/>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" ht="12" spans="1:23">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -6730,7 +6730,7 @@
       <c r="V231" s="2"/>
       <c r="W231" s="2"/>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" ht="12" spans="1:23">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -6755,7 +6755,7 @@
       <c r="V232" s="2"/>
       <c r="W232" s="2"/>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" ht="12" spans="1:23">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -6780,7 +6780,7 @@
       <c r="V233" s="2"/>
       <c r="W233" s="2"/>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" ht="12" spans="1:23">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -6805,7 +6805,7 @@
       <c r="V234" s="2"/>
       <c r="W234" s="2"/>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" ht="12" spans="1:23">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -6830,7 +6830,7 @@
       <c r="V235" s="2"/>
       <c r="W235" s="2"/>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" ht="12" spans="1:23">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -6855,7 +6855,7 @@
       <c r="V236" s="2"/>
       <c r="W236" s="2"/>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" ht="12" spans="1:23">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -6880,7 +6880,7 @@
       <c r="V237" s="2"/>
       <c r="W237" s="2"/>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" ht="12" spans="1:23">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -6905,7 +6905,7 @@
       <c r="V238" s="2"/>
       <c r="W238" s="2"/>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" ht="12" spans="1:23">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -6930,7 +6930,7 @@
       <c r="V239" s="2"/>
       <c r="W239" s="2"/>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" ht="12" spans="1:23">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -6955,7 +6955,7 @@
       <c r="V240" s="2"/>
       <c r="W240" s="2"/>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" ht="12" spans="1:23">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -6980,7 +6980,7 @@
       <c r="V241" s="2"/>
       <c r="W241" s="2"/>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" ht="12" spans="1:23">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7005,7 +7005,7 @@
       <c r="V242" s="2"/>
       <c r="W242" s="2"/>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" ht="12" spans="1:23">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7030,7 +7030,7 @@
       <c r="V243" s="2"/>
       <c r="W243" s="2"/>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" ht="12" spans="1:23">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7055,7 +7055,7 @@
       <c r="V244" s="2"/>
       <c r="W244" s="2"/>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" ht="12" spans="1:23">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -7080,7 +7080,7 @@
       <c r="V245" s="2"/>
       <c r="W245" s="2"/>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" ht="12" spans="1:23">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -7105,7 +7105,7 @@
       <c r="V246" s="2"/>
       <c r="W246" s="2"/>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" ht="12" spans="1:23">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -7130,7 +7130,7 @@
       <c r="V247" s="2"/>
       <c r="W247" s="2"/>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" ht="12" spans="1:23">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7155,7 +7155,7 @@
       <c r="V248" s="2"/>
       <c r="W248" s="2"/>
     </row>
-    <row r="249" spans="1:23">
+    <row r="249" ht="12" spans="1:23">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7180,7 +7180,7 @@
       <c r="V249" s="2"/>
       <c r="W249" s="2"/>
     </row>
-    <row r="250" spans="1:23">
+    <row r="250" ht="12" spans="1:23">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7205,7 +7205,7 @@
       <c r="V250" s="2"/>
       <c r="W250" s="2"/>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" ht="12" spans="1:23">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -7230,7 +7230,7 @@
       <c r="V251" s="2"/>
       <c r="W251" s="2"/>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" ht="12" spans="1:23">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -7255,7 +7255,7 @@
       <c r="V252" s="2"/>
       <c r="W252" s="2"/>
     </row>
-    <row r="253" spans="1:23">
+    <row r="253" ht="12" spans="1:23">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -7280,7 +7280,7 @@
       <c r="V253" s="2"/>
       <c r="W253" s="2"/>
     </row>
-    <row r="254" spans="1:23">
+    <row r="254" ht="12" spans="1:23">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -7305,7 +7305,7 @@
       <c r="V254" s="2"/>
       <c r="W254" s="2"/>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" ht="12" spans="1:23">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -7330,7 +7330,7 @@
       <c r="V255" s="2"/>
       <c r="W255" s="2"/>
     </row>
-    <row r="256" spans="1:23">
+    <row r="256" ht="12" spans="1:23">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -7355,7 +7355,7 @@
       <c r="V256" s="2"/>
       <c r="W256" s="2"/>
     </row>
-    <row r="257" spans="1:23">
+    <row r="257" ht="12" spans="1:23">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -7380,7 +7380,7 @@
       <c r="V257" s="2"/>
       <c r="W257" s="2"/>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" ht="12" spans="1:23">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -7405,7 +7405,7 @@
       <c r="V258" s="2"/>
       <c r="W258" s="2"/>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" ht="12" spans="1:23">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -7430,7 +7430,7 @@
       <c r="V259" s="2"/>
       <c r="W259" s="2"/>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" ht="12" spans="1:23">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -7455,7 +7455,7 @@
       <c r="V260" s="2"/>
       <c r="W260" s="2"/>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" ht="12" spans="1:23">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -7480,7 +7480,7 @@
       <c r="V261" s="2"/>
       <c r="W261" s="2"/>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" ht="12" spans="1:23">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -7505,7 +7505,7 @@
       <c r="V262" s="2"/>
       <c r="W262" s="2"/>
     </row>
-    <row r="263" spans="1:23">
+    <row r="263" ht="12" spans="1:23">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -7530,7 +7530,7 @@
       <c r="V263" s="2"/>
       <c r="W263" s="2"/>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" ht="12" spans="1:23">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -7555,7 +7555,7 @@
       <c r="V264" s="2"/>
       <c r="W264" s="2"/>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" ht="12" spans="1:23">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -7580,7 +7580,7 @@
       <c r="V265" s="2"/>
       <c r="W265" s="2"/>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" ht="12" spans="1:23">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -7605,7 +7605,7 @@
       <c r="V266" s="2"/>
       <c r="W266" s="2"/>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" ht="12" spans="1:23">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -7630,7 +7630,7 @@
       <c r="V267" s="2"/>
       <c r="W267" s="2"/>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" ht="12" spans="1:23">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -7655,7 +7655,7 @@
       <c r="V268" s="2"/>
       <c r="W268" s="2"/>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" ht="12" spans="1:23">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -7680,7 +7680,7 @@
       <c r="V269" s="2"/>
       <c r="W269" s="2"/>
     </row>
-    <row r="270" spans="1:23">
+    <row r="270" ht="12" spans="1:23">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -7705,7 +7705,7 @@
       <c r="V270" s="2"/>
       <c r="W270" s="2"/>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" ht="12" spans="1:23">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -7730,7 +7730,7 @@
       <c r="V271" s="2"/>
       <c r="W271" s="2"/>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" ht="12" spans="1:23">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -7755,7 +7755,7 @@
       <c r="V272" s="2"/>
       <c r="W272" s="2"/>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" ht="12" spans="1:23">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -7780,7 +7780,7 @@
       <c r="V273" s="2"/>
       <c r="W273" s="2"/>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" ht="12" spans="1:23">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -7805,7 +7805,7 @@
       <c r="V274" s="2"/>
       <c r="W274" s="2"/>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" ht="12" spans="1:23">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -7830,7 +7830,7 @@
       <c r="V275" s="2"/>
       <c r="W275" s="2"/>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" ht="12" spans="1:23">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -7855,7 +7855,7 @@
       <c r="V276" s="2"/>
       <c r="W276" s="2"/>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" ht="12" spans="1:23">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -7880,7 +7880,7 @@
       <c r="V277" s="2"/>
       <c r="W277" s="2"/>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" ht="12" spans="1:23">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -7905,7 +7905,7 @@
       <c r="V278" s="2"/>
       <c r="W278" s="2"/>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" ht="12" spans="1:23">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -7930,7 +7930,7 @@
       <c r="V279" s="2"/>
       <c r="W279" s="2"/>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" ht="12" spans="1:23">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -7955,7 +7955,7 @@
       <c r="V280" s="2"/>
       <c r="W280" s="2"/>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" ht="12" spans="1:23">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -7980,7 +7980,7 @@
       <c r="V281" s="2"/>
       <c r="W281" s="2"/>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" ht="12" spans="1:23">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -8005,7 +8005,7 @@
       <c r="V282" s="2"/>
       <c r="W282" s="2"/>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" ht="12" spans="1:23">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -8030,7 +8030,7 @@
       <c r="V283" s="2"/>
       <c r="W283" s="2"/>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" ht="12" spans="1:23">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -8055,7 +8055,7 @@
       <c r="V284" s="2"/>
       <c r="W284" s="2"/>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" ht="12" spans="1:23">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -8080,7 +8080,7 @@
       <c r="V285" s="2"/>
       <c r="W285" s="2"/>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" ht="12" spans="1:23">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -8105,7 +8105,7 @@
       <c r="V286" s="2"/>
       <c r="W286" s="2"/>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" ht="12" spans="1:23">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -8130,7 +8130,7 @@
       <c r="V287" s="2"/>
       <c r="W287" s="2"/>
     </row>
-    <row r="288" spans="1:23">
+    <row r="288" ht="12" spans="1:23">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -8155,7 +8155,7 @@
       <c r="V288" s="2"/>
       <c r="W288" s="2"/>
     </row>
-    <row r="289" spans="1:23">
+    <row r="289" ht="12" spans="1:23">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -8180,7 +8180,7 @@
       <c r="V289" s="2"/>
       <c r="W289" s="2"/>
     </row>
-    <row r="290" spans="1:23">
+    <row r="290" ht="12" spans="1:23">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -8205,7 +8205,7 @@
       <c r="V290" s="2"/>
       <c r="W290" s="2"/>
     </row>
-    <row r="291" spans="1:23">
+    <row r="291" ht="12" spans="1:23">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -8230,7 +8230,7 @@
       <c r="V291" s="2"/>
       <c r="W291" s="2"/>
     </row>
-    <row r="292" spans="1:23">
+    <row r="292" ht="12" spans="1:23">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -8255,7 +8255,7 @@
       <c r="V292" s="2"/>
       <c r="W292" s="2"/>
     </row>
-    <row r="293" spans="1:23">
+    <row r="293" ht="12" spans="1:23">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -8280,7 +8280,7 @@
       <c r="V293" s="2"/>
       <c r="W293" s="2"/>
     </row>
-    <row r="294" spans="1:23">
+    <row r="294" ht="12" spans="1:23">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -8305,7 +8305,7 @@
       <c r="V294" s="2"/>
       <c r="W294" s="2"/>
     </row>
-    <row r="295" spans="1:23">
+    <row r="295" ht="12" spans="1:23">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -8330,7 +8330,7 @@
       <c r="V295" s="2"/>
       <c r="W295" s="2"/>
     </row>
-    <row r="296" spans="1:23">
+    <row r="296" ht="12" spans="1:23">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -8355,7 +8355,7 @@
       <c r="V296" s="2"/>
       <c r="W296" s="2"/>
     </row>
-    <row r="297" spans="1:23">
+    <row r="297" ht="12" spans="1:23">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -8380,7 +8380,7 @@
       <c r="V297" s="2"/>
       <c r="W297" s="2"/>
     </row>
-    <row r="298" spans="1:23">
+    <row r="298" ht="12" spans="1:23">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -8405,7 +8405,7 @@
       <c r="V298" s="2"/>
       <c r="W298" s="2"/>
     </row>
-    <row r="299" spans="1:23">
+    <row r="299" ht="12" spans="1:23">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -8430,7 +8430,7 @@
       <c r="V299" s="2"/>
       <c r="W299" s="2"/>
     </row>
-    <row r="300" spans="1:23">
+    <row r="300" ht="12" spans="1:23">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -8455,7 +8455,7 @@
       <c r="V300" s="2"/>
       <c r="W300" s="2"/>
     </row>
-    <row r="301" spans="1:23">
+    <row r="301" ht="12" spans="1:23">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -8480,7 +8480,7 @@
       <c r="V301" s="2"/>
       <c r="W301" s="2"/>
     </row>
-    <row r="302" spans="1:23">
+    <row r="302" ht="12" spans="1:23">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -8505,7 +8505,7 @@
       <c r="V302" s="2"/>
       <c r="W302" s="2"/>
     </row>
-    <row r="303" spans="1:23">
+    <row r="303" ht="12" spans="1:23">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -8530,7 +8530,7 @@
       <c r="V303" s="2"/>
       <c r="W303" s="2"/>
     </row>
-    <row r="304" spans="1:23">
+    <row r="304" ht="12" spans="1:23">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -8555,7 +8555,7 @@
       <c r="V304" s="2"/>
       <c r="W304" s="2"/>
     </row>
-    <row r="305" spans="1:23">
+    <row r="305" ht="12" spans="1:23">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -8580,7 +8580,7 @@
       <c r="V305" s="2"/>
       <c r="W305" s="2"/>
     </row>
-    <row r="306" spans="1:23">
+    <row r="306" ht="12" spans="1:23">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -8605,7 +8605,7 @@
       <c r="V306" s="2"/>
       <c r="W306" s="2"/>
     </row>
-    <row r="307" spans="1:23">
+    <row r="307" ht="12" spans="1:23">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -8630,7 +8630,7 @@
       <c r="V307" s="2"/>
       <c r="W307" s="2"/>
     </row>
-    <row r="308" spans="1:23">
+    <row r="308" ht="12" spans="1:23">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -8655,7 +8655,7 @@
       <c r="V308" s="2"/>
       <c r="W308" s="2"/>
     </row>
-    <row r="309" spans="1:23">
+    <row r="309" ht="12" spans="1:23">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -8680,7 +8680,7 @@
       <c r="V309" s="2"/>
       <c r="W309" s="2"/>
     </row>
-    <row r="310" spans="1:23">
+    <row r="310" ht="12" spans="1:23">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -8705,7 +8705,7 @@
       <c r="V310" s="2"/>
       <c r="W310" s="2"/>
     </row>
-    <row r="311" spans="1:23">
+    <row r="311" ht="12" spans="1:23">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -8730,7 +8730,7 @@
       <c r="V311" s="2"/>
       <c r="W311" s="2"/>
     </row>
-    <row r="312" spans="1:23">
+    <row r="312" ht="12" spans="1:23">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -8755,7 +8755,7 @@
       <c r="V312" s="2"/>
       <c r="W312" s="2"/>
     </row>
-    <row r="313" spans="1:23">
+    <row r="313" ht="12" spans="1:23">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -8780,7 +8780,7 @@
       <c r="V313" s="2"/>
       <c r="W313" s="2"/>
     </row>
-    <row r="314" spans="1:23">
+    <row r="314" ht="12" spans="1:23">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -8805,7 +8805,7 @@
       <c r="V314" s="2"/>
       <c r="W314" s="2"/>
     </row>
-    <row r="315" spans="1:23">
+    <row r="315" ht="12" spans="1:23">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -8830,7 +8830,7 @@
       <c r="V315" s="2"/>
       <c r="W315" s="2"/>
     </row>
-    <row r="316" spans="1:23">
+    <row r="316" ht="12" spans="1:23">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -8855,7 +8855,7 @@
       <c r="V316" s="2"/>
       <c r="W316" s="2"/>
     </row>
-    <row r="317" spans="1:23">
+    <row r="317" ht="12" spans="1:23">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -8880,7 +8880,7 @@
       <c r="V317" s="2"/>
       <c r="W317" s="2"/>
     </row>
-    <row r="318" spans="1:23">
+    <row r="318" ht="12" spans="1:23">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -8905,7 +8905,7 @@
       <c r="V318" s="2"/>
       <c r="W318" s="2"/>
     </row>
-    <row r="319" spans="1:23">
+    <row r="319" ht="12" spans="1:23">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -8930,7 +8930,7 @@
       <c r="V319" s="2"/>
       <c r="W319" s="2"/>
     </row>
-    <row r="320" spans="1:23">
+    <row r="320" ht="12" spans="1:23">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -8955,7 +8955,7 @@
       <c r="V320" s="2"/>
       <c r="W320" s="2"/>
     </row>
-    <row r="321" spans="1:23">
+    <row r="321" ht="12" spans="1:23">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -8980,7 +8980,7 @@
       <c r="V321" s="2"/>
       <c r="W321" s="2"/>
     </row>
-    <row r="322" spans="1:23">
+    <row r="322" ht="12" spans="1:23">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -9005,7 +9005,7 @@
       <c r="V322" s="2"/>
       <c r="W322" s="2"/>
     </row>
-    <row r="323" spans="1:23">
+    <row r="323" ht="12" spans="1:23">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -9030,7 +9030,7 @@
       <c r="V323" s="2"/>
       <c r="W323" s="2"/>
     </row>
-    <row r="324" spans="1:23">
+    <row r="324" ht="12" spans="1:23">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -9055,7 +9055,7 @@
       <c r="V324" s="2"/>
       <c r="W324" s="2"/>
     </row>
-    <row r="325" spans="1:23">
+    <row r="325" ht="12" spans="1:23">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -9080,7 +9080,7 @@
       <c r="V325" s="2"/>
       <c r="W325" s="2"/>
     </row>
-    <row r="326" spans="1:23">
+    <row r="326" ht="12" spans="1:23">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -9105,7 +9105,7 @@
       <c r="V326" s="2"/>
       <c r="W326" s="2"/>
     </row>
-    <row r="327" spans="1:23">
+    <row r="327" ht="12" spans="1:23">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -9130,7 +9130,7 @@
       <c r="V327" s="2"/>
       <c r="W327" s="2"/>
     </row>
-    <row r="328" spans="1:23">
+    <row r="328" ht="12" spans="1:23">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -9155,7 +9155,7 @@
       <c r="V328" s="2"/>
       <c r="W328" s="2"/>
     </row>
-    <row r="329" spans="1:23">
+    <row r="329" ht="12" spans="1:23">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -9180,7 +9180,7 @@
       <c r="V329" s="2"/>
       <c r="W329" s="2"/>
     </row>
-    <row r="330" spans="1:23">
+    <row r="330" ht="12" spans="1:23">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -9205,7 +9205,7 @@
       <c r="V330" s="2"/>
       <c r="W330" s="2"/>
     </row>
-    <row r="331" spans="1:23">
+    <row r="331" ht="12" spans="1:23">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -9230,7 +9230,7 @@
       <c r="V331" s="2"/>
       <c r="W331" s="2"/>
     </row>
-    <row r="332" spans="1:23">
+    <row r="332" ht="12" spans="1:23">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -9255,7 +9255,7 @@
       <c r="V332" s="2"/>
       <c r="W332" s="2"/>
     </row>
-    <row r="333" spans="1:23">
+    <row r="333" ht="12" spans="1:23">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -9280,7 +9280,7 @@
       <c r="V333" s="2"/>
       <c r="W333" s="2"/>
     </row>
-    <row r="334" spans="1:23">
+    <row r="334" ht="12" spans="1:23">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -9305,7 +9305,7 @@
       <c r="V334" s="2"/>
       <c r="W334" s="2"/>
     </row>
-    <row r="335" spans="1:23">
+    <row r="335" ht="12" spans="1:23">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -9330,7 +9330,7 @@
       <c r="V335" s="2"/>
       <c r="W335" s="2"/>
     </row>
-    <row r="336" spans="1:23">
+    <row r="336" ht="12" spans="1:23">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -9355,7 +9355,7 @@
       <c r="V336" s="2"/>
       <c r="W336" s="2"/>
     </row>
-    <row r="337" spans="1:23">
+    <row r="337" ht="12" spans="1:23">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -9380,7 +9380,7 @@
       <c r="V337" s="2"/>
       <c r="W337" s="2"/>
     </row>
-    <row r="338" spans="1:23">
+    <row r="338" ht="12" spans="1:23">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -9405,7 +9405,7 @@
       <c r="V338" s="2"/>
       <c r="W338" s="2"/>
     </row>
-    <row r="339" spans="1:23">
+    <row r="339" ht="12" spans="1:23">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -9430,7 +9430,7 @@
       <c r="V339" s="2"/>
       <c r="W339" s="2"/>
     </row>
-    <row r="340" spans="1:23">
+    <row r="340" ht="12" spans="1:23">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -9455,7 +9455,7 @@
       <c r="V340" s="2"/>
       <c r="W340" s="2"/>
     </row>
-    <row r="341" spans="1:23">
+    <row r="341" ht="12" spans="1:23">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -9480,7 +9480,7 @@
       <c r="V341" s="2"/>
       <c r="W341" s="2"/>
     </row>
-    <row r="342" spans="1:23">
+    <row r="342" ht="12" spans="1:23">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -9505,7 +9505,7 @@
       <c r="V342" s="2"/>
       <c r="W342" s="2"/>
     </row>
-    <row r="343" spans="1:23">
+    <row r="343" ht="12" spans="1:23">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -9530,7 +9530,7 @@
       <c r="V343" s="2"/>
       <c r="W343" s="2"/>
     </row>
-    <row r="344" spans="1:23">
+    <row r="344" ht="12" spans="1:23">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -9555,7 +9555,7 @@
       <c r="V344" s="2"/>
       <c r="W344" s="2"/>
     </row>
-    <row r="345" spans="1:23">
+    <row r="345" ht="12" spans="1:23">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -9580,7 +9580,7 @@
       <c r="V345" s="2"/>
       <c r="W345" s="2"/>
     </row>
-    <row r="346" spans="1:23">
+    <row r="346" ht="12" spans="1:23">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -9605,7 +9605,7 @@
       <c r="V346" s="2"/>
       <c r="W346" s="2"/>
     </row>
-    <row r="347" spans="1:23">
+    <row r="347" ht="12" spans="1:23">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -9630,7 +9630,7 @@
       <c r="V347" s="2"/>
       <c r="W347" s="2"/>
     </row>
-    <row r="348" spans="1:23">
+    <row r="348" ht="12" spans="1:23">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -9655,7 +9655,7 @@
       <c r="V348" s="2"/>
       <c r="W348" s="2"/>
     </row>
-    <row r="349" spans="1:23">
+    <row r="349" ht="12" spans="1:23">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -9680,7 +9680,7 @@
       <c r="V349" s="2"/>
       <c r="W349" s="2"/>
     </row>
-    <row r="350" spans="1:23">
+    <row r="350" ht="12" spans="1:23">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -9705,7 +9705,7 @@
       <c r="V350" s="2"/>
       <c r="W350" s="2"/>
     </row>
-    <row r="351" spans="1:23">
+    <row r="351" ht="12" spans="1:23">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -9730,7 +9730,7 @@
       <c r="V351" s="2"/>
       <c r="W351" s="2"/>
     </row>
-    <row r="352" spans="1:23">
+    <row r="352" ht="12" spans="1:23">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -9755,7 +9755,7 @@
       <c r="V352" s="2"/>
       <c r="W352" s="2"/>
     </row>
-    <row r="353" spans="1:23">
+    <row r="353" ht="12" spans="1:23">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -9780,7 +9780,7 @@
       <c r="V353" s="2"/>
       <c r="W353" s="2"/>
     </row>
-    <row r="354" spans="1:23">
+    <row r="354" ht="12" spans="1:23">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -9805,7 +9805,7 @@
       <c r="V354" s="2"/>
       <c r="W354" s="2"/>
     </row>
-    <row r="355" spans="1:23">
+    <row r="355" ht="12" spans="1:23">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -9830,7 +9830,7 @@
       <c r="V355" s="2"/>
       <c r="W355" s="2"/>
     </row>
-    <row r="356" spans="1:23">
+    <row r="356" ht="12" spans="1:23">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -9855,7 +9855,7 @@
       <c r="V356" s="2"/>
       <c r="W356" s="2"/>
     </row>
-    <row r="357" spans="1:23">
+    <row r="357" ht="12" spans="1:23">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -9880,7 +9880,7 @@
       <c r="V357" s="2"/>
       <c r="W357" s="2"/>
     </row>
-    <row r="358" spans="1:23">
+    <row r="358" ht="12" spans="1:23">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -9905,7 +9905,7 @@
       <c r="V358" s="2"/>
       <c r="W358" s="2"/>
     </row>
-    <row r="359" spans="1:23">
+    <row r="359" ht="12" spans="1:23">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -9930,7 +9930,7 @@
       <c r="V359" s="2"/>
       <c r="W359" s="2"/>
     </row>
-    <row r="360" spans="1:23">
+    <row r="360" ht="12" spans="1:23">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -9955,7 +9955,7 @@
       <c r="V360" s="2"/>
       <c r="W360" s="2"/>
     </row>
-    <row r="361" spans="1:23">
+    <row r="361" ht="12" spans="1:23">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -9980,7 +9980,7 @@
       <c r="V361" s="2"/>
       <c r="W361" s="2"/>
     </row>
-    <row r="362" spans="1:23">
+    <row r="362" ht="12" spans="1:23">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -10005,7 +10005,7 @@
       <c r="V362" s="2"/>
       <c r="W362" s="2"/>
     </row>
-    <row r="363" spans="1:23">
+    <row r="363" ht="12" spans="1:23">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -10030,7 +10030,7 @@
       <c r="V363" s="2"/>
       <c r="W363" s="2"/>
     </row>
-    <row r="364" spans="1:23">
+    <row r="364" ht="12" spans="1:23">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -10055,7 +10055,7 @@
       <c r="V364" s="2"/>
       <c r="W364" s="2"/>
     </row>
-    <row r="365" spans="1:23">
+    <row r="365" ht="12" spans="1:23">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -10080,7 +10080,7 @@
       <c r="V365" s="2"/>
       <c r="W365" s="2"/>
     </row>
-    <row r="366" spans="1:23">
+    <row r="366" ht="12" spans="1:23">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -10105,7 +10105,7 @@
       <c r="V366" s="2"/>
       <c r="W366" s="2"/>
     </row>
-    <row r="367" spans="1:23">
+    <row r="367" ht="12" spans="1:23">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -10130,7 +10130,7 @@
       <c r="V367" s="2"/>
       <c r="W367" s="2"/>
     </row>
-    <row r="368" spans="1:23">
+    <row r="368" ht="12" spans="1:23">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -10155,7 +10155,7 @@
       <c r="V368" s="2"/>
       <c r="W368" s="2"/>
     </row>
-    <row r="369" spans="1:23">
+    <row r="369" ht="12" spans="1:23">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -10180,7 +10180,7 @@
       <c r="V369" s="2"/>
       <c r="W369" s="2"/>
     </row>
-    <row r="370" spans="1:23">
+    <row r="370" ht="12" spans="1:23">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -10205,7 +10205,7 @@
       <c r="V370" s="2"/>
       <c r="W370" s="2"/>
     </row>
-    <row r="371" spans="1:23">
+    <row r="371" ht="12" spans="1:23">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -10230,7 +10230,7 @@
       <c r="V371" s="2"/>
       <c r="W371" s="2"/>
     </row>
-    <row r="372" spans="1:23">
+    <row r="372" ht="12" spans="1:23">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -10255,7 +10255,7 @@
       <c r="V372" s="2"/>
       <c r="W372" s="2"/>
     </row>
-    <row r="373" spans="1:23">
+    <row r="373" ht="12" spans="1:23">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -10280,7 +10280,7 @@
       <c r="V373" s="2"/>
       <c r="W373" s="2"/>
     </row>
-    <row r="374" spans="1:23">
+    <row r="374" ht="12" spans="1:23">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -10305,7 +10305,7 @@
       <c r="V374" s="2"/>
       <c r="W374" s="2"/>
     </row>
-    <row r="375" spans="1:23">
+    <row r="375" ht="12" spans="1:23">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -10330,7 +10330,7 @@
       <c r="V375" s="2"/>
       <c r="W375" s="2"/>
     </row>
-    <row r="376" spans="1:23">
+    <row r="376" ht="12" spans="1:23">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -10355,7 +10355,7 @@
       <c r="V376" s="2"/>
       <c r="W376" s="2"/>
     </row>
-    <row r="377" spans="1:23">
+    <row r="377" ht="12" spans="1:23">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -10380,7 +10380,7 @@
       <c r="V377" s="2"/>
       <c r="W377" s="2"/>
     </row>
-    <row r="378" spans="1:23">
+    <row r="378" ht="12" spans="1:23">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -10405,7 +10405,7 @@
       <c r="V378" s="2"/>
       <c r="W378" s="2"/>
     </row>
-    <row r="379" spans="1:23">
+    <row r="379" ht="12" spans="1:23">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -10430,7 +10430,7 @@
       <c r="V379" s="2"/>
       <c r="W379" s="2"/>
     </row>
-    <row r="380" spans="1:23">
+    <row r="380" ht="12" spans="1:23">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -10455,7 +10455,7 @@
       <c r="V380" s="2"/>
       <c r="W380" s="2"/>
     </row>
-    <row r="381" spans="1:23">
+    <row r="381" ht="12" spans="1:23">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -10480,7 +10480,7 @@
       <c r="V381" s="2"/>
       <c r="W381" s="2"/>
     </row>
-    <row r="382" spans="1:23">
+    <row r="382" ht="12" spans="1:23">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -10505,7 +10505,7 @@
       <c r="V382" s="2"/>
       <c r="W382" s="2"/>
     </row>
-    <row r="383" spans="1:23">
+    <row r="383" ht="12" spans="1:23">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -10530,7 +10530,7 @@
       <c r="V383" s="2"/>
       <c r="W383" s="2"/>
     </row>
-    <row r="384" spans="1:23">
+    <row r="384" ht="12" spans="1:23">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -10555,7 +10555,7 @@
       <c r="V384" s="2"/>
       <c r="W384" s="2"/>
     </row>
-    <row r="385" spans="1:23">
+    <row r="385" ht="12" spans="1:23">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -10580,7 +10580,7 @@
       <c r="V385" s="2"/>
       <c r="W385" s="2"/>
     </row>
-    <row r="386" spans="1:23">
+    <row r="386" ht="12" spans="1:23">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -10605,7 +10605,7 @@
       <c r="V386" s="2"/>
       <c r="W386" s="2"/>
     </row>
-    <row r="387" spans="1:23">
+    <row r="387" ht="12" spans="1:23">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -10630,7 +10630,7 @@
       <c r="V387" s="2"/>
       <c r="W387" s="2"/>
     </row>
-    <row r="388" spans="1:23">
+    <row r="388" ht="12" spans="1:23">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -10655,7 +10655,7 @@
       <c r="V388" s="2"/>
       <c r="W388" s="2"/>
     </row>
-    <row r="389" spans="1:23">
+    <row r="389" ht="12" spans="1:23">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -10680,7 +10680,7 @@
       <c r="V389" s="2"/>
       <c r="W389" s="2"/>
     </row>
-    <row r="390" spans="1:23">
+    <row r="390" ht="12" spans="1:23">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -10705,7 +10705,7 @@
       <c r="V390" s="2"/>
       <c r="W390" s="2"/>
     </row>
-    <row r="391" spans="1:23">
+    <row r="391" ht="12" spans="1:23">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -10730,7 +10730,7 @@
       <c r="V391" s="2"/>
       <c r="W391" s="2"/>
     </row>
-    <row r="392" spans="1:23">
+    <row r="392" ht="12" spans="1:23">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -10755,7 +10755,7 @@
       <c r="V392" s="2"/>
       <c r="W392" s="2"/>
     </row>
-    <row r="393" spans="1:23">
+    <row r="393" ht="12" spans="1:23">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -10780,7 +10780,7 @@
       <c r="V393" s="2"/>
       <c r="W393" s="2"/>
     </row>
-    <row r="394" spans="1:23">
+    <row r="394" ht="12" spans="1:23">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -10805,7 +10805,7 @@
       <c r="V394" s="2"/>
       <c r="W394" s="2"/>
     </row>
-    <row r="395" spans="1:23">
+    <row r="395" ht="12" spans="1:23">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -10830,7 +10830,7 @@
       <c r="V395" s="2"/>
       <c r="W395" s="2"/>
     </row>
-    <row r="396" spans="1:23">
+    <row r="396" ht="12" spans="1:23">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -10855,7 +10855,7 @@
       <c r="V396" s="2"/>
       <c r="W396" s="2"/>
     </row>
-    <row r="397" spans="1:23">
+    <row r="397" ht="12" spans="1:23">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -10880,7 +10880,7 @@
       <c r="V397" s="2"/>
       <c r="W397" s="2"/>
     </row>
-    <row r="398" spans="1:23">
+    <row r="398" ht="12" spans="1:23">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -10905,7 +10905,7 @@
       <c r="V398" s="2"/>
       <c r="W398" s="2"/>
     </row>
-    <row r="399" spans="1:23">
+    <row r="399" ht="12" spans="1:23">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -10930,7 +10930,7 @@
       <c r="V399" s="2"/>
       <c r="W399" s="2"/>
     </row>
-    <row r="400" spans="1:23">
+    <row r="400" ht="12" spans="1:23">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -10955,7 +10955,7 @@
       <c r="V400" s="2"/>
       <c r="W400" s="2"/>
     </row>
-    <row r="401" spans="1:23">
+    <row r="401" ht="12" spans="1:23">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -10980,7 +10980,7 @@
       <c r="V401" s="2"/>
       <c r="W401" s="2"/>
     </row>
-    <row r="402" spans="1:23">
+    <row r="402" ht="12" spans="1:23">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -11005,7 +11005,7 @@
       <c r="V402" s="2"/>
       <c r="W402" s="2"/>
     </row>
-    <row r="403" spans="1:23">
+    <row r="403" ht="12" spans="1:23">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -11030,7 +11030,7 @@
       <c r="V403" s="2"/>
       <c r="W403" s="2"/>
     </row>
-    <row r="404" spans="1:23">
+    <row r="404" ht="12" spans="1:23">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -11055,7 +11055,7 @@
       <c r="V404" s="2"/>
       <c r="W404" s="2"/>
     </row>
-    <row r="405" spans="1:23">
+    <row r="405" ht="12" spans="1:23">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -11080,7 +11080,7 @@
       <c r="V405" s="2"/>
       <c r="W405" s="2"/>
     </row>
-    <row r="406" spans="1:23">
+    <row r="406" ht="12" spans="1:23">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -11105,7 +11105,7 @@
       <c r="V406" s="2"/>
       <c r="W406" s="2"/>
     </row>
-    <row r="407" spans="1:23">
+    <row r="407" ht="12" spans="1:23">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -11130,7 +11130,7 @@
       <c r="V407" s="2"/>
       <c r="W407" s="2"/>
     </row>
-    <row r="408" spans="1:23">
+    <row r="408" ht="12" spans="1:23">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -11155,7 +11155,7 @@
       <c r="V408" s="2"/>
       <c r="W408" s="2"/>
     </row>
-    <row r="409" spans="1:23">
+    <row r="409" ht="12" spans="1:23">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -11180,7 +11180,7 @@
       <c r="V409" s="2"/>
       <c r="W409" s="2"/>
     </row>
-    <row r="410" spans="1:23">
+    <row r="410" ht="12" spans="1:23">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -11205,7 +11205,7 @@
       <c r="V410" s="2"/>
       <c r="W410" s="2"/>
     </row>
-    <row r="411" spans="1:23">
+    <row r="411" ht="12" spans="1:23">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -11230,7 +11230,7 @@
       <c r="V411" s="2"/>
       <c r="W411" s="2"/>
     </row>
-    <row r="412" spans="1:23">
+    <row r="412" ht="12" spans="1:23">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -11255,7 +11255,7 @@
       <c r="V412" s="2"/>
       <c r="W412" s="2"/>
     </row>
-    <row r="413" spans="1:23">
+    <row r="413" ht="12" spans="1:23">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -11280,7 +11280,7 @@
       <c r="V413" s="2"/>
       <c r="W413" s="2"/>
     </row>
-    <row r="414" spans="1:23">
+    <row r="414" ht="12" spans="1:23">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -11305,7 +11305,7 @@
       <c r="V414" s="2"/>
       <c r="W414" s="2"/>
     </row>
-    <row r="415" spans="1:23">
+    <row r="415" ht="12" spans="1:23">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -11330,7 +11330,7 @@
       <c r="V415" s="2"/>
       <c r="W415" s="2"/>
     </row>
-    <row r="416" spans="1:23">
+    <row r="416" ht="12" spans="1:23">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -11355,7 +11355,7 @@
       <c r="V416" s="2"/>
       <c r="W416" s="2"/>
     </row>
-    <row r="417" spans="1:23">
+    <row r="417" ht="12" spans="1:23">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -11380,7 +11380,7 @@
       <c r="V417" s="2"/>
       <c r="W417" s="2"/>
     </row>
-    <row r="418" spans="1:23">
+    <row r="418" ht="12" spans="1:23">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -11405,7 +11405,7 @@
       <c r="V418" s="2"/>
       <c r="W418" s="2"/>
     </row>
-    <row r="419" spans="1:23">
+    <row r="419" ht="12" spans="1:23">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -11430,7 +11430,7 @@
       <c r="V419" s="2"/>
       <c r="W419" s="2"/>
     </row>
-    <row r="420" spans="1:23">
+    <row r="420" ht="12" spans="1:23">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -11455,7 +11455,7 @@
       <c r="V420" s="2"/>
       <c r="W420" s="2"/>
     </row>
-    <row r="421" spans="1:23">
+    <row r="421" ht="12" spans="1:23">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -11480,7 +11480,7 @@
       <c r="V421" s="2"/>
       <c r="W421" s="2"/>
     </row>
-    <row r="422" spans="1:23">
+    <row r="422" ht="12" spans="1:23">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -11505,7 +11505,7 @@
       <c r="V422" s="2"/>
       <c r="W422" s="2"/>
     </row>
-    <row r="423" spans="1:23">
+    <row r="423" ht="12" spans="1:23">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -11530,7 +11530,7 @@
       <c r="V423" s="2"/>
       <c r="W423" s="2"/>
     </row>
-    <row r="424" spans="1:23">
+    <row r="424" ht="12" spans="1:23">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -11555,7 +11555,7 @@
       <c r="V424" s="2"/>
       <c r="W424" s="2"/>
     </row>
-    <row r="425" spans="1:23">
+    <row r="425" ht="12" spans="1:23">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -11580,7 +11580,7 @@
       <c r="V425" s="2"/>
       <c r="W425" s="2"/>
     </row>
-    <row r="426" spans="1:23">
+    <row r="426" ht="12" spans="1:23">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -11605,7 +11605,7 @@
       <c r="V426" s="2"/>
       <c r="W426" s="2"/>
     </row>
-    <row r="427" spans="1:23">
+    <row r="427" ht="12" spans="1:23">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -11630,7 +11630,7 @@
       <c r="V427" s="2"/>
       <c r="W427" s="2"/>
     </row>
-    <row r="428" spans="1:23">
+    <row r="428" ht="12" spans="1:23">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -11655,7 +11655,7 @@
       <c r="V428" s="2"/>
       <c r="W428" s="2"/>
     </row>
-    <row r="429" spans="1:23">
+    <row r="429" ht="12" spans="1:23">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -11680,7 +11680,7 @@
       <c r="V429" s="2"/>
       <c r="W429" s="2"/>
     </row>
-    <row r="430" spans="1:23">
+    <row r="430" ht="12" spans="1:23">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -11705,7 +11705,7 @@
       <c r="V430" s="2"/>
       <c r="W430" s="2"/>
     </row>
-    <row r="431" spans="1:23">
+    <row r="431" ht="12" spans="1:23">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -11730,7 +11730,7 @@
       <c r="V431" s="2"/>
       <c r="W431" s="2"/>
     </row>
-    <row r="432" spans="1:23">
+    <row r="432" ht="12" spans="1:23">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -11755,7 +11755,7 @@
       <c r="V432" s="2"/>
       <c r="W432" s="2"/>
     </row>
-    <row r="433" spans="1:23">
+    <row r="433" ht="12" spans="1:23">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -11780,7 +11780,7 @@
       <c r="V433" s="2"/>
       <c r="W433" s="2"/>
     </row>
-    <row r="434" spans="1:23">
+    <row r="434" ht="12" spans="1:23">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -11805,7 +11805,7 @@
       <c r="V434" s="2"/>
       <c r="W434" s="2"/>
     </row>
-    <row r="435" spans="1:23">
+    <row r="435" ht="12" spans="1:23">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -11830,7 +11830,7 @@
       <c r="V435" s="2"/>
       <c r="W435" s="2"/>
     </row>
-    <row r="436" spans="1:23">
+    <row r="436" ht="12" spans="1:23">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -11855,7 +11855,7 @@
       <c r="V436" s="2"/>
       <c r="W436" s="2"/>
     </row>
-    <row r="437" spans="1:23">
+    <row r="437" ht="12" spans="1:23">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -11880,7 +11880,7 @@
       <c r="V437" s="2"/>
       <c r="W437" s="2"/>
     </row>
-    <row r="438" spans="1:23">
+    <row r="438" ht="12" spans="1:23">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -11905,7 +11905,7 @@
       <c r="V438" s="2"/>
       <c r="W438" s="2"/>
     </row>
-    <row r="439" spans="1:23">
+    <row r="439" ht="12" spans="1:23">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -11930,7 +11930,7 @@
       <c r="V439" s="2"/>
       <c r="W439" s="2"/>
     </row>
-    <row r="440" spans="1:23">
+    <row r="440" ht="12" spans="1:23">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -11955,7 +11955,7 @@
       <c r="V440" s="2"/>
       <c r="W440" s="2"/>
     </row>
-    <row r="441" spans="1:23">
+    <row r="441" ht="12" spans="1:23">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -11980,7 +11980,7 @@
       <c r="V441" s="2"/>
       <c r="W441" s="2"/>
     </row>
-    <row r="442" spans="1:23">
+    <row r="442" ht="12" spans="1:23">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -12005,7 +12005,7 @@
       <c r="V442" s="2"/>
       <c r="W442" s="2"/>
     </row>
-    <row r="443" spans="1:23">
+    <row r="443" ht="12" spans="1:23">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -12030,7 +12030,7 @@
       <c r="V443" s="2"/>
       <c r="W443" s="2"/>
     </row>
-    <row r="444" spans="1:23">
+    <row r="444" ht="12" spans="1:23">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -12055,7 +12055,7 @@
       <c r="V444" s="2"/>
       <c r="W444" s="2"/>
     </row>
-    <row r="445" spans="1:23">
+    <row r="445" ht="12" spans="1:23">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -12080,7 +12080,7 @@
       <c r="V445" s="2"/>
       <c r="W445" s="2"/>
     </row>
-    <row r="446" spans="1:23">
+    <row r="446" ht="12" spans="1:23">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -12105,7 +12105,7 @@
       <c r="V446" s="2"/>
       <c r="W446" s="2"/>
     </row>
-    <row r="447" spans="1:23">
+    <row r="447" ht="12" spans="1:23">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -12130,7 +12130,7 @@
       <c r="V447" s="2"/>
       <c r="W447" s="2"/>
     </row>
-    <row r="448" spans="1:23">
+    <row r="448" ht="12" spans="1:23">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -12155,7 +12155,7 @@
       <c r="V448" s="2"/>
       <c r="W448" s="2"/>
     </row>
-    <row r="449" spans="1:23">
+    <row r="449" ht="12" spans="1:23">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -12180,7 +12180,7 @@
       <c r="V449" s="2"/>
       <c r="W449" s="2"/>
     </row>
-    <row r="450" spans="1:23">
+    <row r="450" ht="12" spans="1:23">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -12205,7 +12205,7 @@
       <c r="V450" s="2"/>
       <c r="W450" s="2"/>
     </row>
-    <row r="451" spans="1:23">
+    <row r="451" ht="12" spans="1:23">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -12230,7 +12230,7 @@
       <c r="V451" s="2"/>
       <c r="W451" s="2"/>
     </row>
-    <row r="452" spans="1:23">
+    <row r="452" ht="12" spans="1:23">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -12255,7 +12255,7 @@
       <c r="V452" s="2"/>
       <c r="W452" s="2"/>
     </row>
-    <row r="453" spans="1:23">
+    <row r="453" ht="12" spans="1:23">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -12280,7 +12280,7 @@
       <c r="V453" s="2"/>
       <c r="W453" s="2"/>
     </row>
-    <row r="454" spans="1:23">
+    <row r="454" ht="12" spans="1:23">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -12305,7 +12305,7 @@
       <c r="V454" s="2"/>
       <c r="W454" s="2"/>
     </row>
-    <row r="455" spans="1:23">
+    <row r="455" ht="12" spans="1:23">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -12330,7 +12330,7 @@
       <c r="V455" s="2"/>
       <c r="W455" s="2"/>
     </row>
-    <row r="456" spans="1:23">
+    <row r="456" ht="12" spans="1:23">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -12355,7 +12355,7 @@
       <c r="V456" s="2"/>
       <c r="W456" s="2"/>
     </row>
-    <row r="457" spans="1:23">
+    <row r="457" ht="12" spans="1:23">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -12380,7 +12380,7 @@
       <c r="V457" s="2"/>
       <c r="W457" s="2"/>
     </row>
-    <row r="458" spans="1:23">
+    <row r="458" ht="12" spans="1:23">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -12405,7 +12405,7 @@
       <c r="V458" s="2"/>
       <c r="W458" s="2"/>
     </row>
-    <row r="459" spans="1:23">
+    <row r="459" ht="12" spans="1:23">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -12430,7 +12430,7 @@
       <c r="V459" s="2"/>
       <c r="W459" s="2"/>
     </row>
-    <row r="460" spans="1:23">
+    <row r="460" ht="12" spans="1:23">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -12455,7 +12455,7 @@
       <c r="V460" s="2"/>
       <c r="W460" s="2"/>
     </row>
-    <row r="461" spans="1:23">
+    <row r="461" ht="12" spans="1:23">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -12480,7 +12480,7 @@
       <c r="V461" s="2"/>
       <c r="W461" s="2"/>
     </row>
-    <row r="462" spans="1:23">
+    <row r="462" ht="12" spans="1:23">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -12505,7 +12505,7 @@
       <c r="V462" s="2"/>
       <c r="W462" s="2"/>
     </row>
-    <row r="463" spans="1:23">
+    <row r="463" ht="12" spans="1:23">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -12530,7 +12530,7 @@
       <c r="V463" s="2"/>
       <c r="W463" s="2"/>
     </row>
-    <row r="464" spans="1:23">
+    <row r="464" ht="12" spans="1:23">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -12555,7 +12555,7 @@
       <c r="V464" s="2"/>
       <c r="W464" s="2"/>
     </row>
-    <row r="465" spans="1:23">
+    <row r="465" ht="12" spans="1:23">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -12580,7 +12580,7 @@
       <c r="V465" s="2"/>
       <c r="W465" s="2"/>
     </row>
-    <row r="466" spans="1:23">
+    <row r="466" ht="12" spans="1:23">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -12605,7 +12605,7 @@
       <c r="V466" s="2"/>
       <c r="W466" s="2"/>
     </row>
-    <row r="467" spans="1:23">
+    <row r="467" ht="12" spans="1:23">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -12630,7 +12630,7 @@
       <c r="V467" s="2"/>
       <c r="W467" s="2"/>
     </row>
-    <row r="468" spans="1:23">
+    <row r="468" ht="12" spans="1:23">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -12655,7 +12655,7 @@
       <c r="V468" s="2"/>
       <c r="W468" s="2"/>
     </row>
-    <row r="469" spans="1:23">
+    <row r="469" ht="12" spans="1:23">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -12680,7 +12680,7 @@
       <c r="V469" s="2"/>
       <c r="W469" s="2"/>
     </row>
-    <row r="470" spans="1:23">
+    <row r="470" ht="12" spans="1:23">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -12705,7 +12705,7 @@
       <c r="V470" s="2"/>
       <c r="W470" s="2"/>
     </row>
-    <row r="471" spans="1:23">
+    <row r="471" ht="12" spans="1:23">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -12730,7 +12730,7 @@
       <c r="V471" s="2"/>
       <c r="W471" s="2"/>
     </row>
-    <row r="472" spans="1:23">
+    <row r="472" ht="12" spans="1:23">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -12755,7 +12755,7 @@
       <c r="V472" s="2"/>
       <c r="W472" s="2"/>
     </row>
-    <row r="473" spans="1:23">
+    <row r="473" ht="12" spans="1:23">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -12780,7 +12780,7 @@
       <c r="V473" s="2"/>
       <c r="W473" s="2"/>
     </row>
-    <row r="474" spans="1:23">
+    <row r="474" ht="12" spans="1:23">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -12805,7 +12805,7 @@
       <c r="V474" s="2"/>
       <c r="W474" s="2"/>
     </row>
-    <row r="475" spans="1:23">
+    <row r="475" ht="12" spans="1:23">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -12830,7 +12830,7 @@
       <c r="V475" s="2"/>
       <c r="W475" s="2"/>
     </row>
-    <row r="476" spans="1:23">
+    <row r="476" ht="12" spans="1:23">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -12855,7 +12855,7 @@
       <c r="V476" s="2"/>
       <c r="W476" s="2"/>
     </row>
-    <row r="477" spans="1:23">
+    <row r="477" ht="12" spans="1:23">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -12880,7 +12880,7 @@
       <c r="V477" s="2"/>
       <c r="W477" s="2"/>
     </row>
-    <row r="478" spans="1:23">
+    <row r="478" ht="12" spans="1:23">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -12905,7 +12905,7 @@
       <c r="V478" s="2"/>
       <c r="W478" s="2"/>
     </row>
-    <row r="479" spans="1:23">
+    <row r="479" ht="12" spans="1:23">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -12930,7 +12930,7 @@
       <c r="V479" s="2"/>
       <c r="W479" s="2"/>
     </row>
-    <row r="480" spans="1:23">
+    <row r="480" ht="12" spans="1:23">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -12955,7 +12955,7 @@
       <c r="V480" s="2"/>
       <c r="W480" s="2"/>
     </row>
-    <row r="481" spans="1:23">
+    <row r="481" ht="12" spans="1:23">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -12980,7 +12980,7 @@
       <c r="V481" s="2"/>
       <c r="W481" s="2"/>
     </row>
-    <row r="482" spans="1:23">
+    <row r="482" ht="12" spans="1:23">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -13005,7 +13005,7 @@
       <c r="V482" s="2"/>
       <c r="W482" s="2"/>
     </row>
-    <row r="483" spans="1:23">
+    <row r="483" ht="12" spans="1:23">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -13030,7 +13030,7 @@
       <c r="V483" s="2"/>
       <c r="W483" s="2"/>
     </row>
-    <row r="484" spans="1:23">
+    <row r="484" ht="12" spans="1:23">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -13055,7 +13055,7 @@
       <c r="V484" s="2"/>
       <c r="W484" s="2"/>
     </row>
-    <row r="485" spans="1:23">
+    <row r="485" ht="12" spans="1:23">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -13080,7 +13080,7 @@
       <c r="V485" s="2"/>
       <c r="W485" s="2"/>
     </row>
-    <row r="486" spans="1:23">
+    <row r="486" ht="12" spans="1:23">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -13105,7 +13105,7 @@
       <c r="V486" s="2"/>
       <c r="W486" s="2"/>
     </row>
-    <row r="487" spans="1:23">
+    <row r="487" ht="12" spans="1:23">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -13130,7 +13130,7 @@
       <c r="V487" s="2"/>
       <c r="W487" s="2"/>
     </row>
-    <row r="488" spans="1:23">
+    <row r="488" ht="12" spans="1:23">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -13155,7 +13155,7 @@
       <c r="V488" s="2"/>
       <c r="W488" s="2"/>
     </row>
-    <row r="489" spans="1:23">
+    <row r="489" ht="12" spans="1:23">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -13180,7 +13180,7 @@
       <c r="V489" s="2"/>
       <c r="W489" s="2"/>
     </row>
-    <row r="490" spans="1:23">
+    <row r="490" ht="12" spans="1:23">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -13205,7 +13205,7 @@
       <c r="V490" s="2"/>
       <c r="W490" s="2"/>
     </row>
-    <row r="491" spans="1:23">
+    <row r="491" ht="12" spans="1:23">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -13230,7 +13230,7 @@
       <c r="V491" s="2"/>
       <c r="W491" s="2"/>
     </row>
-    <row r="492" spans="1:23">
+    <row r="492" ht="12" spans="1:23">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -13255,7 +13255,7 @@
       <c r="V492" s="2"/>
       <c r="W492" s="2"/>
     </row>
-    <row r="493" spans="1:23">
+    <row r="493" ht="12" spans="1:23">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -13280,7 +13280,7 @@
       <c r="V493" s="2"/>
       <c r="W493" s="2"/>
     </row>
-    <row r="494" spans="1:23">
+    <row r="494" ht="12" spans="1:23">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -13305,7 +13305,7 @@
       <c r="V494" s="2"/>
       <c r="W494" s="2"/>
     </row>
-    <row r="495" spans="1:23">
+    <row r="495" ht="12" spans="1:23">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -13330,7 +13330,7 @@
       <c r="V495" s="2"/>
       <c r="W495" s="2"/>
     </row>
-    <row r="496" spans="1:23">
+    <row r="496" ht="12" spans="1:23">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -13355,7 +13355,7 @@
       <c r="V496" s="2"/>
       <c r="W496" s="2"/>
     </row>
-    <row r="497" spans="1:23">
+    <row r="497" ht="12" spans="1:23">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -13380,7 +13380,7 @@
       <c r="V497" s="2"/>
       <c r="W497" s="2"/>
     </row>
-    <row r="498" spans="1:23">
+    <row r="498" ht="12" spans="1:23">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -13405,7 +13405,7 @@
       <c r="V498" s="2"/>
       <c r="W498" s="2"/>
     </row>
-    <row r="499" spans="1:23">
+    <row r="499" ht="12" spans="1:23">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -13430,7 +13430,7 @@
       <c r="V499" s="2"/>
       <c r="W499" s="2"/>
     </row>
-    <row r="500" spans="1:23">
+    <row r="500" ht="12" spans="1:23">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -13455,7 +13455,7 @@
       <c r="V500" s="2"/>
       <c r="W500" s="2"/>
     </row>
-    <row r="501" spans="1:23">
+    <row r="501" ht="12" spans="1:23">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -13480,7 +13480,7 @@
       <c r="V501" s="2"/>
       <c r="W501" s="2"/>
     </row>
-    <row r="502" spans="1:23">
+    <row r="502" ht="12" spans="1:23">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -13505,7 +13505,7 @@
       <c r="V502" s="2"/>
       <c r="W502" s="2"/>
     </row>
-    <row r="503" spans="1:23">
+    <row r="503" ht="12" spans="1:23">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -13530,7 +13530,7 @@
       <c r="V503" s="2"/>
       <c r="W503" s="2"/>
     </row>
-    <row r="504" spans="1:23">
+    <row r="504" ht="12" spans="1:23">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -13555,7 +13555,7 @@
       <c r="V504" s="2"/>
       <c r="W504" s="2"/>
     </row>
-    <row r="505" spans="1:23">
+    <row r="505" ht="12" spans="1:23">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -13580,7 +13580,7 @@
       <c r="V505" s="2"/>
       <c r="W505" s="2"/>
     </row>
-    <row r="506" spans="1:23">
+    <row r="506" ht="12" spans="1:23">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -13605,7 +13605,7 @@
       <c r="V506" s="2"/>
       <c r="W506" s="2"/>
     </row>
-    <row r="507" spans="1:23">
+    <row r="507" ht="12" spans="1:23">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -13630,7 +13630,7 @@
       <c r="V507" s="2"/>
       <c r="W507" s="2"/>
     </row>
-    <row r="508" spans="1:23">
+    <row r="508" ht="12" spans="1:23">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -13655,7 +13655,7 @@
       <c r="V508" s="2"/>
       <c r="W508" s="2"/>
     </row>
-    <row r="509" spans="1:23">
+    <row r="509" ht="12" spans="1:23">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -13680,7 +13680,7 @@
       <c r="V509" s="2"/>
       <c r="W509" s="2"/>
     </row>
-    <row r="510" spans="1:23">
+    <row r="510" ht="12" spans="1:23">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -13705,7 +13705,7 @@
       <c r="V510" s="2"/>
       <c r="W510" s="2"/>
     </row>
-    <row r="511" spans="1:23">
+    <row r="511" ht="12" spans="1:23">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -13730,7 +13730,7 @@
       <c r="V511" s="2"/>
       <c r="W511" s="2"/>
     </row>
-    <row r="512" spans="1:23">
+    <row r="512" ht="12" spans="1:23">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -13755,7 +13755,7 @@
       <c r="V512" s="2"/>
       <c r="W512" s="2"/>
     </row>
-    <row r="513" spans="1:23">
+    <row r="513" ht="12" spans="1:23">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -13780,7 +13780,7 @@
       <c r="V513" s="2"/>
       <c r="W513" s="2"/>
     </row>
-    <row r="514" spans="1:23">
+    <row r="514" ht="12" spans="1:23">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -13805,7 +13805,7 @@
       <c r="V514" s="2"/>
       <c r="W514" s="2"/>
     </row>
-    <row r="515" spans="1:23">
+    <row r="515" ht="12" spans="1:23">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -13830,7 +13830,7 @@
       <c r="V515" s="2"/>
       <c r="W515" s="2"/>
     </row>
-    <row r="516" spans="1:23">
+    <row r="516" ht="12" spans="1:23">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -13855,7 +13855,7 @@
       <c r="V516" s="2"/>
       <c r="W516" s="2"/>
     </row>
-    <row r="517" spans="1:23">
+    <row r="517" ht="12" spans="1:23">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -13880,7 +13880,7 @@
       <c r="V517" s="2"/>
       <c r="W517" s="2"/>
     </row>
-    <row r="518" spans="1:23">
+    <row r="518" ht="12" spans="1:23">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -13905,7 +13905,7 @@
       <c r="V518" s="2"/>
       <c r="W518" s="2"/>
     </row>
-    <row r="519" spans="1:23">
+    <row r="519" ht="12" spans="1:23">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -13930,7 +13930,7 @@
       <c r="V519" s="2"/>
       <c r="W519" s="2"/>
     </row>
-    <row r="520" spans="1:23">
+    <row r="520" ht="12" spans="1:23">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -13955,7 +13955,7 @@
       <c r="V520" s="2"/>
       <c r="W520" s="2"/>
     </row>
-    <row r="521" spans="1:23">
+    <row r="521" ht="12" spans="1:23">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -13980,7 +13980,7 @@
       <c r="V521" s="2"/>
       <c r="W521" s="2"/>
     </row>
-    <row r="522" spans="1:23">
+    <row r="522" ht="12" spans="1:23">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -14005,7 +14005,7 @@
       <c r="V522" s="2"/>
       <c r="W522" s="2"/>
     </row>
-    <row r="523" spans="1:23">
+    <row r="523" ht="12" spans="1:23">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -14030,7 +14030,7 @@
       <c r="V523" s="2"/>
       <c r="W523" s="2"/>
     </row>
-    <row r="524" spans="1:23">
+    <row r="524" ht="12" spans="1:23">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -14055,7 +14055,7 @@
       <c r="V524" s="2"/>
       <c r="W524" s="2"/>
     </row>
-    <row r="525" spans="1:23">
+    <row r="525" ht="12" spans="1:23">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -14080,7 +14080,7 @@
       <c r="V525" s="2"/>
       <c r="W525" s="2"/>
     </row>
-    <row r="526" spans="1:23">
+    <row r="526" ht="12" spans="1:23">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -14105,7 +14105,7 @@
       <c r="V526" s="2"/>
       <c r="W526" s="2"/>
     </row>
-    <row r="527" spans="1:23">
+    <row r="527" ht="12" spans="1:23">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -14130,7 +14130,7 @@
       <c r="V527" s="2"/>
       <c r="W527" s="2"/>
     </row>
-    <row r="528" spans="1:23">
+    <row r="528" ht="12" spans="1:23">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -14155,7 +14155,7 @@
       <c r="V528" s="2"/>
       <c r="W528" s="2"/>
     </row>
-    <row r="529" spans="1:23">
+    <row r="529" ht="12" spans="1:23">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -14180,7 +14180,7 @@
       <c r="V529" s="2"/>
       <c r="W529" s="2"/>
     </row>
-    <row r="530" spans="1:23">
+    <row r="530" ht="12" spans="1:23">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -14205,7 +14205,7 @@
       <c r="V530" s="2"/>
       <c r="W530" s="2"/>
     </row>
-    <row r="531" spans="1:23">
+    <row r="531" ht="12" spans="1:23">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -14230,7 +14230,7 @@
       <c r="V531" s="2"/>
       <c r="W531" s="2"/>
     </row>
-    <row r="532" spans="1:23">
+    <row r="532" ht="12" spans="1:23">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -14255,7 +14255,7 @@
       <c r="V532" s="2"/>
       <c r="W532" s="2"/>
     </row>
-    <row r="533" spans="1:23">
+    <row r="533" ht="12" spans="1:23">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -14280,7 +14280,7 @@
       <c r="V533" s="2"/>
       <c r="W533" s="2"/>
     </row>
-    <row r="534" spans="1:23">
+    <row r="534" ht="12" spans="1:23">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -14305,7 +14305,7 @@
       <c r="V534" s="2"/>
       <c r="W534" s="2"/>
     </row>
-    <row r="535" spans="1:23">
+    <row r="535" ht="12" spans="1:23">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -14330,7 +14330,7 @@
       <c r="V535" s="2"/>
       <c r="W535" s="2"/>
     </row>
-    <row r="536" spans="1:23">
+    <row r="536" ht="12" spans="1:23">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -14355,7 +14355,7 @@
       <c r="V536" s="2"/>
       <c r="W536" s="2"/>
     </row>
-    <row r="537" spans="1:23">
+    <row r="537" ht="12" spans="1:23">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -14380,7 +14380,7 @@
       <c r="V537" s="2"/>
       <c r="W537" s="2"/>
     </row>
-    <row r="538" spans="1:23">
+    <row r="538" ht="12" spans="1:23">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -14405,7 +14405,7 @@
       <c r="V538" s="2"/>
       <c r="W538" s="2"/>
     </row>
-    <row r="539" spans="1:23">
+    <row r="539" ht="12" spans="1:23">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -14430,7 +14430,7 @@
       <c r="V539" s="2"/>
       <c r="W539" s="2"/>
     </row>
-    <row r="540" spans="1:23">
+    <row r="540" ht="12" spans="1:23">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -14455,7 +14455,7 @@
       <c r="V540" s="2"/>
       <c r="W540" s="2"/>
     </row>
-    <row r="541" spans="1:23">
+    <row r="541" ht="12" spans="1:23">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -14480,7 +14480,7 @@
       <c r="V541" s="2"/>
       <c r="W541" s="2"/>
     </row>
-    <row r="542" spans="1:23">
+    <row r="542" ht="12" spans="1:23">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -14505,7 +14505,7 @@
       <c r="V542" s="2"/>
       <c r="W542" s="2"/>
     </row>
-    <row r="543" spans="1:23">
+    <row r="543" ht="12" spans="1:23">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -14530,7 +14530,7 @@
       <c r="V543" s="2"/>
       <c r="W543" s="2"/>
     </row>
-    <row r="544" spans="1:23">
+    <row r="544" ht="12" spans="1:23">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -14555,7 +14555,7 @@
       <c r="V544" s="2"/>
       <c r="W544" s="2"/>
     </row>
-    <row r="545" spans="1:23">
+    <row r="545" ht="12" spans="1:23">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -14580,7 +14580,7 @@
       <c r="V545" s="2"/>
       <c r="W545" s="2"/>
     </row>
-    <row r="546" spans="1:23">
+    <row r="546" ht="12" spans="1:23">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -14605,7 +14605,7 @@
       <c r="V546" s="2"/>
       <c r="W546" s="2"/>
     </row>
-    <row r="547" spans="1:23">
+    <row r="547" ht="12" spans="1:23">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -14630,7 +14630,7 @@
       <c r="V547" s="2"/>
       <c r="W547" s="2"/>
     </row>
-    <row r="548" spans="1:23">
+    <row r="548" ht="12" spans="1:23">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -14655,7 +14655,7 @@
       <c r="V548" s="2"/>
       <c r="W548" s="2"/>
     </row>
-    <row r="549" spans="1:23">
+    <row r="549" ht="12" spans="1:23">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -14680,7 +14680,7 @@
       <c r="V549" s="2"/>
       <c r="W549" s="2"/>
     </row>
-    <row r="550" spans="1:23">
+    <row r="550" ht="12" spans="1:23">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -14705,7 +14705,7 @@
       <c r="V550" s="2"/>
       <c r="W550" s="2"/>
     </row>
-    <row r="551" spans="1:23">
+    <row r="551" ht="12" spans="1:23">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -14730,7 +14730,7 @@
       <c r="V551" s="2"/>
       <c r="W551" s="2"/>
     </row>
-    <row r="552" spans="1:23">
+    <row r="552" ht="12" spans="1:23">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -14755,7 +14755,7 @@
       <c r="V552" s="2"/>
       <c r="W552" s="2"/>
     </row>
-    <row r="553" spans="1:23">
+    <row r="553" ht="12" spans="1:23">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -14780,7 +14780,7 @@
       <c r="V553" s="2"/>
       <c r="W553" s="2"/>
     </row>
-    <row r="554" spans="1:23">
+    <row r="554" ht="12" spans="1:23">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -14805,7 +14805,7 @@
       <c r="V554" s="2"/>
       <c r="W554" s="2"/>
     </row>
-    <row r="555" spans="1:23">
+    <row r="555" ht="12" spans="1:23">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -14830,7 +14830,7 @@
       <c r="V555" s="2"/>
       <c r="W555" s="2"/>
     </row>
-    <row r="556" spans="1:23">
+    <row r="556" ht="12" spans="1:23">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -14855,7 +14855,7 @@
       <c r="V556" s="2"/>
       <c r="W556" s="2"/>
     </row>
-    <row r="557" spans="1:23">
+    <row r="557" ht="12" spans="1:23">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -14880,7 +14880,7 @@
       <c r="V557" s="2"/>
       <c r="W557" s="2"/>
     </row>
-    <row r="558" spans="1:23">
+    <row r="558" ht="12" spans="1:23">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -14905,7 +14905,7 @@
       <c r="V558" s="2"/>
       <c r="W558" s="2"/>
     </row>
-    <row r="559" spans="1:23">
+    <row r="559" ht="12" spans="1:23">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -14930,7 +14930,7 @@
       <c r="V559" s="2"/>
       <c r="W559" s="2"/>
     </row>
-    <row r="560" spans="1:23">
+    <row r="560" ht="12" spans="1:23">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -14955,7 +14955,7 @@
       <c r="V560" s="2"/>
       <c r="W560" s="2"/>
     </row>
-    <row r="561" spans="1:23">
+    <row r="561" ht="12" spans="1:23">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -14980,7 +14980,7 @@
       <c r="V561" s="2"/>
       <c r="W561" s="2"/>
     </row>
-    <row r="562" spans="1:23">
+    <row r="562" ht="12" spans="1:23">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -15005,7 +15005,7 @@
       <c r="V562" s="2"/>
       <c r="W562" s="2"/>
     </row>
-    <row r="563" spans="1:23">
+    <row r="563" ht="12" spans="1:23">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -15030,7 +15030,7 @@
       <c r="V563" s="2"/>
       <c r="W563" s="2"/>
     </row>
-    <row r="564" spans="1:23">
+    <row r="564" ht="12" spans="1:23">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -15055,7 +15055,7 @@
       <c r="V564" s="2"/>
       <c r="W564" s="2"/>
     </row>
-    <row r="565" spans="1:23">
+    <row r="565" ht="12" spans="1:23">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -15080,7 +15080,7 @@
       <c r="V565" s="2"/>
       <c r="W565" s="2"/>
     </row>
-    <row r="566" spans="1:23">
+    <row r="566" ht="12" spans="1:23">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -15105,7 +15105,7 @@
       <c r="V566" s="2"/>
       <c r="W566" s="2"/>
     </row>
-    <row r="567" spans="1:23">
+    <row r="567" ht="12" spans="1:23">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -15130,7 +15130,7 @@
       <c r="V567" s="2"/>
       <c r="W567" s="2"/>
     </row>
-    <row r="568" spans="1:23">
+    <row r="568" ht="12" spans="1:23">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -15155,7 +15155,7 @@
       <c r="V568" s="2"/>
       <c r="W568" s="2"/>
     </row>
-    <row r="569" spans="1:23">
+    <row r="569" ht="12" spans="1:23">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -15180,7 +15180,7 @@
       <c r="V569" s="2"/>
       <c r="W569" s="2"/>
     </row>
-    <row r="570" spans="1:23">
+    <row r="570" ht="12" spans="1:23">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -15205,7 +15205,7 @@
       <c r="V570" s="2"/>
       <c r="W570" s="2"/>
     </row>
-    <row r="571" spans="1:23">
+    <row r="571" ht="12" spans="1:23">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -15230,7 +15230,7 @@
       <c r="V571" s="2"/>
       <c r="W571" s="2"/>
     </row>
-    <row r="572" spans="1:23">
+    <row r="572" ht="12" spans="1:23">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -15255,7 +15255,7 @@
       <c r="V572" s="2"/>
       <c r="W572" s="2"/>
     </row>
-    <row r="573" spans="1:23">
+    <row r="573" ht="12" spans="1:23">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -15280,7 +15280,7 @@
       <c r="V573" s="2"/>
       <c r="W573" s="2"/>
     </row>
-    <row r="574" spans="1:23">
+    <row r="574" ht="12" spans="1:23">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -15305,7 +15305,7 @@
       <c r="V574" s="2"/>
       <c r="W574" s="2"/>
     </row>
-    <row r="575" spans="1:23">
+    <row r="575" ht="12" spans="1:23">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -15330,7 +15330,7 @@
       <c r="V575" s="2"/>
       <c r="W575" s="2"/>
     </row>
-    <row r="576" spans="1:23">
+    <row r="576" ht="12" spans="1:23">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -15355,7 +15355,7 @@
       <c r="V576" s="2"/>
       <c r="W576" s="2"/>
     </row>
-    <row r="577" spans="1:23">
+    <row r="577" ht="12" spans="1:23">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -15380,7 +15380,7 @@
       <c r="V577" s="2"/>
       <c r="W577" s="2"/>
     </row>
-    <row r="578" spans="1:23">
+    <row r="578" ht="12" spans="1:23">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -15405,7 +15405,7 @@
       <c r="V578" s="2"/>
       <c r="W578" s="2"/>
     </row>
-    <row r="579" spans="1:23">
+    <row r="579" ht="12" spans="1:23">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -15430,7 +15430,7 @@
       <c r="V579" s="2"/>
       <c r="W579" s="2"/>
     </row>
-    <row r="580" spans="1:23">
+    <row r="580" ht="12" spans="1:23">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -15455,7 +15455,7 @@
       <c r="V580" s="2"/>
       <c r="W580" s="2"/>
     </row>
-    <row r="581" spans="1:23">
+    <row r="581" ht="12" spans="1:23">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -15480,7 +15480,7 @@
       <c r="V581" s="2"/>
       <c r="W581" s="2"/>
     </row>
-    <row r="582" spans="1:23">
+    <row r="582" ht="12" spans="1:23">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -15505,7 +15505,7 @@
       <c r="V582" s="2"/>
       <c r="W582" s="2"/>
     </row>
-    <row r="583" spans="1:23">
+    <row r="583" ht="12" spans="1:23">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -15530,7 +15530,7 @@
       <c r="V583" s="2"/>
       <c r="W583" s="2"/>
     </row>
-    <row r="584" spans="1:23">
+    <row r="584" ht="12" spans="1:23">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -15555,7 +15555,7 @@
       <c r="V584" s="2"/>
       <c r="W584" s="2"/>
     </row>
-    <row r="585" spans="1:23">
+    <row r="585" ht="12" spans="1:23">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -15580,7 +15580,7 @@
       <c r="V585" s="2"/>
       <c r="W585" s="2"/>
     </row>
-    <row r="586" spans="1:23">
+    <row r="586" ht="12" spans="1:23">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -15605,7 +15605,7 @@
       <c r="V586" s="2"/>
       <c r="W586" s="2"/>
     </row>
-    <row r="587" spans="1:23">
+    <row r="587" ht="12" spans="1:23">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -15630,7 +15630,7 @@
       <c r="V587" s="2"/>
       <c r="W587" s="2"/>
     </row>
-    <row r="588" spans="1:23">
+    <row r="588" ht="12" spans="1:23">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -15655,7 +15655,7 @@
       <c r="V588" s="2"/>
       <c r="W588" s="2"/>
     </row>
-    <row r="589" spans="1:23">
+    <row r="589" ht="12" spans="1:23">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -15680,7 +15680,7 @@
       <c r="V589" s="2"/>
       <c r="W589" s="2"/>
     </row>
-    <row r="590" spans="1:23">
+    <row r="590" ht="12" spans="1:23">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -15705,7 +15705,7 @@
       <c r="V590" s="2"/>
       <c r="W590" s="2"/>
     </row>
-    <row r="591" spans="1:23">
+    <row r="591" ht="12" spans="1:23">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -15730,7 +15730,7 @@
       <c r="V591" s="2"/>
       <c r="W591" s="2"/>
     </row>
-    <row r="592" spans="1:23">
+    <row r="592" ht="12" spans="1:23">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -15755,7 +15755,7 @@
       <c r="V592" s="2"/>
       <c r="W592" s="2"/>
     </row>
-    <row r="593" spans="1:23">
+    <row r="593" ht="12" spans="1:23">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -15780,7 +15780,7 @@
       <c r="V593" s="2"/>
       <c r="W593" s="2"/>
     </row>
-    <row r="594" spans="1:23">
+    <row r="594" ht="12" spans="1:23">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -15805,7 +15805,7 @@
       <c r="V594" s="2"/>
       <c r="W594" s="2"/>
     </row>
-    <row r="595" spans="1:23">
+    <row r="595" ht="12" spans="1:23">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -15830,7 +15830,7 @@
       <c r="V595" s="2"/>
       <c r="W595" s="2"/>
     </row>
-    <row r="596" spans="1:23">
+    <row r="596" ht="12" spans="1:23">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -15855,7 +15855,7 @@
       <c r="V596" s="2"/>
       <c r="W596" s="2"/>
     </row>
-    <row r="597" spans="1:23">
+    <row r="597" ht="12" spans="1:23">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -15880,7 +15880,7 @@
       <c r="V597" s="2"/>
       <c r="W597" s="2"/>
     </row>
-    <row r="598" spans="1:23">
+    <row r="598" ht="12" spans="1:23">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -15905,7 +15905,7 @@
       <c r="V598" s="2"/>
       <c r="W598" s="2"/>
     </row>
-    <row r="599" spans="1:23">
+    <row r="599" ht="12" spans="1:23">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -15930,7 +15930,7 @@
       <c r="V599" s="2"/>
       <c r="W599" s="2"/>
     </row>
-    <row r="600" spans="1:23">
+    <row r="600" ht="12" spans="1:23">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -15955,7 +15955,7 @@
       <c r="V600" s="2"/>
       <c r="W600" s="2"/>
     </row>
-    <row r="601" spans="1:23">
+    <row r="601" ht="12" spans="1:23">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -15980,7 +15980,7 @@
       <c r="V601" s="2"/>
       <c r="W601" s="2"/>
     </row>
-    <row r="602" spans="1:23">
+    <row r="602" ht="12" spans="1:23">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -16005,7 +16005,7 @@
       <c r="V602" s="2"/>
       <c r="W602" s="2"/>
     </row>
-    <row r="603" spans="1:23">
+    <row r="603" ht="12" spans="1:23">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -16030,7 +16030,7 @@
       <c r="V603" s="2"/>
       <c r="W603" s="2"/>
     </row>
-    <row r="604" spans="1:23">
+    <row r="604" ht="12" spans="1:23">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -16055,7 +16055,7 @@
       <c r="V604" s="2"/>
       <c r="W604" s="2"/>
     </row>
-    <row r="605" spans="1:23">
+    <row r="605" ht="12" spans="1:23">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -16080,7 +16080,7 @@
       <c r="V605" s="2"/>
       <c r="W605" s="2"/>
     </row>
-    <row r="606" spans="1:23">
+    <row r="606" ht="12" spans="1:23">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -16105,7 +16105,7 @@
       <c r="V606" s="2"/>
       <c r="W606" s="2"/>
     </row>
-    <row r="607" spans="1:23">
+    <row r="607" ht="12" spans="1:23">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -16130,7 +16130,7 @@
       <c r="V607" s="2"/>
       <c r="W607" s="2"/>
     </row>
-    <row r="608" spans="1:23">
+    <row r="608" ht="12" spans="1:23">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -16155,7 +16155,7 @@
       <c r="V608" s="2"/>
       <c r="W608" s="2"/>
     </row>
-    <row r="609" spans="1:23">
+    <row r="609" ht="12" spans="1:23">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -16180,7 +16180,7 @@
       <c r="V609" s="2"/>
       <c r="W609" s="2"/>
     </row>
-    <row r="610" spans="1:23">
+    <row r="610" ht="12" spans="1:23">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -16205,7 +16205,7 @@
       <c r="V610" s="2"/>
       <c r="W610" s="2"/>
     </row>
-    <row r="611" spans="1:23">
+    <row r="611" ht="12" spans="1:23">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -16230,7 +16230,7 @@
       <c r="V611" s="2"/>
       <c r="W611" s="2"/>
     </row>
-    <row r="612" spans="1:23">
+    <row r="612" ht="12" spans="1:23">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -16255,7 +16255,7 @@
       <c r="V612" s="2"/>
       <c r="W612" s="2"/>
     </row>
-    <row r="613" spans="1:23">
+    <row r="613" ht="12" spans="1:23">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -16280,7 +16280,7 @@
       <c r="V613" s="2"/>
       <c r="W613" s="2"/>
     </row>
-    <row r="614" spans="1:23">
+    <row r="614" ht="12" spans="1:23">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -16305,7 +16305,7 @@
       <c r="V614" s="2"/>
       <c r="W614" s="2"/>
     </row>
-    <row r="615" spans="1:23">
+    <row r="615" ht="12" spans="1:23">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -16330,7 +16330,7 @@
       <c r="V615" s="2"/>
       <c r="W615" s="2"/>
     </row>
-    <row r="616" spans="1:23">
+    <row r="616" ht="12" spans="1:23">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -16355,7 +16355,7 @@
       <c r="V616" s="2"/>
       <c r="W616" s="2"/>
     </row>
-    <row r="617" spans="1:23">
+    <row r="617" ht="12" spans="1:23">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -16380,7 +16380,7 @@
       <c r="V617" s="2"/>
       <c r="W617" s="2"/>
     </row>
-    <row r="618" spans="1:23">
+    <row r="618" ht="12" spans="1:23">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -16405,7 +16405,7 @@
       <c r="V618" s="2"/>
       <c r="W618" s="2"/>
     </row>
-    <row r="619" spans="1:23">
+    <row r="619" ht="12" spans="1:23">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -16430,7 +16430,7 @@
       <c r="V619" s="2"/>
       <c r="W619" s="2"/>
     </row>
-    <row r="620" spans="1:23">
+    <row r="620" ht="12" spans="1:23">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -16455,7 +16455,7 @@
       <c r="V620" s="2"/>
       <c r="W620" s="2"/>
     </row>
-    <row r="621" spans="1:23">
+    <row r="621" ht="12" spans="1:23">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -16480,7 +16480,7 @@
       <c r="V621" s="2"/>
       <c r="W621" s="2"/>
     </row>
-    <row r="622" spans="1:23">
+    <row r="622" ht="12" spans="1:23">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -16505,7 +16505,7 @@
       <c r="V622" s="2"/>
       <c r="W622" s="2"/>
     </row>
-    <row r="623" spans="1:23">
+    <row r="623" ht="12" spans="1:23">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -16530,7 +16530,7 @@
       <c r="V623" s="2"/>
       <c r="W623" s="2"/>
     </row>
-    <row r="624" spans="1:23">
+    <row r="624" ht="12" spans="1:23">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -16555,7 +16555,7 @@
       <c r="V624" s="2"/>
       <c r="W624" s="2"/>
     </row>
-    <row r="625" spans="1:23">
+    <row r="625" ht="12" spans="1:23">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -16580,7 +16580,7 @@
       <c r="V625" s="2"/>
       <c r="W625" s="2"/>
     </row>
-    <row r="626" spans="1:23">
+    <row r="626" ht="12" spans="1:23">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -16605,7 +16605,7 @@
       <c r="V626" s="2"/>
       <c r="W626" s="2"/>
     </row>
-    <row r="627" spans="1:23">
+    <row r="627" ht="12" spans="1:23">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -16630,7 +16630,7 @@
       <c r="V627" s="2"/>
       <c r="W627" s="2"/>
     </row>
-    <row r="628" spans="1:23">
+    <row r="628" ht="12" spans="1:23">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -16655,7 +16655,7 @@
       <c r="V628" s="2"/>
       <c r="W628" s="2"/>
     </row>
-    <row r="629" spans="1:23">
+    <row r="629" ht="12" spans="1:23">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -16680,7 +16680,7 @@
       <c r="V629" s="2"/>
       <c r="W629" s="2"/>
     </row>
-    <row r="630" spans="1:23">
+    <row r="630" ht="12" spans="1:23">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -16705,7 +16705,7 @@
       <c r="V630" s="2"/>
       <c r="W630" s="2"/>
     </row>
-    <row r="631" spans="1:23">
+    <row r="631" ht="12" spans="1:23">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -16730,7 +16730,7 @@
       <c r="V631" s="2"/>
       <c r="W631" s="2"/>
     </row>
-    <row r="632" spans="1:23">
+    <row r="632" ht="12" spans="1:23">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -16755,7 +16755,7 @@
       <c r="V632" s="2"/>
       <c r="W632" s="2"/>
     </row>
-    <row r="633" spans="1:23">
+    <row r="633" ht="12" spans="1:23">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -16780,7 +16780,7 @@
       <c r="V633" s="2"/>
       <c r="W633" s="2"/>
     </row>
-    <row r="634" spans="1:23">
+    <row r="634" ht="12" spans="1:23">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -16805,7 +16805,7 @@
       <c r="V634" s="2"/>
       <c r="W634" s="2"/>
     </row>
-    <row r="635" spans="1:23">
+    <row r="635" ht="12" spans="1:23">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -16830,7 +16830,7 @@
       <c r="V635" s="2"/>
       <c r="W635" s="2"/>
     </row>
-    <row r="636" spans="1:23">
+    <row r="636" ht="12" spans="1:23">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -16855,7 +16855,7 @@
       <c r="V636" s="2"/>
       <c r="W636" s="2"/>
     </row>
-    <row r="637" spans="1:23">
+    <row r="637" ht="12" spans="1:23">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -16880,7 +16880,7 @@
       <c r="V637" s="2"/>
       <c r="W637" s="2"/>
     </row>
-    <row r="638" spans="1:23">
+    <row r="638" ht="12" spans="1:23">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -16905,7 +16905,7 @@
       <c r="V638" s="2"/>
       <c r="W638" s="2"/>
     </row>
-    <row r="639" spans="1:23">
+    <row r="639" ht="12" spans="1:23">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -16930,7 +16930,7 @@
       <c r="V639" s="2"/>
       <c r="W639" s="2"/>
     </row>
-    <row r="640" spans="1:23">
+    <row r="640" ht="12" spans="1:23">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -16955,7 +16955,7 @@
       <c r="V640" s="2"/>
       <c r="W640" s="2"/>
     </row>
-    <row r="641" spans="1:23">
+    <row r="641" ht="12" spans="1:23">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -16980,7 +16980,7 @@
       <c r="V641" s="2"/>
       <c r="W641" s="2"/>
     </row>
-    <row r="642" spans="1:23">
+    <row r="642" ht="12" spans="1:23">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -17005,7 +17005,7 @@
       <c r="V642" s="2"/>
       <c r="W642" s="2"/>
     </row>
-    <row r="643" spans="1:23">
+    <row r="643" ht="12" spans="1:23">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -17030,7 +17030,7 @@
       <c r="V643" s="2"/>
       <c r="W643" s="2"/>
     </row>
-    <row r="644" spans="1:23">
+    <row r="644" ht="12" spans="1:23">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -17055,7 +17055,7 @@
       <c r="V644" s="2"/>
       <c r="W644" s="2"/>
     </row>
-    <row r="645" spans="1:23">
+    <row r="645" ht="12" spans="1:23">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -17080,7 +17080,7 @@
       <c r="V645" s="2"/>
       <c r="W645" s="2"/>
     </row>
-    <row r="646" spans="1:23">
+    <row r="646" ht="12" spans="1:23">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -17105,7 +17105,7 @@
       <c r="V646" s="2"/>
       <c r="W646" s="2"/>
     </row>
-    <row r="647" spans="1:23">
+    <row r="647" ht="12" spans="1:23">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -17130,7 +17130,7 @@
       <c r="V647" s="2"/>
       <c r="W647" s="2"/>
     </row>
-    <row r="648" spans="1:23">
+    <row r="648" ht="12" spans="1:23">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -17155,7 +17155,7 @@
       <c r="V648" s="2"/>
       <c r="W648" s="2"/>
     </row>
-    <row r="649" spans="1:23">
+    <row r="649" ht="12" spans="1:23">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -17180,7 +17180,7 @@
       <c r="V649" s="2"/>
       <c r="W649" s="2"/>
     </row>
-    <row r="650" spans="1:23">
+    <row r="650" ht="12" spans="1:23">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -17205,7 +17205,7 @@
       <c r="V650" s="2"/>
       <c r="W650" s="2"/>
     </row>
-    <row r="651" spans="1:23">
+    <row r="651" ht="12" spans="1:23">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -17230,7 +17230,7 @@
       <c r="V651" s="2"/>
       <c r="W651" s="2"/>
     </row>
-    <row r="652" spans="1:23">
+    <row r="652" ht="12" spans="1:23">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -17255,7 +17255,7 @@
       <c r="V652" s="2"/>
       <c r="W652" s="2"/>
     </row>
-    <row r="653" spans="1:23">
+    <row r="653" ht="12" spans="1:23">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -17280,7 +17280,7 @@
       <c r="V653" s="2"/>
       <c r="W653" s="2"/>
     </row>
-    <row r="654" spans="1:23">
+    <row r="654" ht="12" spans="1:23">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -17305,7 +17305,7 @@
       <c r="V654" s="2"/>
       <c r="W654" s="2"/>
     </row>
-    <row r="655" spans="1:23">
+    <row r="655" ht="12" spans="1:23">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -17330,7 +17330,7 @@
       <c r="V655" s="2"/>
       <c r="W655" s="2"/>
     </row>
-    <row r="656" spans="1:23">
+    <row r="656" ht="12" spans="1:23">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -17355,7 +17355,7 @@
       <c r="V656" s="2"/>
       <c r="W656" s="2"/>
     </row>
-    <row r="657" spans="1:23">
+    <row r="657" ht="12" spans="1:23">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -17380,7 +17380,7 @@
       <c r="V657" s="2"/>
       <c r="W657" s="2"/>
     </row>
-    <row r="658" spans="1:23">
+    <row r="658" ht="12" spans="1:23">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -17405,7 +17405,7 @@
       <c r="V658" s="2"/>
       <c r="W658" s="2"/>
     </row>
-    <row r="659" spans="1:23">
+    <row r="659" ht="12" spans="1:23">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -17430,7 +17430,7 @@
       <c r="V659" s="2"/>
       <c r="W659" s="2"/>
     </row>
-    <row r="660" spans="1:23">
+    <row r="660" ht="12" spans="1:23">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -17455,7 +17455,7 @@
       <c r="V660" s="2"/>
       <c r="W660" s="2"/>
     </row>
-    <row r="661" spans="1:23">
+    <row r="661" ht="12" spans="1:23">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -17480,7 +17480,7 @@
       <c r="V661" s="2"/>
       <c r="W661" s="2"/>
     </row>
-    <row r="662" spans="1:23">
+    <row r="662" ht="12" spans="1:23">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -17505,7 +17505,7 @@
       <c r="V662" s="2"/>
       <c r="W662" s="2"/>
     </row>
-    <row r="663" spans="1:23">
+    <row r="663" ht="12" spans="1:23">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -17530,7 +17530,7 @@
       <c r="V663" s="2"/>
       <c r="W663" s="2"/>
     </row>
-    <row r="664" spans="1:23">
+    <row r="664" ht="12" spans="1:23">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -17555,7 +17555,7 @@
       <c r="V664" s="2"/>
       <c r="W664" s="2"/>
     </row>
-    <row r="665" spans="1:23">
+    <row r="665" ht="12" spans="1:23">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -17580,7 +17580,7 @@
       <c r="V665" s="2"/>
       <c r="W665" s="2"/>
     </row>
-    <row r="666" spans="1:23">
+    <row r="666" ht="12" spans="1:23">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -17605,7 +17605,7 @@
       <c r="V666" s="2"/>
       <c r="W666" s="2"/>
     </row>
-    <row r="667" spans="1:23">
+    <row r="667" ht="12" spans="1:23">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -17630,7 +17630,7 @@
       <c r="V667" s="2"/>
       <c r="W667" s="2"/>
     </row>
-    <row r="668" spans="1:23">
+    <row r="668" ht="12" spans="1:23">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -17655,7 +17655,7 @@
       <c r="V668" s="2"/>
       <c r="W668" s="2"/>
     </row>
-    <row r="669" spans="1:23">
+    <row r="669" ht="12" spans="1:23">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -17680,7 +17680,7 @@
       <c r="V669" s="2"/>
       <c r="W669" s="2"/>
     </row>
-    <row r="670" spans="1:23">
+    <row r="670" ht="12" spans="1:23">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -17705,7 +17705,7 @@
       <c r="V670" s="2"/>
       <c r="W670" s="2"/>
     </row>
-    <row r="671" spans="1:23">
+    <row r="671" ht="12" spans="1:23">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -17730,7 +17730,7 @@
       <c r="V671" s="2"/>
       <c r="W671" s="2"/>
     </row>
-    <row r="672" spans="1:23">
+    <row r="672" ht="12" spans="1:23">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -17755,7 +17755,7 @@
       <c r="V672" s="2"/>
       <c r="W672" s="2"/>
     </row>
-    <row r="673" spans="1:23">
+    <row r="673" ht="12" spans="1:23">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -17780,7 +17780,7 @@
       <c r="V673" s="2"/>
       <c r="W673" s="2"/>
     </row>
-    <row r="674" spans="1:23">
+    <row r="674" ht="12" spans="1:23">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -17805,7 +17805,7 @@
       <c r="V674" s="2"/>
       <c r="W674" s="2"/>
     </row>
-    <row r="675" spans="1:23">
+    <row r="675" ht="12" spans="1:23">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -17830,7 +17830,7 @@
       <c r="V675" s="2"/>
       <c r="W675" s="2"/>
     </row>
-    <row r="676" spans="1:23">
+    <row r="676" ht="12" spans="1:23">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -17855,7 +17855,7 @@
       <c r="V676" s="2"/>
       <c r="W676" s="2"/>
     </row>
-    <row r="677" spans="1:23">
+    <row r="677" ht="12" spans="1:23">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -17880,7 +17880,7 @@
       <c r="V677" s="2"/>
       <c r="W677" s="2"/>
     </row>
-    <row r="678" spans="1:23">
+    <row r="678" ht="12" spans="1:23">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -17905,7 +17905,7 @@
       <c r="V678" s="2"/>
       <c r="W678" s="2"/>
     </row>
-    <row r="679" spans="1:23">
+    <row r="679" ht="12" spans="1:23">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -17930,7 +17930,7 @@
       <c r="V679" s="2"/>
       <c r="W679" s="2"/>
     </row>
-    <row r="680" spans="1:23">
+    <row r="680" ht="12" spans="1:23">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -17955,7 +17955,7 @@
       <c r="V680" s="2"/>
       <c r="W680" s="2"/>
     </row>
-    <row r="681" spans="1:23">
+    <row r="681" ht="12" spans="1:23">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -17980,7 +17980,7 @@
       <c r="V681" s="2"/>
       <c r="W681" s="2"/>
     </row>
-    <row r="682" spans="1:23">
+    <row r="682" ht="12" spans="1:23">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -18005,7 +18005,7 @@
       <c r="V682" s="2"/>
       <c r="W682" s="2"/>
     </row>
-    <row r="683" spans="1:23">
+    <row r="683" ht="12" spans="1:23">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -18030,7 +18030,7 @@
       <c r="V683" s="2"/>
       <c r="W683" s="2"/>
     </row>
-    <row r="684" spans="1:23">
+    <row r="684" ht="12" spans="1:23">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -18055,7 +18055,7 @@
       <c r="V684" s="2"/>
       <c r="W684" s="2"/>
     </row>
-    <row r="685" spans="1:23">
+    <row r="685" ht="12" spans="1:23">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -18080,7 +18080,7 @@
       <c r="V685" s="2"/>
       <c r="W685" s="2"/>
     </row>
-    <row r="686" spans="1:23">
+    <row r="686" ht="12" spans="1:23">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -18105,7 +18105,7 @@
       <c r="V686" s="2"/>
       <c r="W686" s="2"/>
     </row>
-    <row r="687" spans="1:23">
+    <row r="687" ht="12" spans="1:23">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -18130,7 +18130,7 @@
       <c r="V687" s="2"/>
       <c r="W687" s="2"/>
     </row>
-    <row r="688" spans="1:23">
+    <row r="688" ht="12" spans="1:23">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -18155,7 +18155,7 @@
       <c r="V688" s="2"/>
       <c r="W688" s="2"/>
     </row>
-    <row r="689" spans="1:23">
+    <row r="689" ht="12" spans="1:23">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -18180,7 +18180,7 @@
       <c r="V689" s="2"/>
       <c r="W689" s="2"/>
     </row>
-    <row r="690" spans="1:23">
+    <row r="690" ht="12" spans="1:23">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -18205,7 +18205,7 @@
       <c r="V690" s="2"/>
       <c r="W690" s="2"/>
     </row>
-    <row r="691" spans="1:23">
+    <row r="691" ht="12" spans="1:23">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -18230,7 +18230,7 @@
       <c r="V691" s="2"/>
       <c r="W691" s="2"/>
     </row>
-    <row r="692" spans="1:23">
+    <row r="692" ht="12" spans="1:23">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -18255,7 +18255,7 @@
       <c r="V692" s="2"/>
       <c r="W692" s="2"/>
     </row>
-    <row r="693" spans="1:23">
+    <row r="693" ht="12" spans="1:23">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -18280,7 +18280,7 @@
       <c r="V693" s="2"/>
       <c r="W693" s="2"/>
     </row>
-    <row r="694" spans="1:23">
+    <row r="694" ht="12" spans="1:23">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -18305,7 +18305,7 @@
       <c r="V694" s="2"/>
       <c r="W694" s="2"/>
     </row>
-    <row r="695" spans="1:23">
+    <row r="695" ht="12" spans="1:23">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -18330,7 +18330,7 @@
       <c r="V695" s="2"/>
       <c r="W695" s="2"/>
     </row>
-    <row r="696" spans="1:23">
+    <row r="696" ht="12" spans="1:23">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -18355,7 +18355,7 @@
       <c r="V696" s="2"/>
       <c r="W696" s="2"/>
     </row>
-    <row r="697" spans="1:23">
+    <row r="697" ht="12" spans="1:23">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -18380,7 +18380,7 @@
       <c r="V697" s="2"/>
       <c r="W697" s="2"/>
     </row>
-    <row r="698" spans="1:23">
+    <row r="698" ht="12" spans="1:23">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -18405,7 +18405,7 @@
       <c r="V698" s="2"/>
       <c r="W698" s="2"/>
     </row>
-    <row r="699" spans="1:23">
+    <row r="699" ht="12" spans="1:23">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -18430,7 +18430,7 @@
       <c r="V699" s="2"/>
       <c r="W699" s="2"/>
     </row>
-    <row r="700" spans="1:23">
+    <row r="700" ht="12" spans="1:23">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -18455,7 +18455,7 @@
       <c r="V700" s="2"/>
       <c r="W700" s="2"/>
     </row>
-    <row r="701" spans="1:23">
+    <row r="701" ht="12" spans="1:23">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -18480,7 +18480,7 @@
       <c r="V701" s="2"/>
       <c r="W701" s="2"/>
     </row>
-    <row r="702" spans="1:23">
+    <row r="702" ht="12" spans="1:23">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -18505,7 +18505,7 @@
       <c r="V702" s="2"/>
       <c r="W702" s="2"/>
     </row>
-    <row r="703" spans="1:23">
+    <row r="703" ht="12" spans="1:23">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -18530,7 +18530,7 @@
       <c r="V703" s="2"/>
       <c r="W703" s="2"/>
     </row>
-    <row r="704" spans="1:23">
+    <row r="704" ht="12" spans="1:23">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -18555,7 +18555,7 @@
       <c r="V704" s="2"/>
       <c r="W704" s="2"/>
     </row>
-    <row r="705" spans="1:23">
+    <row r="705" ht="12" spans="1:23">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -18580,7 +18580,7 @@
       <c r="V705" s="2"/>
       <c r="W705" s="2"/>
     </row>
-    <row r="706" spans="1:23">
+    <row r="706" ht="12" spans="1:23">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -18605,7 +18605,7 @@
       <c r="V706" s="2"/>
       <c r="W706" s="2"/>
     </row>
-    <row r="707" spans="1:23">
+    <row r="707" ht="12" spans="1:23">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -18630,7 +18630,7 @@
       <c r="V707" s="2"/>
       <c r="W707" s="2"/>
     </row>
-    <row r="708" spans="1:23">
+    <row r="708" ht="12" spans="1:23">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -18655,7 +18655,7 @@
       <c r="V708" s="2"/>
       <c r="W708" s="2"/>
     </row>
-    <row r="709" spans="1:23">
+    <row r="709" ht="12" spans="1:23">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -18680,7 +18680,7 @@
       <c r="V709" s="2"/>
       <c r="W709" s="2"/>
     </row>
-    <row r="710" spans="1:23">
+    <row r="710" ht="12" spans="1:23">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -18705,7 +18705,7 @@
       <c r="V710" s="2"/>
       <c r="W710" s="2"/>
     </row>
-    <row r="711" spans="1:23">
+    <row r="711" ht="12" spans="1:23">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -18730,7 +18730,7 @@
       <c r="V711" s="2"/>
       <c r="W711" s="2"/>
     </row>
-    <row r="712" spans="1:23">
+    <row r="712" ht="12" spans="1:23">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -18755,7 +18755,7 @@
       <c r="V712" s="2"/>
       <c r="W712" s="2"/>
     </row>
-    <row r="713" spans="1:23">
+    <row r="713" ht="12" spans="1:23">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -18780,7 +18780,7 @@
       <c r="V713" s="2"/>
       <c r="W713" s="2"/>
     </row>
-    <row r="714" spans="1:23">
+    <row r="714" ht="12" spans="1:23">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -18805,7 +18805,7 @@
       <c r="V714" s="2"/>
       <c r="W714" s="2"/>
     </row>
-    <row r="715" spans="1:23">
+    <row r="715" ht="12" spans="1:23">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -18830,7 +18830,7 @@
       <c r="V715" s="2"/>
       <c r="W715" s="2"/>
     </row>
-    <row r="716" spans="1:23">
+    <row r="716" ht="12" spans="1:23">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -18855,7 +18855,7 @@
       <c r="V716" s="2"/>
       <c r="W716" s="2"/>
     </row>
-    <row r="717" spans="1:23">
+    <row r="717" ht="12" spans="1:23">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -18880,7 +18880,7 @@
       <c r="V717" s="2"/>
       <c r="W717" s="2"/>
     </row>
-    <row r="718" spans="1:23">
+    <row r="718" ht="12" spans="1:23">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -18905,7 +18905,7 @@
       <c r="V718" s="2"/>
       <c r="W718" s="2"/>
     </row>
-    <row r="719" spans="1:23">
+    <row r="719" ht="12" spans="1:23">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -18930,7 +18930,7 @@
       <c r="V719" s="2"/>
       <c r="W719" s="2"/>
     </row>
-    <row r="720" spans="1:23">
+    <row r="720" ht="12" spans="1:23">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -18955,7 +18955,7 @@
       <c r="V720" s="2"/>
       <c r="W720" s="2"/>
     </row>
-    <row r="721" spans="1:23">
+    <row r="721" ht="12" spans="1:23">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -18980,7 +18980,7 @@
       <c r="V721" s="2"/>
       <c r="W721" s="2"/>
     </row>
-    <row r="722" spans="1:23">
+    <row r="722" ht="12" spans="1:23">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -19005,7 +19005,7 @@
       <c r="V722" s="2"/>
       <c r="W722" s="2"/>
     </row>
-    <row r="723" spans="1:23">
+    <row r="723" ht="12" spans="1:23">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -19030,7 +19030,7 @@
       <c r="V723" s="2"/>
       <c r="W723" s="2"/>
     </row>
-    <row r="724" spans="1:23">
+    <row r="724" ht="12" spans="1:23">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -19055,7 +19055,7 @@
       <c r="V724" s="2"/>
       <c r="W724" s="2"/>
     </row>
-    <row r="725" spans="1:23">
+    <row r="725" ht="12" spans="1:23">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -19080,7 +19080,7 @@
       <c r="V725" s="2"/>
       <c r="W725" s="2"/>
     </row>
-    <row r="726" spans="1:23">
+    <row r="726" ht="12" spans="1:23">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -19105,7 +19105,7 @@
       <c r="V726" s="2"/>
       <c r="W726" s="2"/>
     </row>
-    <row r="727" spans="1:23">
+    <row r="727" ht="12" spans="1:23">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -19130,7 +19130,7 @@
       <c r="V727" s="2"/>
       <c r="W727" s="2"/>
     </row>
-    <row r="728" spans="1:23">
+    <row r="728" ht="12" spans="1:23">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -19155,7 +19155,7 @@
       <c r="V728" s="2"/>
       <c r="W728" s="2"/>
     </row>
-    <row r="729" spans="1:23">
+    <row r="729" ht="12" spans="1:23">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -19180,7 +19180,7 @@
       <c r="V729" s="2"/>
       <c r="W729" s="2"/>
     </row>
-    <row r="730" spans="1:23">
+    <row r="730" ht="12" spans="1:23">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -19205,7 +19205,7 @@
       <c r="V730" s="2"/>
       <c r="W730" s="2"/>
     </row>
-    <row r="731" spans="1:23">
+    <row r="731" ht="12" spans="1:23">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -19230,7 +19230,7 @@
       <c r="V731" s="2"/>
       <c r="W731" s="2"/>
     </row>
-    <row r="732" spans="1:23">
+    <row r="732" ht="12" spans="1:23">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -19255,7 +19255,7 @@
       <c r="V732" s="2"/>
       <c r="W732" s="2"/>
     </row>
-    <row r="733" spans="1:23">
+    <row r="733" ht="12" spans="1:23">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -19280,7 +19280,7 @@
       <c r="V733" s="2"/>
       <c r="W733" s="2"/>
     </row>
-    <row r="734" spans="1:23">
+    <row r="734" ht="12" spans="1:23">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -19305,7 +19305,7 @@
       <c r="V734" s="2"/>
       <c r="W734" s="2"/>
     </row>
-    <row r="735" spans="1:23">
+    <row r="735" ht="12" spans="1:23">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -19330,7 +19330,7 @@
       <c r="V735" s="2"/>
       <c r="W735" s="2"/>
     </row>
-    <row r="736" spans="1:23">
+    <row r="736" ht="12" spans="1:23">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -19355,7 +19355,7 @@
       <c r="V736" s="2"/>
       <c r="W736" s="2"/>
     </row>
-    <row r="737" spans="1:23">
+    <row r="737" ht="12" spans="1:23">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -19380,7 +19380,7 @@
       <c r="V737" s="2"/>
       <c r="W737" s="2"/>
     </row>
-    <row r="738" spans="1:23">
+    <row r="738" ht="12" spans="1:23">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -19405,7 +19405,7 @@
       <c r="V738" s="2"/>
       <c r="W738" s="2"/>
     </row>
-    <row r="739" spans="1:23">
+    <row r="739" ht="12" spans="1:23">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -19430,7 +19430,7 @@
       <c r="V739" s="2"/>
       <c r="W739" s="2"/>
     </row>
-    <row r="740" spans="1:23">
+    <row r="740" ht="12" spans="1:23">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -19455,7 +19455,7 @@
       <c r="V740" s="2"/>
       <c r="W740" s="2"/>
     </row>
-    <row r="741" spans="1:23">
+    <row r="741" ht="12" spans="1:23">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -19480,7 +19480,7 @@
       <c r="V741" s="2"/>
       <c r="W741" s="2"/>
     </row>
-    <row r="742" spans="1:23">
+    <row r="742" ht="12" spans="1:23">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -19505,7 +19505,7 @@
       <c r="V742" s="2"/>
       <c r="W742" s="2"/>
     </row>
-    <row r="743" spans="1:23">
+    <row r="743" ht="12" spans="1:23">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -19530,7 +19530,7 @@
       <c r="V743" s="2"/>
       <c r="W743" s="2"/>
     </row>
-    <row r="744" spans="1:23">
+    <row r="744" ht="12" spans="1:23">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -19555,7 +19555,7 @@
       <c r="V744" s="2"/>
       <c r="W744" s="2"/>
     </row>
-    <row r="745" spans="1:23">
+    <row r="745" ht="12" spans="1:23">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -19580,7 +19580,7 @@
       <c r="V745" s="2"/>
       <c r="W745" s="2"/>
     </row>
-    <row r="746" spans="1:23">
+    <row r="746" ht="12" spans="1:23">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -19605,7 +19605,7 @@
       <c r="V746" s="2"/>
       <c r="W746" s="2"/>
     </row>
-    <row r="747" spans="1:23">
+    <row r="747" ht="12" spans="1:23">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -19630,7 +19630,7 @@
       <c r="V747" s="2"/>
       <c r="W747" s="2"/>
     </row>
-    <row r="748" spans="1:23">
+    <row r="748" ht="12" spans="1:23">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -19655,7 +19655,7 @@
       <c r="V748" s="2"/>
       <c r="W748" s="2"/>
     </row>
-    <row r="749" spans="1:23">
+    <row r="749" ht="12" spans="1:23">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -19680,7 +19680,7 @@
       <c r="V749" s="2"/>
       <c r="W749" s="2"/>
     </row>
-    <row r="750" spans="1:23">
+    <row r="750" ht="12" spans="1:23">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -19705,7 +19705,7 @@
       <c r="V750" s="2"/>
       <c r="W750" s="2"/>
     </row>
-    <row r="751" spans="1:23">
+    <row r="751" ht="12" spans="1:23">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -19730,7 +19730,7 @@
       <c r="V751" s="2"/>
       <c r="W751" s="2"/>
     </row>
-    <row r="752" spans="1:23">
+    <row r="752" ht="12" spans="1:23">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -19755,7 +19755,7 @@
       <c r="V752" s="2"/>
       <c r="W752" s="2"/>
     </row>
-    <row r="753" spans="1:23">
+    <row r="753" ht="12" spans="1:23">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -19780,7 +19780,7 @@
       <c r="V753" s="2"/>
       <c r="W753" s="2"/>
     </row>
-    <row r="754" spans="1:23">
+    <row r="754" ht="12" spans="1:23">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -19805,7 +19805,7 @@
       <c r="V754" s="2"/>
       <c r="W754" s="2"/>
     </row>
-    <row r="755" spans="1:23">
+    <row r="755" ht="12" spans="1:23">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -19830,7 +19830,7 @@
       <c r="V755" s="2"/>
       <c r="W755" s="2"/>
     </row>
-    <row r="756" spans="1:23">
+    <row r="756" ht="12" spans="1:23">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -19855,7 +19855,7 @@
       <c r="V756" s="2"/>
       <c r="W756" s="2"/>
     </row>
-    <row r="757" spans="1:23">
+    <row r="757" ht="12" spans="1:23">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -19880,7 +19880,7 @@
       <c r="V757" s="2"/>
       <c r="W757" s="2"/>
     </row>
-    <row r="758" spans="1:23">
+    <row r="758" ht="12" spans="1:23">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -19905,7 +19905,7 @@
       <c r="V758" s="2"/>
       <c r="W758" s="2"/>
     </row>
-    <row r="759" spans="1:23">
+    <row r="759" ht="12" spans="1:23">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -19930,7 +19930,7 @@
       <c r="V759" s="2"/>
       <c r="W759" s="2"/>
     </row>
-    <row r="760" spans="1:23">
+    <row r="760" ht="12" spans="1:23">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -19955,7 +19955,7 @@
       <c r="V760" s="2"/>
       <c r="W760" s="2"/>
     </row>
-    <row r="761" spans="1:23">
+    <row r="761" ht="12" spans="1:23">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -19980,7 +19980,7 @@
       <c r="V761" s="2"/>
       <c r="W761" s="2"/>
     </row>
-    <row r="762" spans="1:23">
+    <row r="762" ht="12" spans="1:23">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -20005,7 +20005,7 @@
       <c r="V762" s="2"/>
       <c r="W762" s="2"/>
     </row>
-    <row r="763" spans="1:23">
+    <row r="763" ht="12" spans="1:23">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -20030,7 +20030,7 @@
       <c r="V763" s="2"/>
       <c r="W763" s="2"/>
     </row>
-    <row r="764" spans="1:23">
+    <row r="764" ht="12" spans="1:23">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -20055,7 +20055,7 @@
       <c r="V764" s="2"/>
       <c r="W764" s="2"/>
     </row>
-    <row r="765" spans="1:23">
+    <row r="765" ht="12" spans="1:23">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -20080,7 +20080,7 @@
       <c r="V765" s="2"/>
       <c r="W765" s="2"/>
     </row>
-    <row r="766" spans="1:23">
+    <row r="766" ht="12" spans="1:23">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -20105,7 +20105,7 @@
       <c r="V766" s="2"/>
       <c r="W766" s="2"/>
     </row>
-    <row r="767" spans="1:23">
+    <row r="767" ht="12" spans="1:23">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -20130,7 +20130,7 @@
       <c r="V767" s="2"/>
       <c r="W767" s="2"/>
     </row>
-    <row r="768" spans="1:23">
+    <row r="768" ht="12" spans="1:23">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -20155,7 +20155,7 @@
       <c r="V768" s="2"/>
       <c r="W768" s="2"/>
     </row>
-    <row r="769" spans="1:23">
+    <row r="769" ht="12" spans="1:23">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -20180,7 +20180,7 @@
       <c r="V769" s="2"/>
       <c r="W769" s="2"/>
     </row>
-    <row r="770" spans="1:23">
+    <row r="770" ht="12" spans="1:23">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -20205,7 +20205,7 @@
       <c r="V770" s="2"/>
       <c r="W770" s="2"/>
     </row>
-    <row r="771" spans="1:23">
+    <row r="771" ht="12" spans="1:23">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -20230,7 +20230,7 @@
       <c r="V771" s="2"/>
       <c r="W771" s="2"/>
     </row>
-    <row r="772" spans="1:23">
+    <row r="772" ht="12" spans="1:23">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -20255,7 +20255,7 @@
       <c r="V772" s="2"/>
       <c r="W772" s="2"/>
     </row>
-    <row r="773" spans="1:23">
+    <row r="773" ht="12" spans="1:23">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -20280,7 +20280,7 @@
       <c r="V773" s="2"/>
       <c r="W773" s="2"/>
     </row>
-    <row r="774" spans="1:23">
+    <row r="774" ht="12" spans="1:23">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -20305,7 +20305,7 @@
       <c r="V774" s="2"/>
       <c r="W774" s="2"/>
     </row>
-    <row r="775" spans="1:23">
+    <row r="775" ht="12" spans="1:23">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -20330,7 +20330,7 @@
       <c r="V775" s="2"/>
       <c r="W775" s="2"/>
     </row>
-    <row r="776" spans="1:23">
+    <row r="776" ht="12" spans="1:23">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -20355,7 +20355,7 @@
       <c r="V776" s="2"/>
       <c r="W776" s="2"/>
     </row>
-    <row r="777" spans="1:23">
+    <row r="777" ht="12" spans="1:23">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -20380,7 +20380,7 @@
       <c r="V777" s="2"/>
       <c r="W777" s="2"/>
     </row>
-    <row r="778" spans="1:23">
+    <row r="778" ht="12" spans="1:23">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -20405,7 +20405,7 @@
       <c r="V778" s="2"/>
       <c r="W778" s="2"/>
     </row>
-    <row r="779" spans="1:23">
+    <row r="779" ht="12" spans="1:23">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -20430,7 +20430,7 @@
       <c r="V779" s="2"/>
       <c r="W779" s="2"/>
     </row>
-    <row r="780" spans="1:23">
+    <row r="780" ht="12" spans="1:23">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -20455,7 +20455,7 @@
       <c r="V780" s="2"/>
       <c r="W780" s="2"/>
     </row>
-    <row r="781" spans="1:23">
+    <row r="781" ht="12" spans="1:23">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -20480,7 +20480,7 @@
       <c r="V781" s="2"/>
       <c r="W781" s="2"/>
     </row>
-    <row r="782" spans="1:23">
+    <row r="782" ht="12" spans="1:23">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -20505,7 +20505,7 @@
       <c r="V782" s="2"/>
       <c r="W782" s="2"/>
     </row>
-    <row r="783" spans="1:23">
+    <row r="783" ht="12" spans="1:23">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -20530,7 +20530,7 @@
       <c r="V783" s="2"/>
       <c r="W783" s="2"/>
     </row>
-    <row r="784" spans="1:23">
+    <row r="784" ht="12" spans="1:23">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -20555,7 +20555,7 @@
       <c r="V784" s="2"/>
       <c r="W784" s="2"/>
     </row>
-    <row r="785" spans="1:23">
+    <row r="785" ht="12" spans="1:23">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -20580,7 +20580,7 @@
       <c r="V785" s="2"/>
       <c r="W785" s="2"/>
     </row>
-    <row r="786" spans="1:23">
+    <row r="786" ht="12" spans="1:23">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -20605,7 +20605,7 @@
       <c r="V786" s="2"/>
       <c r="W786" s="2"/>
     </row>
-    <row r="787" spans="1:23">
+    <row r="787" ht="12" spans="1:23">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -20630,7 +20630,7 @@
       <c r="V787" s="2"/>
       <c r="W787" s="2"/>
     </row>
-    <row r="788" spans="1:23">
+    <row r="788" ht="12" spans="1:23">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -20655,7 +20655,7 @@
       <c r="V788" s="2"/>
       <c r="W788" s="2"/>
     </row>
-    <row r="789" spans="1:23">
+    <row r="789" ht="12" spans="1:23">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -20680,7 +20680,7 @@
       <c r="V789" s="2"/>
       <c r="W789" s="2"/>
     </row>
-    <row r="790" spans="1:23">
+    <row r="790" ht="12" spans="1:23">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -20705,7 +20705,7 @@
       <c r="V790" s="2"/>
       <c r="W790" s="2"/>
     </row>
-    <row r="791" spans="1:23">
+    <row r="791" ht="12" spans="1:23">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -20730,7 +20730,7 @@
       <c r="V791" s="2"/>
       <c r="W791" s="2"/>
     </row>
-    <row r="792" spans="1:23">
+    <row r="792" ht="12" spans="1:23">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -20755,7 +20755,7 @@
       <c r="V792" s="2"/>
       <c r="W792" s="2"/>
     </row>
-    <row r="793" spans="1:23">
+    <row r="793" ht="12" spans="1:23">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -20780,7 +20780,7 @@
       <c r="V793" s="2"/>
       <c r="W793" s="2"/>
     </row>
-    <row r="794" spans="1:23">
+    <row r="794" ht="12" spans="1:23">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -20805,7 +20805,7 @@
       <c r="V794" s="2"/>
       <c r="W794" s="2"/>
     </row>
-    <row r="795" spans="1:23">
+    <row r="795" ht="12" spans="1:23">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -20830,7 +20830,7 @@
       <c r="V795" s="2"/>
       <c r="W795" s="2"/>
     </row>
-    <row r="796" spans="1:23">
+    <row r="796" ht="12" spans="1:23">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -20855,7 +20855,7 @@
       <c r="V796" s="2"/>
       <c r="W796" s="2"/>
     </row>
-    <row r="797" spans="1:23">
+    <row r="797" ht="12" spans="1:23">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -20880,7 +20880,7 @@
       <c r="V797" s="2"/>
       <c r="W797" s="2"/>
     </row>
-    <row r="798" spans="1:23">
+    <row r="798" ht="12" spans="1:23">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -20905,7 +20905,7 @@
       <c r="V798" s="2"/>
       <c r="W798" s="2"/>
     </row>
-    <row r="799" spans="1:23">
+    <row r="799" ht="12" spans="1:23">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -20930,7 +20930,7 @@
       <c r="V799" s="2"/>
       <c r="W799" s="2"/>
     </row>
-    <row r="800" spans="1:23">
+    <row r="800" ht="12" spans="1:23">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -20955,7 +20955,7 @@
       <c r="V800" s="2"/>
       <c r="W800" s="2"/>
     </row>
-    <row r="801" spans="1:23">
+    <row r="801" ht="12" spans="1:23">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -20980,7 +20980,7 @@
       <c r="V801" s="2"/>
       <c r="W801" s="2"/>
     </row>
-    <row r="802" spans="1:23">
+    <row r="802" ht="12" spans="1:23">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -21005,7 +21005,7 @@
       <c r="V802" s="2"/>
       <c r="W802" s="2"/>
     </row>
-    <row r="803" spans="1:23">
+    <row r="803" ht="12" spans="1:23">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -21030,7 +21030,7 @@
       <c r="V803" s="2"/>
       <c r="W803" s="2"/>
     </row>
-    <row r="804" spans="1:23">
+    <row r="804" ht="12" spans="1:23">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -21055,7 +21055,7 @@
       <c r="V804" s="2"/>
       <c r="W804" s="2"/>
     </row>
-    <row r="805" spans="1:23">
+    <row r="805" ht="12" spans="1:23">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -21080,7 +21080,7 @@
       <c r="V805" s="2"/>
       <c r="W805" s="2"/>
     </row>
-    <row r="806" spans="1:23">
+    <row r="806" ht="12" spans="1:23">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -21105,7 +21105,7 @@
       <c r="V806" s="2"/>
       <c r="W806" s="2"/>
     </row>
-    <row r="807" spans="1:23">
+    <row r="807" ht="12" spans="1:23">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -21130,7 +21130,7 @@
       <c r="V807" s="2"/>
       <c r="W807" s="2"/>
     </row>
-    <row r="808" spans="1:23">
+    <row r="808" ht="12" spans="1:23">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -21155,7 +21155,7 @@
       <c r="V808" s="2"/>
       <c r="W808" s="2"/>
     </row>
-    <row r="809" spans="1:23">
+    <row r="809" ht="12" spans="1:23">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -21180,7 +21180,7 @@
       <c r="V809" s="2"/>
       <c r="W809" s="2"/>
     </row>
-    <row r="810" spans="1:23">
+    <row r="810" ht="12" spans="1:23">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -21205,7 +21205,7 @@
       <c r="V810" s="2"/>
       <c r="W810" s="2"/>
     </row>
-    <row r="811" spans="1:23">
+    <row r="811" ht="12" spans="1:23">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -21230,7 +21230,7 @@
       <c r="V811" s="2"/>
       <c r="W811" s="2"/>
     </row>
-    <row r="812" spans="1:23">
+    <row r="812" ht="12" spans="1:23">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -21255,7 +21255,7 @@
       <c r="V812" s="2"/>
       <c r="W812" s="2"/>
     </row>
-    <row r="813" spans="1:23">
+    <row r="813" ht="12" spans="1:23">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -21280,7 +21280,7 @@
       <c r="V813" s="2"/>
       <c r="W813" s="2"/>
     </row>
-    <row r="814" spans="1:23">
+    <row r="814" ht="12" spans="1:23">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -21305,7 +21305,7 @@
       <c r="V814" s="2"/>
       <c r="W814" s="2"/>
     </row>
-    <row r="815" spans="1:23">
+    <row r="815" ht="12" spans="1:23">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -21330,7 +21330,7 @@
       <c r="V815" s="2"/>
       <c r="W815" s="2"/>
     </row>
-    <row r="816" spans="1:23">
+    <row r="816" ht="12" spans="1:23">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -21355,7 +21355,7 @@
       <c r="V816" s="2"/>
       <c r="W816" s="2"/>
     </row>
-    <row r="817" spans="1:23">
+    <row r="817" ht="12" spans="1:23">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -21380,7 +21380,7 @@
       <c r="V817" s="2"/>
       <c r="W817" s="2"/>
     </row>
-    <row r="818" spans="1:23">
+    <row r="818" ht="12" spans="1:23">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -21405,7 +21405,7 @@
       <c r="V818" s="2"/>
       <c r="W818" s="2"/>
     </row>
-    <row r="819" spans="1:23">
+    <row r="819" ht="12" spans="1:23">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -21430,7 +21430,7 @@
       <c r="V819" s="2"/>
       <c r="W819" s="2"/>
     </row>
-    <row r="820" spans="1:23">
+    <row r="820" ht="12" spans="1:23">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -21455,7 +21455,7 @@
       <c r="V820" s="2"/>
       <c r="W820" s="2"/>
     </row>
-    <row r="821" spans="1:23">
+    <row r="821" ht="12" spans="1:23">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -21480,7 +21480,7 @@
       <c r="V821" s="2"/>
       <c r="W821" s="2"/>
     </row>
-    <row r="822" spans="1:23">
+    <row r="822" ht="12" spans="1:23">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -21505,7 +21505,7 @@
       <c r="V822" s="2"/>
       <c r="W822" s="2"/>
     </row>
-    <row r="823" spans="1:23">
+    <row r="823" ht="12" spans="1:23">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -21530,7 +21530,7 @@
       <c r="V823" s="2"/>
       <c r="W823" s="2"/>
     </row>
-    <row r="824" spans="1:23">
+    <row r="824" ht="12" spans="1:23">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -21555,7 +21555,7 @@
       <c r="V824" s="2"/>
       <c r="W824" s="2"/>
     </row>
-    <row r="825" spans="1:23">
+    <row r="825" ht="12" spans="1:23">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -21580,7 +21580,7 @@
       <c r="V825" s="2"/>
       <c r="W825" s="2"/>
     </row>
-    <row r="826" spans="1:23">
+    <row r="826" ht="12" spans="1:23">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -21605,7 +21605,7 @@
       <c r="V826" s="2"/>
       <c r="W826" s="2"/>
     </row>
-    <row r="827" spans="1:23">
+    <row r="827" ht="12" spans="1:23">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -21630,7 +21630,7 @@
       <c r="V827" s="2"/>
       <c r="W827" s="2"/>
     </row>
-    <row r="828" spans="1:23">
+    <row r="828" ht="12" spans="1:23">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -21655,7 +21655,7 @@
       <c r="V828" s="2"/>
       <c r="W828" s="2"/>
     </row>
-    <row r="829" spans="1:23">
+    <row r="829" ht="12" spans="1:23">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -21680,7 +21680,7 @@
       <c r="V829" s="2"/>
       <c r="W829" s="2"/>
     </row>
-    <row r="830" spans="1:23">
+    <row r="830" ht="12" spans="1:23">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -21705,7 +21705,7 @@
       <c r="V830" s="2"/>
       <c r="W830" s="2"/>
     </row>
-    <row r="831" spans="1:23">
+    <row r="831" ht="12" spans="1:23">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -21730,7 +21730,7 @@
       <c r="V831" s="2"/>
       <c r="W831" s="2"/>
     </row>
-    <row r="832" spans="1:23">
+    <row r="832" ht="12" spans="1:23">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -21755,7 +21755,7 @@
       <c r="V832" s="2"/>
       <c r="W832" s="2"/>
     </row>
-    <row r="833" spans="1:23">
+    <row r="833" ht="12" spans="1:23">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -21780,7 +21780,7 @@
       <c r="V833" s="2"/>
       <c r="W833" s="2"/>
     </row>
-    <row r="834" spans="1:23">
+    <row r="834" ht="12" spans="1:23">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -21805,7 +21805,7 @@
       <c r="V834" s="2"/>
       <c r="W834" s="2"/>
     </row>
-    <row r="835" spans="1:23">
+    <row r="835" ht="12" spans="1:23">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -21830,7 +21830,7 @@
       <c r="V835" s="2"/>
       <c r="W835" s="2"/>
     </row>
-    <row r="836" spans="1:23">
+    <row r="836" ht="12" spans="1:23">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -21855,7 +21855,7 @@
       <c r="V836" s="2"/>
       <c r="W836" s="2"/>
     </row>
-    <row r="837" spans="1:23">
+    <row r="837" ht="12" spans="1:23">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -21880,7 +21880,7 @@
       <c r="V837" s="2"/>
       <c r="W837" s="2"/>
     </row>
-    <row r="838" spans="1:23">
+    <row r="838" ht="12" spans="1:23">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -21905,7 +21905,7 @@
       <c r="V838" s="2"/>
       <c r="W838" s="2"/>
     </row>
-    <row r="839" spans="1:23">
+    <row r="839" ht="12" spans="1:23">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -21930,7 +21930,7 @@
       <c r="V839" s="2"/>
       <c r="W839" s="2"/>
     </row>
-    <row r="840" spans="1:23">
+    <row r="840" ht="12" spans="1:23">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -21955,7 +21955,7 @@
       <c r="V840" s="2"/>
       <c r="W840" s="2"/>
     </row>
-    <row r="841" spans="1:23">
+    <row r="841" ht="12" spans="1:23">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -21980,7 +21980,7 @@
       <c r="V841" s="2"/>
       <c r="W841" s="2"/>
     </row>
-    <row r="842" spans="1:23">
+    <row r="842" ht="12" spans="1:23">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -22005,7 +22005,7 @@
       <c r="V842" s="2"/>
       <c r="W842" s="2"/>
     </row>
-    <row r="843" spans="1:23">
+    <row r="843" ht="12" spans="1:23">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -22030,7 +22030,7 @@
       <c r="V843" s="2"/>
       <c r="W843" s="2"/>
     </row>
-    <row r="844" spans="1:23">
+    <row r="844" ht="12" spans="1:23">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -22055,7 +22055,7 @@
       <c r="V844" s="2"/>
       <c r="W844" s="2"/>
     </row>
-    <row r="845" spans="1:23">
+    <row r="845" ht="12" spans="1:23">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -22080,7 +22080,7 @@
       <c r="V845" s="2"/>
       <c r="W845" s="2"/>
     </row>
-    <row r="846" spans="1:23">
+    <row r="846" ht="12" spans="1:23">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -22105,7 +22105,7 @@
       <c r="V846" s="2"/>
       <c r="W846" s="2"/>
     </row>
-    <row r="847" spans="1:23">
+    <row r="847" ht="12" spans="1:23">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -22130,7 +22130,7 @@
       <c r="V847" s="2"/>
       <c r="W847" s="2"/>
     </row>
-    <row r="848" spans="1:23">
+    <row r="848" ht="12" spans="1:23">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -22155,7 +22155,7 @@
       <c r="V848" s="2"/>
       <c r="W848" s="2"/>
     </row>
-    <row r="849" spans="1:23">
+    <row r="849" ht="12" spans="1:23">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -22180,7 +22180,7 @@
       <c r="V849" s="2"/>
       <c r="W849" s="2"/>
     </row>
-    <row r="850" spans="1:23">
+    <row r="850" ht="12" spans="1:23">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -22205,7 +22205,7 @@
       <c r="V850" s="2"/>
       <c r="W850" s="2"/>
     </row>
-    <row r="851" spans="1:23">
+    <row r="851" ht="12" spans="1:23">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -22230,7 +22230,7 @@
       <c r="V851" s="2"/>
       <c r="W851" s="2"/>
     </row>
-    <row r="852" spans="1:23">
+    <row r="852" ht="12" spans="1:23">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -22255,7 +22255,7 @@
       <c r="V852" s="2"/>
       <c r="W852" s="2"/>
     </row>
-    <row r="853" spans="1:23">
+    <row r="853" ht="12" spans="1:23">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -22280,7 +22280,7 @@
       <c r="V853" s="2"/>
       <c r="W853" s="2"/>
     </row>
-    <row r="854" spans="1:23">
+    <row r="854" ht="12" spans="1:23">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -22305,7 +22305,7 @@
       <c r="V854" s="2"/>
       <c r="W854" s="2"/>
     </row>
-    <row r="855" spans="1:23">
+    <row r="855" ht="12" spans="1:23">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -22330,7 +22330,7 @@
       <c r="V855" s="2"/>
       <c r="W855" s="2"/>
     </row>
-    <row r="856" spans="1:23">
+    <row r="856" ht="12" spans="1:23">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -22355,7 +22355,7 @@
       <c r="V856" s="2"/>
       <c r="W856" s="2"/>
     </row>
-    <row r="857" spans="1:23">
+    <row r="857" ht="12" spans="1:23">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -22380,7 +22380,7 @@
       <c r="V857" s="2"/>
       <c r="W857" s="2"/>
     </row>
-    <row r="858" spans="1:23">
+    <row r="858" ht="12" spans="1:23">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -22405,7 +22405,7 @@
       <c r="V858" s="2"/>
       <c r="W858" s="2"/>
     </row>
-    <row r="859" spans="1:23">
+    <row r="859" ht="12" spans="1:23">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -22430,7 +22430,7 @@
       <c r="V859" s="2"/>
       <c r="W859" s="2"/>
     </row>
-    <row r="860" spans="1:23">
+    <row r="860" ht="12" spans="1:23">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -22455,7 +22455,7 @@
       <c r="V860" s="2"/>
       <c r="W860" s="2"/>
     </row>
-    <row r="861" spans="1:23">
+    <row r="861" ht="12" spans="1:23">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -22480,7 +22480,7 @@
       <c r="V861" s="2"/>
       <c r="W861" s="2"/>
     </row>
-    <row r="862" spans="1:23">
+    <row r="862" ht="12" spans="1:23">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -22505,7 +22505,7 @@
       <c r="V862" s="2"/>
       <c r="W862" s="2"/>
     </row>
-    <row r="863" spans="1:23">
+    <row r="863" ht="12" spans="1:23">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -22530,7 +22530,7 @@
       <c r="V863" s="2"/>
       <c r="W863" s="2"/>
     </row>
-    <row r="864" spans="1:23">
+    <row r="864" ht="12" spans="1:23">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -22555,7 +22555,7 @@
       <c r="V864" s="2"/>
       <c r="W864" s="2"/>
     </row>
-    <row r="865" spans="1:23">
+    <row r="865" ht="12" spans="1:23">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -22580,7 +22580,7 @@
       <c r="V865" s="2"/>
       <c r="W865" s="2"/>
     </row>
-    <row r="866" spans="1:23">
+    <row r="866" ht="12" spans="1:23">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -22605,7 +22605,7 @@
       <c r="V866" s="2"/>
       <c r="W866" s="2"/>
     </row>
-    <row r="867" spans="1:23">
+    <row r="867" ht="12" spans="1:23">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -22630,7 +22630,7 @@
       <c r="V867" s="2"/>
       <c r="W867" s="2"/>
     </row>
-    <row r="868" spans="1:23">
+    <row r="868" ht="12" spans="1:23">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -22655,7 +22655,7 @@
       <c r="V868" s="2"/>
       <c r="W868" s="2"/>
     </row>
-    <row r="869" spans="1:23">
+    <row r="869" ht="12" spans="1:23">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -22680,7 +22680,7 @@
       <c r="V869" s="2"/>
       <c r="W869" s="2"/>
     </row>
-    <row r="870" spans="1:23">
+    <row r="870" ht="12" spans="1:23">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -22705,7 +22705,7 @@
       <c r="V870" s="2"/>
       <c r="W870" s="2"/>
     </row>
-    <row r="871" spans="1:23">
+    <row r="871" ht="12" spans="1:23">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -22730,7 +22730,7 @@
       <c r="V871" s="2"/>
       <c r="W871" s="2"/>
     </row>
-    <row r="872" spans="1:23">
+    <row r="872" ht="12" spans="1:23">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -22755,7 +22755,7 @@
       <c r="V872" s="2"/>
       <c r="W872" s="2"/>
     </row>
-    <row r="873" spans="1:23">
+    <row r="873" ht="12" spans="1:23">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -22780,7 +22780,7 @@
       <c r="V873" s="2"/>
       <c r="W873" s="2"/>
     </row>
-    <row r="874" spans="1:23">
+    <row r="874" ht="12" spans="1:23">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -22805,7 +22805,7 @@
       <c r="V874" s="2"/>
       <c r="W874" s="2"/>
     </row>
-    <row r="875" spans="1:23">
+    <row r="875" ht="12" spans="1:23">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -22830,7 +22830,7 @@
       <c r="V875" s="2"/>
       <c r="W875" s="2"/>
     </row>
-    <row r="876" spans="1:23">
+    <row r="876" ht="12" spans="1:23">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -22855,7 +22855,7 @@
       <c r="V876" s="2"/>
       <c r="W876" s="2"/>
     </row>
-    <row r="877" spans="1:23">
+    <row r="877" ht="12" spans="1:23">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -22880,7 +22880,7 @@
       <c r="V877" s="2"/>
       <c r="W877" s="2"/>
     </row>
-    <row r="878" spans="1:23">
+    <row r="878" ht="12" spans="1:23">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -22905,7 +22905,7 @@
       <c r="V878" s="2"/>
       <c r="W878" s="2"/>
     </row>
-    <row r="879" spans="1:23">
+    <row r="879" ht="12" spans="1:23">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -22930,7 +22930,7 @@
       <c r="V879" s="2"/>
       <c r="W879" s="2"/>
     </row>
-    <row r="880" spans="1:23">
+    <row r="880" ht="12" spans="1:23">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -22955,7 +22955,7 @@
       <c r="V880" s="2"/>
       <c r="W880" s="2"/>
     </row>
-    <row r="881" spans="1:23">
+    <row r="881" ht="12" spans="1:23">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -22980,7 +22980,7 @@
       <c r="V881" s="2"/>
       <c r="W881" s="2"/>
     </row>
-    <row r="882" spans="1:23">
+    <row r="882" ht="12" spans="1:23">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -23005,7 +23005,7 @@
       <c r="V882" s="2"/>
       <c r="W882" s="2"/>
     </row>
-    <row r="883" spans="1:23">
+    <row r="883" ht="12" spans="1:23">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -23030,7 +23030,7 @@
       <c r="V883" s="2"/>
       <c r="W883" s="2"/>
     </row>
-    <row r="884" spans="1:23">
+    <row r="884" ht="12" spans="1:23">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -23055,7 +23055,7 @@
       <c r="V884" s="2"/>
       <c r="W884" s="2"/>
     </row>
-    <row r="885" spans="1:23">
+    <row r="885" ht="12" spans="1:23">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -23080,7 +23080,7 @@
       <c r="V885" s="2"/>
       <c r="W885" s="2"/>
     </row>
-    <row r="886" spans="1:23">
+    <row r="886" ht="12" spans="1:23">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -23105,7 +23105,7 @@
       <c r="V886" s="2"/>
       <c r="W886" s="2"/>
     </row>
-    <row r="887" spans="1:23">
+    <row r="887" ht="12" spans="1:23">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -23130,7 +23130,7 @@
       <c r="V887" s="2"/>
       <c r="W887" s="2"/>
     </row>
-    <row r="888" spans="1:23">
+    <row r="888" ht="12" spans="1:23">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -23155,7 +23155,7 @@
       <c r="V888" s="2"/>
       <c r="W888" s="2"/>
     </row>
-    <row r="889" spans="1:23">
+    <row r="889" ht="12" spans="1:23">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -23180,7 +23180,7 @@
       <c r="V889" s="2"/>
       <c r="W889" s="2"/>
     </row>
-    <row r="890" spans="1:23">
+    <row r="890" ht="12" spans="1:23">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -23205,7 +23205,7 @@
       <c r="V890" s="2"/>
       <c r="W890" s="2"/>
     </row>
-    <row r="891" spans="1:23">
+    <row r="891" ht="12" spans="1:23">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -23230,7 +23230,7 @@
       <c r="V891" s="2"/>
       <c r="W891" s="2"/>
     </row>
-    <row r="892" spans="1:23">
+    <row r="892" ht="12" spans="1:23">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -23255,7 +23255,7 @@
       <c r="V892" s="2"/>
       <c r="W892" s="2"/>
     </row>
-    <row r="893" spans="1:23">
+    <row r="893" ht="12" spans="1:23">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -23280,7 +23280,7 @@
       <c r="V893" s="2"/>
       <c r="W893" s="2"/>
     </row>
-    <row r="894" spans="1:23">
+    <row r="894" ht="12" spans="1:23">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -23305,7 +23305,7 @@
       <c r="V894" s="2"/>
       <c r="W894" s="2"/>
     </row>
-    <row r="895" spans="1:23">
+    <row r="895" ht="12" spans="1:23">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -23330,7 +23330,7 @@
       <c r="V895" s="2"/>
       <c r="W895" s="2"/>
     </row>
-    <row r="896" spans="1:23">
+    <row r="896" ht="12" spans="1:23">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -23355,7 +23355,7 @@
       <c r="V896" s="2"/>
       <c r="W896" s="2"/>
     </row>
-    <row r="897" spans="1:23">
+    <row r="897" ht="12" spans="1:23">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -23380,7 +23380,7 @@
       <c r="V897" s="2"/>
       <c r="W897" s="2"/>
     </row>
-    <row r="898" spans="1:23">
+    <row r="898" ht="12" spans="1:23">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -23405,7 +23405,7 @@
       <c r="V898" s="2"/>
       <c r="W898" s="2"/>
     </row>
-    <row r="899" spans="1:23">
+    <row r="899" ht="12" spans="1:23">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -23430,7 +23430,7 @@
       <c r="V899" s="2"/>
       <c r="W899" s="2"/>
     </row>
-    <row r="900" spans="1:23">
+    <row r="900" ht="12" spans="1:23">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -23455,7 +23455,7 @@
       <c r="V900" s="2"/>
       <c r="W900" s="2"/>
     </row>
-    <row r="901" spans="1:23">
+    <row r="901" ht="12" spans="1:23">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -23480,7 +23480,7 @@
       <c r="V901" s="2"/>
       <c r="W901" s="2"/>
     </row>
-    <row r="902" spans="1:23">
+    <row r="902" ht="12" spans="1:23">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -23505,7 +23505,7 @@
       <c r="V902" s="2"/>
       <c r="W902" s="2"/>
     </row>
-    <row r="903" spans="1:23">
+    <row r="903" ht="12" spans="1:23">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -23530,7 +23530,7 @@
       <c r="V903" s="2"/>
       <c r="W903" s="2"/>
     </row>
-    <row r="904" spans="1:23">
+    <row r="904" ht="12" spans="1:23">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -23555,7 +23555,7 @@
       <c r="V904" s="2"/>
       <c r="W904" s="2"/>
     </row>
-    <row r="905" spans="1:23">
+    <row r="905" ht="12" spans="1:23">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -23580,7 +23580,7 @@
       <c r="V905" s="2"/>
       <c r="W905" s="2"/>
     </row>
-    <row r="906" spans="1:23">
+    <row r="906" ht="12" spans="1:23">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -23605,7 +23605,7 @@
       <c r="V906" s="2"/>
       <c r="W906" s="2"/>
     </row>
-    <row r="907" spans="1:23">
+    <row r="907" ht="12" spans="1:23">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -23630,7 +23630,7 @@
       <c r="V907" s="2"/>
       <c r="W907" s="2"/>
     </row>
-    <row r="908" spans="1:23">
+    <row r="908" ht="12" spans="1:23">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -23655,7 +23655,7 @@
       <c r="V908" s="2"/>
       <c r="W908" s="2"/>
     </row>
-    <row r="909" spans="1:23">
+    <row r="909" ht="12" spans="1:23">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -23680,7 +23680,7 @@
       <c r="V909" s="2"/>
       <c r="W909" s="2"/>
     </row>
-    <row r="910" spans="1:23">
+    <row r="910" ht="12" spans="1:23">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -23705,7 +23705,7 @@
       <c r="V910" s="2"/>
       <c r="W910" s="2"/>
     </row>
-    <row r="911" spans="1:23">
+    <row r="911" ht="12" spans="1:23">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -23730,7 +23730,7 @@
       <c r="V911" s="2"/>
       <c r="W911" s="2"/>
     </row>
-    <row r="912" spans="1:23">
+    <row r="912" ht="12" spans="1:23">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -23755,7 +23755,7 @@
       <c r="V912" s="2"/>
       <c r="W912" s="2"/>
     </row>
-    <row r="913" spans="1:23">
+    <row r="913" ht="12" spans="1:23">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -23780,7 +23780,7 @@
       <c r="V913" s="2"/>
       <c r="W913" s="2"/>
     </row>
-    <row r="914" spans="1:23">
+    <row r="914" ht="12" spans="1:23">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -23805,7 +23805,7 @@
       <c r="V914" s="2"/>
       <c r="W914" s="2"/>
     </row>
-    <row r="915" spans="1:23">
+    <row r="915" ht="12" spans="1:23">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -23830,7 +23830,7 @@
       <c r="V915" s="2"/>
       <c r="W915" s="2"/>
     </row>
-    <row r="916" spans="1:23">
+    <row r="916" ht="12" spans="1:23">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -23855,7 +23855,7 @@
       <c r="V916" s="2"/>
       <c r="W916" s="2"/>
     </row>
-    <row r="917" spans="1:23">
+    <row r="917" ht="12" spans="1:23">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -23880,7 +23880,7 @@
       <c r="V917" s="2"/>
       <c r="W917" s="2"/>
     </row>
-    <row r="918" spans="1:23">
+    <row r="918" ht="12" spans="1:23">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -23905,7 +23905,7 @@
       <c r="V918" s="2"/>
       <c r="W918" s="2"/>
     </row>
-    <row r="919" spans="1:23">
+    <row r="919" ht="12" spans="1:23">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -23930,7 +23930,7 @@
       <c r="V919" s="2"/>
       <c r="W919" s="2"/>
     </row>
-    <row r="920" spans="1:23">
+    <row r="920" ht="12" spans="1:23">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -23955,7 +23955,7 @@
       <c r="V920" s="2"/>
       <c r="W920" s="2"/>
     </row>
-    <row r="921" spans="1:23">
+    <row r="921" ht="12" spans="1:23">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -23980,7 +23980,7 @@
       <c r="V921" s="2"/>
       <c r="W921" s="2"/>
     </row>
-    <row r="922" spans="1:23">
+    <row r="922" ht="12" spans="1:23">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -24005,7 +24005,7 @@
       <c r="V922" s="2"/>
       <c r="W922" s="2"/>
     </row>
-    <row r="923" spans="1:23">
+    <row r="923" ht="12" spans="1:23">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -24030,7 +24030,7 @@
       <c r="V923" s="2"/>
       <c r="W923" s="2"/>
     </row>
-    <row r="924" spans="1:23">
+    <row r="924" ht="12" spans="1:23">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -24055,7 +24055,7 @@
       <c r="V924" s="2"/>
       <c r="W924" s="2"/>
     </row>
-    <row r="925" spans="1:23">
+    <row r="925" ht="12" spans="1:23">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -24080,7 +24080,7 @@
       <c r="V925" s="2"/>
       <c r="W925" s="2"/>
     </row>
-    <row r="926" spans="1:23">
+    <row r="926" ht="12" spans="1:23">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -24105,7 +24105,7 @@
       <c r="V926" s="2"/>
       <c r="W926" s="2"/>
     </row>
-    <row r="927" spans="1:23">
+    <row r="927" ht="12" spans="1:23">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -24130,7 +24130,7 @@
       <c r="V927" s="2"/>
       <c r="W927" s="2"/>
     </row>
-    <row r="928" spans="1:23">
+    <row r="928" ht="12" spans="1:23">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -24155,7 +24155,7 @@
       <c r="V928" s="2"/>
       <c r="W928" s="2"/>
     </row>
-    <row r="929" spans="1:23">
+    <row r="929" ht="12" spans="1:23">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -24180,7 +24180,7 @@
       <c r="V929" s="2"/>
       <c r="W929" s="2"/>
     </row>
-    <row r="930" spans="1:23">
+    <row r="930" ht="12" spans="1:23">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -24205,7 +24205,7 @@
       <c r="V930" s="2"/>
       <c r="W930" s="2"/>
     </row>
-    <row r="931" spans="1:23">
+    <row r="931" ht="12" spans="1:23">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -24230,7 +24230,7 @@
       <c r="V931" s="2"/>
       <c r="W931" s="2"/>
     </row>
-    <row r="932" spans="1:23">
+    <row r="932" ht="12" spans="1:23">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -24255,7 +24255,7 @@
       <c r="V932" s="2"/>
       <c r="W932" s="2"/>
     </row>
-    <row r="933" spans="1:23">
+    <row r="933" ht="12" spans="1:23">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -24280,7 +24280,7 @@
       <c r="V933" s="2"/>
       <c r="W933" s="2"/>
     </row>
-    <row r="934" spans="1:23">
+    <row r="934" ht="12" spans="1:23">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -24305,7 +24305,7 @@
       <c r="V934" s="2"/>
       <c r="W934" s="2"/>
     </row>
-    <row r="935" spans="1:23">
+    <row r="935" ht="12" spans="1:23">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -24330,7 +24330,7 @@
       <c r="V935" s="2"/>
       <c r="W935" s="2"/>
     </row>
-    <row r="936" spans="1:23">
+    <row r="936" ht="12" spans="1:23">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -24355,7 +24355,7 @@
       <c r="V936" s="2"/>
       <c r="W936" s="2"/>
     </row>
-    <row r="937" spans="1:23">
+    <row r="937" ht="12" spans="1:23">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -24380,7 +24380,7 @@
       <c r="V937" s="2"/>
       <c r="W937" s="2"/>
     </row>
-    <row r="938" spans="1:23">
+    <row r="938" ht="12" spans="1:23">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -24405,7 +24405,7 @@
       <c r="V938" s="2"/>
       <c r="W938" s="2"/>
     </row>
-    <row r="939" spans="1:23">
+    <row r="939" ht="12" spans="1:23">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -24430,7 +24430,7 @@
       <c r="V939" s="2"/>
       <c r="W939" s="2"/>
     </row>
-    <row r="940" spans="1:23">
+    <row r="940" ht="12" spans="1:23">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -24455,7 +24455,7 @@
       <c r="V940" s="2"/>
       <c r="W940" s="2"/>
     </row>
-    <row r="941" spans="1:23">
+    <row r="941" ht="12" spans="1:23">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -24480,7 +24480,7 @@
       <c r="V941" s="2"/>
       <c r="W941" s="2"/>
     </row>
-    <row r="942" spans="1:23">
+    <row r="942" ht="12" spans="1:23">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -24505,7 +24505,7 @@
       <c r="V942" s="2"/>
       <c r="W942" s="2"/>
     </row>
-    <row r="943" spans="1:23">
+    <row r="943" ht="12" spans="1:23">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -24530,7 +24530,7 @@
       <c r="V943" s="2"/>
       <c r="W943" s="2"/>
     </row>
-    <row r="944" spans="1:23">
+    <row r="944" ht="12" spans="1:23">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -24555,7 +24555,7 @@
       <c r="V944" s="2"/>
       <c r="W944" s="2"/>
     </row>
-    <row r="945" spans="1:23">
+    <row r="945" ht="12" spans="1:23">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -24580,7 +24580,7 @@
       <c r="V945" s="2"/>
       <c r="W945" s="2"/>
     </row>
-    <row r="946" spans="1:23">
+    <row r="946" ht="12" spans="1:23">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -24605,7 +24605,7 @@
       <c r="V946" s="2"/>
       <c r="W946" s="2"/>
     </row>
-    <row r="947" spans="1:23">
+    <row r="947" ht="12" spans="1:23">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -24630,7 +24630,7 @@
       <c r="V947" s="2"/>
       <c r="W947" s="2"/>
     </row>
-    <row r="948" spans="1:23">
+    <row r="948" ht="12" spans="1:23">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -24655,7 +24655,7 @@
       <c r="V948" s="2"/>
       <c r="W948" s="2"/>
     </row>
-    <row r="949" spans="1:23">
+    <row r="949" ht="12" spans="1:23">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -24680,7 +24680,7 @@
       <c r="V949" s="2"/>
       <c r="W949" s="2"/>
     </row>
-    <row r="950" spans="1:23">
+    <row r="950" ht="12" spans="1:23">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -24705,7 +24705,7 @@
       <c r="V950" s="2"/>
       <c r="W950" s="2"/>
     </row>
-    <row r="951" spans="1:23">
+    <row r="951" ht="12" spans="1:23">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -24730,7 +24730,7 @@
       <c r="V951" s="2"/>
       <c r="W951" s="2"/>
     </row>
-    <row r="952" spans="1:23">
+    <row r="952" ht="12" spans="1:23">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -24755,7 +24755,7 @@
       <c r="V952" s="2"/>
       <c r="W952" s="2"/>
     </row>
-    <row r="953" spans="1:23">
+    <row r="953" ht="12" spans="1:23">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -24780,7 +24780,7 @@
       <c r="V953" s="2"/>
       <c r="W953" s="2"/>
     </row>
-    <row r="954" spans="1:23">
+    <row r="954" ht="12" spans="1:23">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -24805,7 +24805,7 @@
       <c r="V954" s="2"/>
       <c r="W954" s="2"/>
     </row>
-    <row r="955" spans="1:23">
+    <row r="955" ht="12" spans="1:23">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -24830,7 +24830,7 @@
       <c r="V955" s="2"/>
       <c r="W955" s="2"/>
     </row>
-    <row r="956" spans="1:23">
+    <row r="956" ht="12" spans="1:23">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -24855,7 +24855,7 @@
       <c r="V956" s="2"/>
       <c r="W956" s="2"/>
     </row>
-    <row r="957" spans="1:23">
+    <row r="957" ht="12" spans="1:23">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -24880,7 +24880,7 @@
       <c r="V957" s="2"/>
       <c r="W957" s="2"/>
     </row>
-    <row r="958" spans="1:23">
+    <row r="958" ht="12" spans="1:23">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -24905,7 +24905,7 @@
       <c r="V958" s="2"/>
       <c r="W958" s="2"/>
     </row>
-    <row r="959" spans="1:23">
+    <row r="959" ht="12" spans="1:23">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -24930,7 +24930,7 @@
       <c r="V959" s="2"/>
       <c r="W959" s="2"/>
     </row>
-    <row r="960" spans="1:23">
+    <row r="960" ht="12" spans="1:23">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -24955,7 +24955,7 @@
       <c r="V960" s="2"/>
       <c r="W960" s="2"/>
     </row>
-    <row r="961" spans="1:23">
+    <row r="961" ht="12" spans="1:23">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -24980,7 +24980,7 @@
       <c r="V961" s="2"/>
       <c r="W961" s="2"/>
     </row>
-    <row r="962" spans="1:23">
+    <row r="962" ht="12" spans="1:23">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -25005,7 +25005,7 @@
       <c r="V962" s="2"/>
       <c r="W962" s="2"/>
     </row>
-    <row r="963" spans="1:23">
+    <row r="963" ht="12" spans="1:23">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -25030,7 +25030,7 @@
       <c r="V963" s="2"/>
       <c r="W963" s="2"/>
     </row>
-    <row r="964" spans="1:23">
+    <row r="964" ht="12" spans="1:23">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -25055,7 +25055,7 @@
       <c r="V964" s="2"/>
       <c r="W964" s="2"/>
     </row>
-    <row r="965" spans="1:23">
+    <row r="965" ht="12" spans="1:23">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -25080,7 +25080,7 @@
       <c r="V965" s="2"/>
       <c r="W965" s="2"/>
     </row>
-    <row r="966" spans="1:23">
+    <row r="966" ht="12" spans="1:23">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -25105,7 +25105,7 @@
       <c r="V966" s="2"/>
       <c r="W966" s="2"/>
     </row>
-    <row r="967" spans="1:23">
+    <row r="967" ht="12" spans="1:23">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -25130,7 +25130,7 @@
       <c r="V967" s="2"/>
       <c r="W967" s="2"/>
     </row>
-    <row r="968" spans="1:23">
+    <row r="968" ht="12" spans="1:23">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -25155,7 +25155,7 @@
       <c r="V968" s="2"/>
       <c r="W968" s="2"/>
     </row>
-    <row r="969" spans="1:23">
+    <row r="969" ht="12" spans="1:23">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -25180,7 +25180,7 @@
       <c r="V969" s="2"/>
       <c r="W969" s="2"/>
     </row>
-    <row r="970" spans="1:23">
+    <row r="970" ht="12" spans="1:23">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -25205,7 +25205,7 @@
       <c r="V970" s="2"/>
       <c r="W970" s="2"/>
     </row>
-    <row r="971" spans="1:23">
+    <row r="971" ht="12" spans="1:23">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -25230,7 +25230,7 @@
       <c r="V971" s="2"/>
       <c r="W971" s="2"/>
     </row>
-    <row r="972" spans="1:23">
+    <row r="972" ht="12" spans="1:23">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -25255,7 +25255,7 @@
       <c r="V972" s="2"/>
       <c r="W972" s="2"/>
     </row>
-    <row r="973" spans="1:23">
+    <row r="973" ht="12" spans="1:23">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -25280,7 +25280,7 @@
       <c r="V973" s="2"/>
       <c r="W973" s="2"/>
     </row>
-    <row r="974" spans="1:23">
+    <row r="974" ht="12" spans="1:23">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -25305,7 +25305,7 @@
       <c r="V974" s="2"/>
       <c r="W974" s="2"/>
     </row>
-    <row r="975" spans="1:23">
+    <row r="975" ht="12" spans="1:23">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -25330,7 +25330,7 @@
       <c r="V975" s="2"/>
       <c r="W975" s="2"/>
     </row>
-    <row r="976" spans="1:23">
+    <row r="976" ht="12" spans="1:23">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -25355,7 +25355,7 @@
       <c r="V976" s="2"/>
       <c r="W976" s="2"/>
     </row>
-    <row r="977" spans="1:23">
+    <row r="977" ht="12" spans="1:23">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -25380,7 +25380,7 @@
       <c r="V977" s="2"/>
       <c r="W977" s="2"/>
     </row>
-    <row r="978" spans="1:23">
+    <row r="978" ht="12" spans="1:23">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -25405,7 +25405,7 @@
       <c r="V978" s="2"/>
       <c r="W978" s="2"/>
     </row>
-    <row r="979" spans="1:23">
+    <row r="979" ht="12" spans="1:23">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -25430,7 +25430,7 @@
       <c r="V979" s="2"/>
       <c r="W979" s="2"/>
     </row>
-    <row r="980" spans="1:23">
+    <row r="980" ht="12" spans="1:23">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -25455,7 +25455,7 @@
       <c r="V980" s="2"/>
       <c r="W980" s="2"/>
     </row>
-    <row r="981" spans="1:23">
+    <row r="981" ht="12" spans="1:23">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -25480,7 +25480,7 @@
       <c r="V981" s="2"/>
       <c r="W981" s="2"/>
     </row>
-    <row r="982" spans="1:23">
+    <row r="982" ht="12" spans="1:23">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -25505,7 +25505,7 @@
       <c r="V982" s="2"/>
       <c r="W982" s="2"/>
     </row>
-    <row r="983" spans="1:23">
+    <row r="983" ht="12" spans="1:23">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -25530,7 +25530,7 @@
       <c r="V983" s="2"/>
       <c r="W983" s="2"/>
     </row>
-    <row r="984" spans="1:23">
+    <row r="984" ht="12" spans="1:23">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -25555,7 +25555,7 @@
       <c r="V984" s="2"/>
       <c r="W984" s="2"/>
     </row>
-    <row r="985" spans="1:23">
+    <row r="985" ht="12" spans="1:23">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -25580,7 +25580,7 @@
       <c r="V985" s="2"/>
       <c r="W985" s="2"/>
     </row>
-    <row r="986" spans="1:23">
+    <row r="986" ht="12" spans="1:23">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -25605,7 +25605,7 @@
       <c r="V986" s="2"/>
       <c r="W986" s="2"/>
     </row>
-    <row r="987" spans="1:23">
+    <row r="987" ht="12" spans="1:23">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -25630,7 +25630,7 @@
       <c r="V987" s="2"/>
       <c r="W987" s="2"/>
     </row>
-    <row r="988" spans="1:23">
+    <row r="988" ht="12" spans="1:23">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -25655,7 +25655,7 @@
       <c r="V988" s="2"/>
       <c r="W988" s="2"/>
     </row>
-    <row r="989" spans="1:23">
+    <row r="989" ht="12" spans="1:23">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -25680,7 +25680,7 @@
       <c r="V989" s="2"/>
       <c r="W989" s="2"/>
     </row>
-    <row r="990" spans="1:23">
+    <row r="990" ht="12" spans="1:23">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -25705,7 +25705,7 @@
       <c r="V990" s="2"/>
       <c r="W990" s="2"/>
     </row>
-    <row r="991" spans="1:23">
+    <row r="991" ht="12" spans="1:23">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -25730,7 +25730,7 @@
       <c r="V991" s="2"/>
       <c r="W991" s="2"/>
     </row>
-    <row r="992" spans="1:23">
+    <row r="992" ht="12" spans="1:23">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -25755,7 +25755,7 @@
       <c r="V992" s="2"/>
       <c r="W992" s="2"/>
     </row>
-    <row r="993" spans="1:23">
+    <row r="993" ht="12" spans="1:23">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -25780,7 +25780,7 @@
       <c r="V993" s="2"/>
       <c r="W993" s="2"/>
     </row>
-    <row r="994" spans="1:23">
+    <row r="994" ht="12" spans="1:23">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -25805,7 +25805,7 @@
       <c r="V994" s="2"/>
       <c r="W994" s="2"/>
     </row>
-    <row r="995" spans="1:23">
+    <row r="995" ht="12" spans="1:23">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -25830,7 +25830,7 @@
       <c r="V995" s="2"/>
       <c r="W995" s="2"/>
     </row>
-    <row r="996" spans="1:23">
+    <row r="996" ht="12" spans="1:23">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -25855,7 +25855,7 @@
       <c r="V996" s="2"/>
       <c r="W996" s="2"/>
     </row>
-    <row r="997" spans="1:23">
+    <row r="997" ht="12" spans="1:23">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -25880,7 +25880,7 @@
       <c r="V997" s="2"/>
       <c r="W997" s="2"/>
     </row>
-    <row r="998" spans="1:23">
+    <row r="998" ht="12" spans="1:23">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -25905,7 +25905,7 @@
       <c r="V998" s="2"/>
       <c r="W998" s="2"/>
     </row>
-    <row r="999" spans="1:23">
+    <row r="999" ht="12" spans="1:23">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
@@ -25930,7 +25930,7 @@
       <c r="V999" s="2"/>
       <c r="W999" s="2"/>
     </row>
-    <row r="1000" spans="1:23">
+    <row r="1000" ht="12" spans="1:23">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
